--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYH\Desktop\魔卡幻想\new\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="12600"/>
+    <workbookView windowWidth="25110" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465">
   <si>
     <t>王国</t>
   </si>
@@ -939,19 +934,409 @@
     <t>巫妖领主</t>
   </si>
   <si>
+    <t>回春时光</t>
+  </si>
+  <si>
+    <t>甘霖时光</t>
+  </si>
+  <si>
+    <t>降临传送兔子</t>
+  </si>
+  <si>
+    <t>冰甲金属</t>
+  </si>
+  <si>
+    <t>陷阱2金属</t>
+  </si>
+  <si>
+    <t>连锁元素灵龙</t>
+  </si>
+  <si>
+    <t>免疫元素灵龙</t>
+  </si>
+  <si>
+    <t>不动元素灵龙</t>
+  </si>
+  <si>
+    <t>复苏</t>
+  </si>
+  <si>
+    <t>免疫龙角</t>
+  </si>
+  <si>
+    <t>横扫龙角</t>
+  </si>
+  <si>
+    <t>横扫毒龙</t>
+  </si>
+  <si>
+    <t>烈火毒龙</t>
+  </si>
+  <si>
+    <t>法侵化蛇</t>
+  </si>
+  <si>
+    <t>转生海妖</t>
+  </si>
+  <si>
+    <t>脱困兔子</t>
+  </si>
+  <si>
+    <t>弱点金属*2</t>
+  </si>
+  <si>
+    <t>甘霖金属</t>
+  </si>
+  <si>
+    <t>祈祷金属</t>
+  </si>
+  <si>
+    <t>不动化蛇</t>
+  </si>
+  <si>
+    <t>暴击雷兽</t>
+  </si>
+  <si>
+    <t>暗杀雷兽</t>
+  </si>
+  <si>
+    <t>冰甲老头（必须留张先知堕掉）</t>
+  </si>
+  <si>
+    <t>回春天使</t>
+  </si>
+  <si>
+    <t>本源守护天使</t>
+  </si>
+  <si>
+    <t>弱点攻击扫荡者</t>
+  </si>
+  <si>
+    <t>复仇巫妖</t>
+  </si>
+  <si>
+    <t>脱困堕落天使</t>
+  </si>
+  <si>
+    <t>甘霖狗头</t>
+  </si>
+  <si>
+    <t>免疫末日</t>
+  </si>
+  <si>
+    <t>不屈圆月魔女</t>
+  </si>
+  <si>
+    <t>欲望惩罚者</t>
+  </si>
+  <si>
+    <t>战争怒吼陨星</t>
+  </si>
+  <si>
+    <t>回魂2兔子</t>
+  </si>
+  <si>
+    <t>战争怒吼时光</t>
+  </si>
+  <si>
+    <t>暴击时光</t>
+  </si>
+  <si>
+    <t>回春8时光</t>
+  </si>
+  <si>
+    <t>战意8时光</t>
+  </si>
+  <si>
+    <t>甘霖9兔子</t>
+  </si>
+  <si>
+    <t>回魂2精灵女王</t>
+  </si>
+  <si>
+    <t>吸血8金属</t>
+  </si>
+  <si>
+    <t>连锁6金属</t>
+  </si>
+  <si>
+    <t>森林之力8梦境</t>
+  </si>
+  <si>
+    <t>死契复活月女</t>
+  </si>
+  <si>
+    <t>冰甲8雷雕</t>
+  </si>
+  <si>
+    <t>吸血8雷雕</t>
+  </si>
+  <si>
+    <t>全法侵：</t>
+  </si>
+  <si>
+    <t>法侵精灵女王</t>
+  </si>
+  <si>
+    <t>脱困时光</t>
+  </si>
+  <si>
+    <t>森林守护时光</t>
+  </si>
+  <si>
+    <t>格挡时光</t>
+  </si>
+  <si>
+    <t>森林之力梦境</t>
+  </si>
+  <si>
+    <t>甘霖梦境</t>
+  </si>
+  <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>脱困圣诞</t>
+  </si>
+  <si>
+    <t>不动恐惧</t>
+  </si>
+  <si>
+    <t>格挡暗夜魔影</t>
+  </si>
+  <si>
+    <t>转生暗夜魔影</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>3狗头：</t>
+  </si>
+  <si>
+    <t>祈祷天使*2</t>
+  </si>
+  <si>
+    <t>回魂2女武神</t>
+  </si>
+  <si>
+    <t>圣炎圆月</t>
+  </si>
+  <si>
+    <t>不屈月蚀兽</t>
+  </si>
+  <si>
+    <t>转生堕落天使</t>
+  </si>
+  <si>
+    <t>甘霖堕落天使</t>
+  </si>
+  <si>
+    <t>邪灵狗头</t>
+  </si>
+  <si>
+    <t>本源之力狗头</t>
+  </si>
+  <si>
+    <t>本源守护狗头</t>
+  </si>
+  <si>
+    <t>要点：堕掉女武神</t>
+  </si>
+  <si>
+    <t>战神+弱点攻击</t>
+  </si>
+  <si>
+    <t>光龙+圣炎</t>
+  </si>
+  <si>
+    <t>天界守护者+封印</t>
+  </si>
+  <si>
+    <t>梦境耳语者+免疫</t>
+  </si>
+  <si>
+    <t>圣泉元神+群体削弱9</t>
+  </si>
+  <si>
+    <t>摩羯大祭司+不动</t>
+  </si>
+  <si>
+    <t>太古魔狼+免疫</t>
+  </si>
+  <si>
+    <t>齐天美猴王+虚弱</t>
+  </si>
+  <si>
+    <t>堕落天使+趁胜追击7</t>
+  </si>
+  <si>
+    <t>镜魔+穿刺6</t>
+  </si>
+  <si>
+    <t>无尽噩梦+不动</t>
+  </si>
+  <si>
+    <t>堕落天使+虚弱</t>
+  </si>
+  <si>
+    <t>亡灵守护者+暴风雪7</t>
+  </si>
+  <si>
+    <t>圣诞老人+免疫</t>
+  </si>
+  <si>
+    <t>幸运星贤者</t>
+  </si>
+  <si>
+    <t>齐天美猴王+免疫</t>
+  </si>
+  <si>
+    <t>月蚀兽+全体阻碍1</t>
+  </si>
+  <si>
+    <t>死兆星+全体加速1</t>
+  </si>
+  <si>
+    <t>圆月魔女+阻碍1</t>
+  </si>
+  <si>
+    <t>死兆星+全体阻碍1</t>
+  </si>
+  <si>
+    <t>堕落天使+复活</t>
+  </si>
+  <si>
+    <t>月蚀兽+地狱之力5</t>
+  </si>
+  <si>
+    <t>末日预言师+圣炎</t>
+  </si>
+  <si>
+    <t>爱神+全体加速1</t>
+  </si>
+  <si>
+    <t>死域军神+不动</t>
+  </si>
+  <si>
+    <t>死域军神*2</t>
+  </si>
+  <si>
+    <t>天界守护者+横扫</t>
+  </si>
+  <si>
+    <t>魔幻人偶师+免疫</t>
+  </si>
+  <si>
+    <t>魔幻人偶师+转生6</t>
+  </si>
+  <si>
+    <t>死兆星+转生5</t>
+  </si>
+  <si>
+    <t>爱神+本源之力5</t>
+  </si>
+  <si>
+    <t>战意斗神+吸血6</t>
+  </si>
+  <si>
+    <t>死兆星+冰甲6</t>
+  </si>
+  <si>
+    <t>圆月魔女+本源守护7</t>
+  </si>
+  <si>
+    <t>月蚀兽+降临复活</t>
+  </si>
+  <si>
+    <t>月蚀兽+地狱之力8</t>
+  </si>
+  <si>
+    <t>死域军神</t>
+  </si>
+  <si>
+    <t>星辰主宰+冰甲6</t>
+  </si>
+  <si>
+    <t>战场扫荡者+弱点攻击</t>
+  </si>
+  <si>
+    <t>时光女神+战争怒吼</t>
+  </si>
+  <si>
+    <t>时光女神+回春9</t>
+  </si>
+  <si>
+    <t>白羊座+横扫</t>
+  </si>
+  <si>
+    <t>雷雕之魂+免疫</t>
+  </si>
+  <si>
+    <t>圣灵</t>
+  </si>
+  <si>
+    <t>雷雕之魂+法力反射5</t>
+  </si>
+  <si>
+    <t>星夜女神+战争怒吼</t>
+  </si>
+  <si>
+    <t>黄金金属巨龙+不动</t>
+  </si>
+  <si>
+    <t>赤面天狗+转生6</t>
+  </si>
+  <si>
+    <t>亡灵守护神+陷阱3</t>
+  </si>
+  <si>
+    <t>钢铁巨神兵+不动</t>
+  </si>
+  <si>
+    <t>最终兵器+不动</t>
+  </si>
+  <si>
+    <t>圣城卫士+治疗之雾6</t>
+  </si>
+  <si>
+    <t>战场女武神+神圣守护5</t>
+  </si>
+  <si>
+    <t>降临天使+不动</t>
+  </si>
+  <si>
+    <t>星夜女神+全体阻碍1</t>
+  </si>
+  <si>
+    <t>雷雕之魂+复活</t>
+  </si>
+  <si>
+    <t>金属巨龙+弱点攻击</t>
+  </si>
+  <si>
+    <t>破晓守卫+封印</t>
+  </si>
+  <si>
+    <t>齐天美猴王+摧毁</t>
+  </si>
+  <si>
+    <t>仙狐巫女+免疫</t>
+  </si>
+  <si>
+    <t>圆月魔女+魔甲4</t>
+  </si>
+  <si>
+    <t>机神*2</t>
+  </si>
+  <si>
     <t>陨星*2</t>
   </si>
   <si>
-    <t>脱困时光</t>
-  </si>
-  <si>
-    <t>甘霖时光</t>
-  </si>
-  <si>
     <t>不动兔子</t>
   </si>
   <si>
-    <t>脱困兔子</t>
+    <t>圣灵大祭司</t>
   </si>
   <si>
     <t>不动黄金金属巨龙</t>
@@ -963,9 +1348,6 @@
     <t>回魂2堕落天使</t>
   </si>
   <si>
-    <t>转生堕落天使</t>
-  </si>
-  <si>
     <t>祈祷堕落天使</t>
   </si>
   <si>
@@ -978,54 +1360,15 @@
     <t>要把堕落天使堕掉</t>
   </si>
   <si>
-    <t>回春时光</t>
-  </si>
-  <si>
-    <t>降临传送兔子</t>
-  </si>
-  <si>
-    <t>冰甲金属</t>
-  </si>
-  <si>
-    <t>陷阱2金属</t>
-  </si>
-  <si>
-    <t>连锁元素灵龙</t>
-  </si>
-  <si>
-    <t>免疫元素灵龙</t>
-  </si>
-  <si>
-    <t>不动元素灵龙</t>
-  </si>
-  <si>
-    <t>复苏</t>
-  </si>
-  <si>
-    <t>免疫龙角</t>
-  </si>
-  <si>
-    <t>横扫龙角</t>
-  </si>
-  <si>
-    <t>横扫毒龙</t>
-  </si>
-  <si>
-    <t>烈火毒龙</t>
-  </si>
-  <si>
-    <t>法侵化蛇</t>
-  </si>
-  <si>
-    <t>转生海妖</t>
-  </si>
-  <si>
     <t>甘霖世界树</t>
   </si>
   <si>
     <t>复仇金属</t>
   </si>
   <si>
+    <t>兔子*2</t>
+  </si>
+  <si>
     <t>弱点海妖</t>
   </si>
   <si>
@@ -1044,6 +1387,69 @@
     <t>免疫怒雪咆哮</t>
   </si>
   <si>
+    <t>甘霖6圣诞</t>
+  </si>
+  <si>
+    <t>圣炎光龙</t>
+  </si>
+  <si>
+    <t>机神</t>
+  </si>
+  <si>
+    <t>不动圣堂</t>
+  </si>
+  <si>
+    <t>陷阱2老头</t>
+  </si>
+  <si>
+    <t>送还时光</t>
+  </si>
+  <si>
+    <t>迷魂8兔子</t>
+  </si>
+  <si>
+    <t>暴风雪4唤雨师</t>
+  </si>
+  <si>
+    <t>圣灵大祭司+死契摧毁</t>
+  </si>
+  <si>
+    <t>幻翼命运神</t>
+  </si>
+  <si>
+    <t>穷追猛打9化蛇</t>
+  </si>
+  <si>
+    <t>格挡10雷兽</t>
+  </si>
+  <si>
+    <t>毒雾8蟹黄</t>
+  </si>
+  <si>
+    <t>战意斗神+弱点攻击</t>
+  </si>
+  <si>
+    <t>欲望</t>
+  </si>
+  <si>
+    <t>弱点攻击战意斗神</t>
+  </si>
+  <si>
+    <t>复活猴子</t>
+  </si>
+  <si>
+    <t>封印化蛇</t>
+  </si>
+  <si>
+    <t>横扫混沌龙</t>
+  </si>
+  <si>
+    <t>本源守护末日</t>
+  </si>
+  <si>
+    <t>转生黑龙</t>
+  </si>
+  <si>
     <t>祈祷天使</t>
   </si>
   <si>
@@ -1054,488 +1460,18 @@
   </si>
   <si>
     <t>回春金属</t>
-  </si>
-  <si>
-    <t>弱点金属*2</t>
-  </si>
-  <si>
-    <t>甘霖金属</t>
-  </si>
-  <si>
-    <t>祈祷金属</t>
-  </si>
-  <si>
-    <t>不动化蛇</t>
-  </si>
-  <si>
-    <t>暴击雷兽</t>
-  </si>
-  <si>
-    <t>暗杀雷兽</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>猴子*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>冰甲老头（必须留张先知堕掉）</t>
-  </si>
-  <si>
-    <t>回春天使</t>
-  </si>
-  <si>
-    <t>本源守护天使</t>
-  </si>
-  <si>
-    <t>弱点攻击扫荡者</t>
-  </si>
-  <si>
-    <t>复仇巫妖</t>
-  </si>
-  <si>
-    <t>脱困堕落天使</t>
-  </si>
-  <si>
-    <t>甘霖狗头</t>
-  </si>
-  <si>
-    <t>免疫末日</t>
-  </si>
-  <si>
-    <t>不屈圆月魔女</t>
-  </si>
-  <si>
-    <t>战争怒吼陨星</t>
-  </si>
-  <si>
-    <t>回魂2兔子</t>
-  </si>
-  <si>
-    <t>战争怒吼时光</t>
-  </si>
-  <si>
-    <t>暴击时光</t>
-  </si>
-  <si>
-    <t>回春8时光</t>
-  </si>
-  <si>
-    <t>战意8时光</t>
-  </si>
-  <si>
-    <t>甘霖9兔子</t>
-  </si>
-  <si>
-    <t>回魂2精灵女王</t>
-  </si>
-  <si>
-    <t>吸血8金属</t>
-  </si>
-  <si>
-    <t>连锁6金属</t>
-  </si>
-  <si>
-    <t>森林之力8梦境</t>
-  </si>
-  <si>
-    <t>死契复活月女</t>
-  </si>
-  <si>
-    <t>冰甲8雷雕</t>
-  </si>
-  <si>
-    <t>吸血8雷雕</t>
-  </si>
-  <si>
-    <t>全法侵：</t>
-  </si>
-  <si>
-    <t>法侵精灵女王</t>
-  </si>
-  <si>
-    <t>森林守护时光</t>
-  </si>
-  <si>
-    <t>格挡时光</t>
-  </si>
-  <si>
-    <t>森林之力梦境</t>
-  </si>
-  <si>
-    <t>甘霖梦境</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>弱点攻击战意斗神</t>
-  </si>
-  <si>
-    <t>复活猴子</t>
-  </si>
-  <si>
-    <t>封印化蛇</t>
-  </si>
-  <si>
-    <t>本源之力狗头</t>
-  </si>
-  <si>
-    <t>横扫混沌龙</t>
-  </si>
-  <si>
-    <t>本源守护末日</t>
-  </si>
-  <si>
-    <t>转生黑龙</t>
-  </si>
-  <si>
-    <t>甘霖6圣诞</t>
-  </si>
-  <si>
-    <t>圣炎光龙</t>
-  </si>
-  <si>
-    <t>不动圣堂</t>
-  </si>
-  <si>
-    <t>陷阱2老头</t>
-  </si>
-  <si>
-    <t>送还时光</t>
-  </si>
-  <si>
-    <t>迷魂8兔子</t>
-  </si>
-  <si>
-    <t>暴风雪4唤雨师</t>
-  </si>
-  <si>
-    <t>圣灵大祭司+死契摧毁</t>
-  </si>
-  <si>
-    <t>圣灵大祭司</t>
-  </si>
-  <si>
-    <t>幻翼命运神</t>
-  </si>
-  <si>
-    <t>穷追猛打9化蛇</t>
-  </si>
-  <si>
-    <t>格挡10雷兽</t>
-  </si>
-  <si>
-    <t>毒雾8蟹黄</t>
-  </si>
-  <si>
-    <t>战意斗神+弱点攻击</t>
-  </si>
-  <si>
-    <t>脱困圣诞</t>
-  </si>
-  <si>
-    <t>不动恐惧</t>
-  </si>
-  <si>
-    <t>格挡暗夜魔影</t>
-  </si>
-  <si>
-    <t>转生暗夜魔影</t>
-  </si>
-  <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
-    <t>3狗头：</t>
-  </si>
-  <si>
-    <t>祈祷天使*2</t>
-  </si>
-  <si>
-    <t>回魂2女武神</t>
-  </si>
-  <si>
-    <t>圣炎圆月</t>
-  </si>
-  <si>
-    <t>不屈月蚀兽</t>
-  </si>
-  <si>
-    <t>甘霖堕落天使</t>
-  </si>
-  <si>
-    <t>邪灵狗头</t>
-  </si>
-  <si>
-    <t>本源守护狗头</t>
-  </si>
-  <si>
-    <t>要点：堕掉女武神</t>
-  </si>
-  <si>
-    <t>战神+弱点攻击</t>
-  </si>
-  <si>
-    <t>光龙+圣炎</t>
-  </si>
-  <si>
-    <t>天界守护者+封印</t>
-  </si>
-  <si>
-    <t>梦境耳语者+免疫</t>
-  </si>
-  <si>
-    <t>圣泉元神+群体削弱9</t>
-  </si>
-  <si>
-    <t>摩羯大祭司+不动</t>
-  </si>
-  <si>
-    <t>太古魔狼+免疫</t>
-  </si>
-  <si>
-    <t>齐天美猴王+虚弱</t>
-  </si>
-  <si>
-    <t>堕落天使+趁胜追击7</t>
-  </si>
-  <si>
-    <t>镜魔+穿刺6</t>
-  </si>
-  <si>
-    <t>无尽噩梦+不动</t>
-  </si>
-  <si>
-    <t>堕落天使+虚弱</t>
-  </si>
-  <si>
-    <t>亡灵守护者+暴风雪7</t>
-  </si>
-  <si>
-    <t>圣诞老人+免疫</t>
-  </si>
-  <si>
-    <t>幸运星贤者</t>
-  </si>
-  <si>
-    <t>齐天美猴王+免疫</t>
-  </si>
-  <si>
-    <t>月蚀兽+全体阻碍1</t>
-  </si>
-  <si>
-    <t>死兆星+全体加速1</t>
-  </si>
-  <si>
-    <t>圆月魔女+阻碍1</t>
-  </si>
-  <si>
-    <t>死兆星+全体阻碍1</t>
-  </si>
-  <si>
-    <t>堕落天使+复活</t>
-  </si>
-  <si>
-    <t>月蚀兽+地狱之力5</t>
-  </si>
-  <si>
-    <t>末日预言师+圣炎</t>
-  </si>
-  <si>
-    <t>爱神+全体加速1</t>
-  </si>
-  <si>
-    <t>死域军神+不动</t>
-  </si>
-  <si>
-    <t>死域军神*2</t>
-  </si>
-  <si>
-    <t>天界守护者+横扫</t>
-  </si>
-  <si>
-    <t>魔幻人偶师+免疫</t>
-  </si>
-  <si>
-    <t>魔幻人偶师+转生6</t>
-  </si>
-  <si>
-    <t>死兆星+转生5</t>
-  </si>
-  <si>
-    <t>爱神+本源之力5</t>
-  </si>
-  <si>
-    <t>战意斗神+吸血6</t>
-  </si>
-  <si>
-    <t>死兆星+冰甲6</t>
-  </si>
-  <si>
-    <t>圆月魔女+本源守护7</t>
-  </si>
-  <si>
-    <t>月蚀兽+降临复活</t>
-  </si>
-  <si>
-    <t>月蚀兽+地狱之力8</t>
-  </si>
-  <si>
-    <t>死域军神</t>
-  </si>
-  <si>
-    <t>星辰主宰+冰甲6</t>
-  </si>
-  <si>
-    <t>战场扫荡者+弱点攻击</t>
-  </si>
-  <si>
-    <t>时光女神+战争怒吼</t>
-  </si>
-  <si>
-    <t>时光女神+回春9</t>
-  </si>
-  <si>
-    <t>白羊座+横扫</t>
-  </si>
-  <si>
-    <t>雷雕之魂+免疫</t>
-  </si>
-  <si>
-    <t>圣灵</t>
-  </si>
-  <si>
-    <t>雷雕之魂+法力反射5</t>
-  </si>
-  <si>
-    <t>星夜女神+战争怒吼</t>
-  </si>
-  <si>
-    <t>黄金金属巨龙+不动</t>
-  </si>
-  <si>
-    <t>赤面天狗+转生6</t>
-  </si>
-  <si>
-    <t>亡灵守护神+陷阱3</t>
-  </si>
-  <si>
-    <t>钢铁巨神兵+不动</t>
-  </si>
-  <si>
-    <t>最终兵器+不动</t>
-  </si>
-  <si>
-    <t>圣城卫士+治疗之雾6</t>
-  </si>
-  <si>
-    <t>战场女武神+神圣守护5</t>
-  </si>
-  <si>
-    <t>降临天使+不动</t>
-  </si>
-  <si>
-    <t>星夜女神+全体阻碍1</t>
-  </si>
-  <si>
-    <t>雷雕之魂+复活</t>
-  </si>
-  <si>
-    <t>金属巨龙+弱点攻击</t>
-  </si>
-  <si>
-    <t>破晓守卫+封印</t>
-  </si>
-  <si>
-    <t>齐天美猴王+摧毁</t>
-  </si>
-  <si>
-    <t>仙狐巫女+免疫</t>
-  </si>
-  <si>
-    <t>圆月魔女+魔甲4</t>
-  </si>
-  <si>
-    <t>兔子*2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣灵大祭司</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>光龙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>军神</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望惩罚者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>神祈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>陨星</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>机神</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>光龙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>先知</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣灵大祭司</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷兽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>军神</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望惩罚者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1575,15 +1511,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1664,8 +1599,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1712,33 +1662,28 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2037,7 +1982,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2070,11 +2014,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V335"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="K227" sqref="K227"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="I341" sqref="I341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2088,7 +2033,7 @@
     <col min="12" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,12 +2044,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="1" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1">
+    <row r="4" s="4" customFormat="1" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1">
+    <row r="5" s="5" customFormat="1" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2188,7 +2133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1">
+    <row r="6" s="6" customFormat="1" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -2202,10 +2147,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:1">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1">
+    <row r="9" s="2" customFormat="1" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2239,7 +2184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1">
+    <row r="10" s="3" customFormat="1" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1">
+    <row r="11" s="4" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1">
+    <row r="12" s="5" customFormat="1" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2309,7 +2254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1">
+    <row r="13" s="6" customFormat="1" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2323,10 +2268,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:1">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1">
+    <row r="16" s="2" customFormat="1" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2351,7 +2296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1">
+    <row r="17" s="3" customFormat="1" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2368,7 +2313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1">
+    <row r="18" s="4" customFormat="1" spans="1:11">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +2342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="5" customFormat="1">
+    <row r="19" s="5" customFormat="1" spans="1:11">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2426,7 +2371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1">
+    <row r="20" s="6" customFormat="1" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2440,10 +2385,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" s="7" customFormat="1" spans="2:2">
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1">
+    <row r="22" s="1" customFormat="1" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1">
+    <row r="23" s="2" customFormat="1" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2480,7 +2425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1">
+    <row r="24" s="3" customFormat="1" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="4" customFormat="1">
+    <row r="25" s="4" customFormat="1" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -2517,7 +2462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1">
+    <row r="26" s="5" customFormat="1" spans="1:11">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2546,7 +2491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1">
+    <row r="27" s="6" customFormat="1" spans="1:4">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -2560,10 +2505,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1">
+    <row r="28" s="7" customFormat="1" spans="2:2">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1">
+    <row r="30" s="2" customFormat="1" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2594,7 +2539,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1">
+    <row r="31" s="3" customFormat="1" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2617,7 +2562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1">
+    <row r="32" s="4" customFormat="1" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2634,7 +2579,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="5" customFormat="1">
+    <row r="33" s="5" customFormat="1" spans="1:11">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -2663,7 +2608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="6" customFormat="1">
+    <row r="34" s="6" customFormat="1" spans="1:4">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -2677,12 +2622,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1">
+    <row r="35" s="7" customFormat="1" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1">
+    <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1">
+    <row r="37" s="2" customFormat="1" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -2704,7 +2649,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1">
+    <row r="38" s="3" customFormat="1" spans="1:10">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2724,7 +2669,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1">
+    <row r="39" s="4" customFormat="1" spans="1:11">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2753,7 +2698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="6" customFormat="1">
+    <row r="40" s="6" customFormat="1" spans="1:11">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
@@ -2782,7 +2727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="8" customFormat="1">
+    <row r="41" s="8" customFormat="1" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>30</v>
       </c>
@@ -2796,10 +2741,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:1">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1">
+    <row r="43" s="1" customFormat="1" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1">
+    <row r="44" s="2" customFormat="1" spans="1:15">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2845,7 +2790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1">
+    <row r="45" s="3" customFormat="1" spans="1:15">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="4" customFormat="1">
+    <row r="46" s="4" customFormat="1" spans="1:14">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2903,7 +2848,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="5" customFormat="1">
+    <row r="47" s="5" customFormat="1" spans="1:16">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
@@ -2944,7 +2889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="6" customFormat="1">
+    <row r="48" s="6" customFormat="1" spans="1:4">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -2958,8 +2903,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="7" customFormat="1"/>
-    <row r="50" spans="1:22" s="1" customFormat="1">
+    <row r="49" s="7" customFormat="1"/>
+    <row r="50" s="1" customFormat="1" spans="1:19">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +2933,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="2" customFormat="1">
+    <row r="51" s="2" customFormat="1" spans="1:15">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
@@ -3005,7 +2950,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="3" customFormat="1">
+    <row r="52" s="3" customFormat="1" spans="1:20">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +2970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="4" customFormat="1">
+    <row r="53" s="4" customFormat="1" spans="1:22">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -3075,7 +3020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="5" customFormat="1">
+    <row r="54" s="5" customFormat="1" spans="1:22">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -3128,7 +3073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="6" customFormat="1">
+    <row r="55" s="6" customFormat="1" spans="1:19">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -3148,12 +3093,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="1" customFormat="1">
+    <row r="57" s="1" customFormat="1" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +3121,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="2" customFormat="1">
+    <row r="58" s="2" customFormat="1" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -3187,7 +3132,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="3" customFormat="1">
+    <row r="59" s="3" customFormat="1" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3210,7 +3155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="4" customFormat="1">
+    <row r="60" s="4" customFormat="1" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -3221,7 +3166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="5" customFormat="1">
+    <row r="61" s="5" customFormat="1" spans="1:11">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -3250,7 +3195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="6" customFormat="1">
+    <row r="62" s="6" customFormat="1" spans="1:4">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -3264,8 +3209,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="7" customFormat="1"/>
-    <row r="64" spans="1:22" s="1" customFormat="1">
+    <row r="63" s="7" customFormat="1"/>
+    <row r="64" s="1" customFormat="1" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="2" customFormat="1">
+    <row r="65" s="2" customFormat="1" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -3305,7 +3250,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="3" customFormat="1">
+    <row r="66" s="3" customFormat="1" spans="1:9">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3322,7 +3267,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="4" customFormat="1">
+    <row r="67" s="4" customFormat="1" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -3339,7 +3284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="5" customFormat="1">
+    <row r="68" s="5" customFormat="1" spans="1:11">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3368,7 +3313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1">
+    <row r="69" s="6" customFormat="1" spans="1:4">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -3382,10 +3327,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:1">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1">
+    <row r="71" s="1" customFormat="1" spans="1:9">
       <c r="A71" s="25" t="s">
         <v>0</v>
       </c>
@@ -3402,7 +3347,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1">
+    <row r="72" s="2" customFormat="1" spans="1:9">
       <c r="A72" s="26" t="s">
         <v>3</v>
       </c>
@@ -3425,7 +3370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1">
+    <row r="73" s="3" customFormat="1" spans="1:9">
       <c r="A73" s="27" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="4" customFormat="1">
+    <row r="74" s="4" customFormat="1" spans="1:9">
       <c r="A74" s="28" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3401,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="5" customFormat="1">
+    <row r="75" s="5" customFormat="1" spans="1:11">
       <c r="A75" s="29" t="s">
         <v>21</v>
       </c>
@@ -3485,7 +3430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1">
+    <row r="76" s="6" customFormat="1" spans="1:4">
       <c r="A76" s="30" t="s">
         <v>30</v>
       </c>
@@ -3499,7 +3444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1">
+    <row r="78" s="1" customFormat="1" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3468,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:11" s="2" customFormat="1">
+    <row r="79" s="2" customFormat="1" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -3546,7 +3491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1">
+    <row r="80" s="3" customFormat="1" spans="1:8">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -3560,7 +3505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="4" customFormat="1">
+    <row r="81" s="4" customFormat="1" spans="1:9">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
@@ -3574,7 +3519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="5" customFormat="1">
+    <row r="82" s="5" customFormat="1" spans="1:11">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -3603,7 +3548,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="6" customFormat="1">
+    <row r="83" s="6" customFormat="1" spans="1:4">
       <c r="A83" s="6" t="s">
         <v>30</v>
       </c>
@@ -3617,7 +3562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="1" customFormat="1">
+    <row r="85" s="1" customFormat="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3626,7 +3571,7 @@
       </c>
       <c r="C85" s="17"/>
     </row>
-    <row r="86" spans="1:16" s="2" customFormat="1">
+    <row r="86" s="2" customFormat="1" spans="1:9">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -3643,7 +3588,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1">
+    <row r="87" s="3" customFormat="1" spans="1:11">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="4" customFormat="1">
+    <row r="88" s="4" customFormat="1" spans="1:11">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="5" customFormat="1">
+    <row r="89" s="5" customFormat="1" spans="1:11">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -3727,7 +3672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="6" customFormat="1">
+    <row r="90" s="6" customFormat="1" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>30</v>
       </c>
@@ -3741,7 +3686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="1" customFormat="1">
+    <row r="92" s="1" customFormat="1" spans="1:16">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3767,7 +3712,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="2" customFormat="1">
+    <row r="93" s="2" customFormat="1" spans="1:14">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -3790,7 +3735,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1">
+    <row r="94" s="3" customFormat="1" spans="1:14">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3816,7 +3761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="4" customFormat="1">
+    <row r="95" s="4" customFormat="1" spans="1:13">
       <c r="A95" s="4" t="s">
         <v>12</v>
       </c>
@@ -3845,7 +3790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="5" customFormat="1">
+    <row r="96" s="5" customFormat="1" spans="1:16">
       <c r="A96" s="5" t="s">
         <v>21</v>
       </c>
@@ -3886,7 +3831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="6" customFormat="1">
+    <row r="97" s="6" customFormat="1" spans="1:4">
       <c r="A97" s="6" t="s">
         <v>30</v>
       </c>
@@ -3900,7 +3845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="1" customFormat="1">
+    <row r="99" s="1" customFormat="1" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +3868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="2" customFormat="1">
+    <row r="100" s="2" customFormat="1" spans="1:8">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -3937,7 +3882,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="3" customFormat="1">
+    <row r="101" s="3" customFormat="1" spans="1:8">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3951,7 +3896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="4" customFormat="1">
+    <row r="102" s="4" customFormat="1" spans="1:9">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
@@ -3974,7 +3919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="5" customFormat="1">
+    <row r="103" s="5" customFormat="1" spans="1:11">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -4003,7 +3948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="6" customFormat="1">
+    <row r="104" s="6" customFormat="1" spans="1:4">
       <c r="A104" s="6" t="s">
         <v>30</v>
       </c>
@@ -4017,7 +3962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="1" customFormat="1">
+    <row r="106" s="1" customFormat="1" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +3976,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="2" customFormat="1">
+    <row r="107" s="2" customFormat="1" spans="1:14">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
@@ -4048,7 +3993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="3" customFormat="1">
+    <row r="108" s="3" customFormat="1" spans="1:17">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -4076,7 +4021,7 @@
       </c>
       <c r="Q108" s="22"/>
     </row>
-    <row r="109" spans="1:17" s="4" customFormat="1">
+    <row r="109" s="4" customFormat="1" spans="1:17">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -4120,7 +4065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="5" customFormat="1">
+    <row r="110" s="5" customFormat="1" spans="1:17">
       <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
@@ -4161,7 +4106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="6" customFormat="1">
+    <row r="111" s="6" customFormat="1" spans="1:14">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -4178,7 +4123,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="1" customFormat="1">
+    <row r="113" s="1" customFormat="1" spans="1:13">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="2" customFormat="1">
+    <row r="114" s="2" customFormat="1" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -4213,7 +4158,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:16" s="3" customFormat="1">
+    <row r="115" s="3" customFormat="1" spans="1:16">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
@@ -4243,7 +4188,7 @@
       </c>
       <c r="P115" s="22"/>
     </row>
-    <row r="116" spans="1:16" s="4" customFormat="1">
+    <row r="116" s="4" customFormat="1" spans="1:16">
       <c r="A116" s="4" t="s">
         <v>12</v>
       </c>
@@ -4278,7 +4223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="5" customFormat="1">
+    <row r="117" s="5" customFormat="1" spans="1:16">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -4319,7 +4264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="6" customFormat="1">
+    <row r="118" s="6" customFormat="1" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -4333,12 +4278,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="1" customFormat="1">
+    <row r="120" s="1" customFormat="1" spans="1:9">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4358,7 +4303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="2" customFormat="1">
+    <row r="121" s="2" customFormat="1" spans="1:9">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
@@ -4369,7 +4314,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1">
+    <row r="122" s="3" customFormat="1" spans="1:9">
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
@@ -4389,7 +4334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="4" customFormat="1">
+    <row r="123" s="4" customFormat="1" spans="1:10">
       <c r="A123" s="4" t="s">
         <v>12</v>
       </c>
@@ -4415,7 +4360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="5" customFormat="1">
+    <row r="124" s="5" customFormat="1" spans="1:11">
       <c r="A124" s="5" t="s">
         <v>21</v>
       </c>
@@ -4444,7 +4389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="6" customFormat="1">
+    <row r="125" s="6" customFormat="1" spans="1:4">
       <c r="A125" s="6" t="s">
         <v>30</v>
       </c>
@@ -4458,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="1" customFormat="1">
+    <row r="127" s="1" customFormat="1" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -4478,7 +4423,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="2" customFormat="1">
+    <row r="128" s="2" customFormat="1" spans="1:2">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -4486,7 +4431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="3" customFormat="1">
+    <row r="129" s="3" customFormat="1" spans="1:11">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -4503,7 +4448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="4" customFormat="1">
+    <row r="130" s="4" customFormat="1" spans="1:11">
       <c r="A130" s="4" t="s">
         <v>12</v>
       </c>
@@ -4532,7 +4477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1">
+    <row r="131" s="5" customFormat="1" spans="1:11">
       <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
@@ -4561,7 +4506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="6" customFormat="1">
+    <row r="132" s="6" customFormat="1" spans="1:4">
       <c r="A132" s="6" t="s">
         <v>30</v>
       </c>
@@ -4575,11 +4520,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="7" customFormat="1">
+    <row r="133" s="7" customFormat="1" spans="2:4">
       <c r="B133" s="19"/>
       <c r="D133" s="19"/>
     </row>
-    <row r="134" spans="1:11" s="1" customFormat="1">
+    <row r="134" s="1" customFormat="1" spans="1:10">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -4611,7 +4556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="2" customFormat="1">
+    <row r="135" s="2" customFormat="1" spans="1:8">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -4619,7 +4564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1">
+    <row r="136" s="3" customFormat="1" spans="1:10">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
@@ -4645,7 +4590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="4" customFormat="1">
+    <row r="137" s="4" customFormat="1" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>12</v>
       </c>
@@ -4654,7 +4599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="5" customFormat="1">
+    <row r="138" s="5" customFormat="1" spans="1:11">
       <c r="A138" s="5" t="s">
         <v>21</v>
       </c>
@@ -4683,7 +4628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="6" customFormat="1">
+    <row r="139" s="6" customFormat="1" spans="1:4">
       <c r="A139" s="6" t="s">
         <v>30</v>
       </c>
@@ -4697,7 +4642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="1" customFormat="1">
+    <row r="141" s="1" customFormat="1" spans="1:9">
       <c r="A141" s="32" t="s">
         <v>0</v>
       </c>
@@ -4723,7 +4668,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="2" customFormat="1">
+    <row r="142" s="2" customFormat="1" spans="1:10">
       <c r="A142" s="33" t="s">
         <v>3</v>
       </c>
@@ -4752,7 +4697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1">
+    <row r="143" s="3" customFormat="1" spans="1:9">
       <c r="A143" s="34" t="s">
         <v>4</v>
       </c>
@@ -4763,7 +4708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="4" customFormat="1">
+    <row r="144" s="4" customFormat="1" spans="1:8">
       <c r="A144" s="35" t="s">
         <v>12</v>
       </c>
@@ -4771,7 +4716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="5" customFormat="1">
+    <row r="145" s="5" customFormat="1" spans="1:11">
       <c r="A145" s="36" t="s">
         <v>21</v>
       </c>
@@ -4800,7 +4745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="6" customFormat="1">
+    <row r="146" s="6" customFormat="1" spans="1:4">
       <c r="A146" s="6" t="s">
         <v>30</v>
       </c>
@@ -4814,7 +4759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="1" customFormat="1">
+    <row r="148" s="1" customFormat="1" spans="1:10">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="2" customFormat="1">
+    <row r="149" s="2" customFormat="1" spans="1:9">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -4855,7 +4800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1">
+    <row r="150" s="3" customFormat="1" spans="1:8">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -4872,7 +4817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="4" customFormat="1">
+    <row r="151" s="4" customFormat="1" spans="1:9">
       <c r="A151" s="4" t="s">
         <v>12</v>
       </c>
@@ -4889,7 +4834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="5" customFormat="1">
+    <row r="152" s="5" customFormat="1" spans="1:11">
       <c r="A152" s="5" t="s">
         <v>21</v>
       </c>
@@ -4918,7 +4863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="6" customFormat="1">
+    <row r="153" s="6" customFormat="1" spans="1:4">
       <c r="A153" s="6" t="s">
         <v>30</v>
       </c>
@@ -4932,7 +4877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="1" customFormat="1">
+    <row r="155" s="1" customFormat="1" spans="1:8">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -4944,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="2" customFormat="1">
+    <row r="156" s="2" customFormat="1" spans="1:8">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
@@ -4967,7 +4912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1">
+    <row r="157" s="3" customFormat="1" spans="1:10">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
@@ -4981,7 +4926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="4" customFormat="1">
+    <row r="158" s="4" customFormat="1" spans="1:10">
       <c r="A158" s="4" t="s">
         <v>12</v>
       </c>
@@ -5010,7 +4955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="5" customFormat="1">
+    <row r="159" s="5" customFormat="1" spans="1:11">
       <c r="A159" s="5" t="s">
         <v>21</v>
       </c>
@@ -5039,7 +4984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="6" customFormat="1">
+    <row r="160" s="6" customFormat="1" spans="1:4">
       <c r="A160" s="6" t="s">
         <v>30</v>
       </c>
@@ -5053,7 +4998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="1" customFormat="1">
+    <row r="162" s="1" customFormat="1" spans="1:11">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -5085,7 +5030,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="2" customFormat="1">
+    <row r="163" s="2" customFormat="1" spans="1:9">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
@@ -5096,7 +5041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="3" customFormat="1">
+    <row r="164" s="3" customFormat="1" spans="1:8">
       <c r="A164" s="3" t="s">
         <v>4</v>
       </c>
@@ -5104,7 +5049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="4" customFormat="1">
+    <row r="165" s="4" customFormat="1" spans="1:8">
       <c r="A165" s="4" t="s">
         <v>12</v>
       </c>
@@ -5127,7 +5072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="5" customFormat="1">
+    <row r="166" s="5" customFormat="1" spans="1:11">
       <c r="A166" s="5" t="s">
         <v>21</v>
       </c>
@@ -5156,7 +5101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="6" customFormat="1">
+    <row r="167" s="6" customFormat="1" spans="1:4">
       <c r="A167" s="6" t="s">
         <v>30</v>
       </c>
@@ -5170,7 +5115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="1" customFormat="1">
+    <row r="169" s="1" customFormat="1" spans="1:9">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5133,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="170" spans="1:11" s="2" customFormat="1">
+    <row r="170" s="2" customFormat="1" spans="1:8">
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
@@ -5202,7 +5147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="3" customFormat="1">
+    <row r="171" s="3" customFormat="1" spans="1:11">
       <c r="A171" s="3" t="s">
         <v>4</v>
       </c>
@@ -5234,7 +5179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="4" customFormat="1">
+    <row r="172" s="4" customFormat="1" spans="1:9">
       <c r="A172" s="4" t="s">
         <v>12</v>
       </c>
@@ -5257,7 +5202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:11" s="5" customFormat="1">
+    <row r="173" s="5" customFormat="1" spans="1:11">
       <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
@@ -5286,7 +5231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:11" s="6" customFormat="1">
+    <row r="174" s="6" customFormat="1" spans="1:4">
       <c r="A174" s="6" t="s">
         <v>30</v>
       </c>
@@ -5300,7 +5245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="1" customFormat="1">
+    <row r="176" s="1" customFormat="1" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -5323,7 +5268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" s="2" customFormat="1">
+    <row r="177" s="2" customFormat="1" spans="1:9">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
@@ -5334,7 +5279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="3" customFormat="1">
+    <row r="178" s="3" customFormat="1" spans="1:10">
       <c r="A178" s="3" t="s">
         <v>4</v>
       </c>
@@ -5363,7 +5308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:11" s="4" customFormat="1">
+    <row r="179" s="4" customFormat="1" spans="1:10">
       <c r="A179" s="4" t="s">
         <v>12</v>
       </c>
@@ -5379,7 +5324,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="5" customFormat="1">
+    <row r="180" s="5" customFormat="1" spans="1:11">
       <c r="A180" s="5" t="s">
         <v>21</v>
       </c>
@@ -5408,7 +5353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="6" customFormat="1">
+    <row r="181" s="6" customFormat="1" spans="1:4">
       <c r="A181" s="6" t="s">
         <v>30</v>
       </c>
@@ -5422,7 +5367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="1" customFormat="1">
+    <row r="183" s="1" customFormat="1" spans="1:10">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -5449,7 +5394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="2" customFormat="1">
+    <row r="184" s="2" customFormat="1" spans="1:8">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
@@ -5469,7 +5414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1">
+    <row r="185" s="3" customFormat="1" spans="1:8">
       <c r="A185" s="3" t="s">
         <v>4</v>
       </c>
@@ -5483,7 +5428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="4" customFormat="1">
+    <row r="186" s="4" customFormat="1" spans="1:9">
       <c r="A186" s="4" t="s">
         <v>12</v>
       </c>
@@ -5496,7 +5441,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="5" customFormat="1">
+    <row r="187" s="5" customFormat="1" spans="1:11">
       <c r="A187" s="5" t="s">
         <v>21</v>
       </c>
@@ -5525,7 +5470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="6" customFormat="1">
+    <row r="188" s="6" customFormat="1" spans="1:4">
       <c r="A188" s="6" t="s">
         <v>30</v>
       </c>
@@ -5539,7 +5484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="1" customFormat="1">
+    <row r="190" s="1" customFormat="1" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -5552,7 +5497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:11" s="2" customFormat="1">
+    <row r="191" s="2" customFormat="1" spans="1:8">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
@@ -5575,7 +5520,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:11" s="3" customFormat="1">
+    <row r="192" s="3" customFormat="1" spans="1:10">
       <c r="A192" s="3" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +5549,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="193" spans="1:21" s="4" customFormat="1">
+    <row r="193" s="4" customFormat="1" spans="1:10">
       <c r="A193" s="4" t="s">
         <v>12</v>
       </c>
@@ -5620,7 +5565,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="194" spans="1:21" s="5" customFormat="1">
+    <row r="194" s="5" customFormat="1" spans="1:11">
       <c r="A194" s="5" t="s">
         <v>21</v>
       </c>
@@ -5649,7 +5594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:21" s="6" customFormat="1">
+    <row r="195" s="6" customFormat="1" spans="1:4">
       <c r="A195" s="6" t="s">
         <v>30</v>
       </c>
@@ -5663,7 +5608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:21" s="1" customFormat="1">
+    <row r="197" s="1" customFormat="1" spans="1:15">
       <c r="A197" s="32" t="s">
         <v>0</v>
       </c>
@@ -5702,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" s="2" customFormat="1">
+    <row r="198" s="2" customFormat="1" spans="1:8">
       <c r="A198" s="33" t="s">
         <v>3</v>
       </c>
@@ -5722,7 +5667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="199" spans="1:21" s="3" customFormat="1">
+    <row r="199" s="3" customFormat="1" spans="1:18">
       <c r="A199" s="34" t="s">
         <v>4</v>
       </c>
@@ -5749,7 +5694,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:21" s="4" customFormat="1">
+    <row r="200" s="4" customFormat="1" spans="1:18">
       <c r="A200" s="35" t="s">
         <v>12</v>
       </c>
@@ -5771,7 +5716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:21" s="5" customFormat="1">
+    <row r="201" s="5" customFormat="1" spans="1:18">
       <c r="A201" s="36" t="s">
         <v>21</v>
       </c>
@@ -5812,7 +5757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:21" s="6" customFormat="1">
+    <row r="202" s="6" customFormat="1" spans="1:4">
       <c r="A202" s="6" t="s">
         <v>30</v>
       </c>
@@ -5826,226 +5771,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:21" s="1" customFormat="1">
-      <c r="A204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="16"/>
-      <c r="F204" s="17"/>
-      <c r="H204" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J204" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M204" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="O204" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="P204" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="R204" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S204" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="T204" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="U204" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" s="2" customFormat="1">
-      <c r="A205" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C205" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D205" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="E205" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="F205" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M205" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R205" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="S205" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21" s="3" customFormat="1">
-      <c r="A206" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C206" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="D206" s="9"/>
-      <c r="H206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J206" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R206" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21" s="4" customFormat="1">
-      <c r="A207" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D207" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="E207" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M207" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N207" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" s="5" customFormat="1">
-      <c r="A208" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B208" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C208" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D208" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E208" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H208" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I208" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J208" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K208" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M208" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N208" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="O208" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P208" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="R208" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="S208" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="T208" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U208" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" s="6" customFormat="1">
-      <c r="A209" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B209" s="8">
-        <v>5</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D209" s="8">
-        <v>7</v>
-      </c>
-      <c r="H209" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" s="1" customFormat="1">
+    <row r="211" s="1" customFormat="1" spans="1:6">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C211" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D211" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="D211" s="20" t="s">
-        <v>303</v>
-      </c>
       <c r="F211" s="17"/>
     </row>
-    <row r="212" spans="1:11" s="2" customFormat="1">
+    <row r="212" s="2" customFormat="1" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -6053,28 +5794,28 @@
         <v>94</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E212" s="21" t="s">
         <v>95</v>
       </c>
       <c r="F212" s="21"/>
     </row>
-    <row r="213" spans="1:11" s="3" customFormat="1">
+    <row r="213" s="3" customFormat="1" spans="1:10">
       <c r="A213" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>55</v>
@@ -6086,7 +5827,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="4" customFormat="1">
+    <row r="214" s="4" customFormat="1" spans="1:11">
       <c r="A214" s="4" t="s">
         <v>12</v>
       </c>
@@ -6108,20 +5849,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="5" customFormat="1">
+    <row r="215" s="5" customFormat="1" spans="1:11">
       <c r="A215" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B215" s="39" t="s">
+      <c r="B215" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C215" s="39" t="s">
+      <c r="C215" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D215" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="E215" s="39" t="s">
+      <c r="D215" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E215" s="38" t="s">
         <v>179</v>
       </c>
       <c r="H215" s="31" t="s">
@@ -6137,7 +5878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="6" customFormat="1">
+    <row r="216" s="6" customFormat="1" spans="1:4">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -6151,7 +5892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="1" customFormat="1">
+    <row r="218" s="1" customFormat="1" spans="1:8">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -6167,15 +5908,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="2" customFormat="1">
+    <row r="219" s="2" customFormat="1" spans="1:8">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -6183,18 +5924,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="3" customFormat="1">
+    <row r="220" s="3" customFormat="1" spans="1:10">
       <c r="A220" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E220" s="22" t="s">
         <v>141</v>
@@ -6209,7 +5950,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="4" customFormat="1">
+    <row r="221" s="4" customFormat="1" spans="1:10">
       <c r="A221" s="4" t="s">
         <v>12</v>
       </c>
@@ -6217,7 +5958,7 @@
         <v>263</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -6231,7 +5972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:11" s="5" customFormat="1">
+    <row r="222" s="5" customFormat="1" spans="1:11">
       <c r="A222" s="5" t="s">
         <v>21</v>
       </c>
@@ -6260,7 +6001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:11" s="6" customFormat="1">
+    <row r="223" s="6" customFormat="1" spans="1:4">
       <c r="A223" s="6" t="s">
         <v>30</v>
       </c>
@@ -6274,265 +6015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:11" s="1" customFormat="1">
-      <c r="A225" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B225" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C225" s="17"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="16"/>
-      <c r="F225" s="17"/>
-      <c r="H225" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I225" s="47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" s="2" customFormat="1">
-      <c r="A226" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C226" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D226" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="H226" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="J226" s="46" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" s="3" customFormat="1">
-      <c r="A227" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B227" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="C227" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="D227" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="E227" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" s="4" customFormat="1">
-      <c r="A228" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B228" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C228" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D228" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="E228" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="F228" s="14"/>
-      <c r="H228" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="I228" s="48" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" s="5" customFormat="1">
-      <c r="A229" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D229" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E229" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H229" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I229" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="J229" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K229" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" s="6" customFormat="1">
-      <c r="A230" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B230" s="8"/>
-      <c r="C230" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D230" s="8"/>
-    </row>
-    <row r="232" spans="1:11" s="1" customFormat="1">
-      <c r="A232" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B232" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C232" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F232" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I232" s="47" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" s="2" customFormat="1">
-      <c r="A233" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="D233" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E233" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="F233" s="21"/>
-      <c r="H233" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I233" s="46" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" s="3" customFormat="1">
-      <c r="A234" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" s="9"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-      <c r="H234" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J234" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="K234" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" s="4" customFormat="1">
-      <c r="A235" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B235" s="15"/>
-      <c r="C235" s="14"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="14"/>
-      <c r="H235" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="I235" s="48" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" s="5" customFormat="1">
-      <c r="A236" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B236" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C236" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D236" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E236" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H236" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I236" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J236" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K236" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" s="6" customFormat="1">
-      <c r="A237" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B237" s="8">
-        <v>3</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D237" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" s="1" customFormat="1">
+    <row r="239" s="1" customFormat="1" spans="1:6">
       <c r="A239" s="1" t="s">
         <v>0</v>
       </c>
@@ -6541,36 +6024,36 @@
       <c r="D239" s="17"/>
       <c r="F239" s="16"/>
     </row>
-    <row r="240" spans="1:11" s="2" customFormat="1">
+    <row r="240" s="2" customFormat="1" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="F240" s="21"/>
     </row>
-    <row r="241" spans="1:11" s="3" customFormat="1">
+    <row r="241" s="3" customFormat="1" spans="1:10">
       <c r="A241" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="E241" s="22" t="s">
         <v>255</v>
@@ -6582,13 +6065,13 @@
         <v>11</v>
       </c>
       <c r="I241" s="22" t="s">
-        <v>334</v>
+        <v>55</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="242" spans="1:11" s="4" customFormat="1">
+    <row r="242" s="4" customFormat="1" spans="1:11">
       <c r="A242" s="4" t="s">
         <v>12</v>
       </c>
@@ -6609,7 +6092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:11" s="5" customFormat="1">
+    <row r="243" s="5" customFormat="1" spans="1:11">
       <c r="A243" s="5" t="s">
         <v>21</v>
       </c>
@@ -6619,26 +6102,26 @@
       <c r="C243" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D243" s="40" t="s">
+      <c r="D243" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E243" s="39" t="s">
+      <c r="E243" s="38" t="s">
         <v>80</v>
       </c>
       <c r="H243" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I243" s="40" t="s">
+      <c r="I243" s="39" t="s">
         <v>27</v>
       </c>
       <c r="J243" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K243" s="42" t="s">
+      <c r="K243" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:11" s="6" customFormat="1">
+    <row r="244" s="6" customFormat="1" spans="1:4">
       <c r="A244" s="6" t="s">
         <v>30</v>
       </c>
@@ -6652,33 +6135,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:11" s="1" customFormat="1">
+    <row r="246" s="1" customFormat="1" spans="1:11">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="16" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="F246" s="16" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="H246" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I246" s="47" t="s">
-        <v>467</v>
+      <c r="I246" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="J246" s="16"/>
       <c r="K246" s="16"/>
     </row>
-    <row r="247" spans="1:11" s="2" customFormat="1">
+    <row r="247" s="2" customFormat="1" spans="1:8">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
@@ -6691,21 +6174,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="248" spans="1:11" s="3" customFormat="1">
+    <row r="248" s="3" customFormat="1" spans="1:10">
       <c r="A248" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="H248" s="22" t="s">
         <v>148</v>
@@ -6717,12 +6200,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:11" s="4" customFormat="1">
+    <row r="249" s="4" customFormat="1" spans="1:10">
       <c r="A249" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B249" s="41" t="s">
-        <v>342</v>
+      <c r="B249" s="40" t="s">
+        <v>318</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>243</v>
@@ -6731,7 +6214,7 @@
         <v>32</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="F249" s="14"/>
       <c r="H249" s="14" t="s">
@@ -6740,11 +6223,11 @@
       <c r="I249" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J249" s="48" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" s="5" customFormat="1">
+      <c r="J249" s="43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="250" s="5" customFormat="1" spans="1:11">
       <c r="A250" s="5" t="s">
         <v>21</v>
       </c>
@@ -6773,7 +6256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:11" s="6" customFormat="1">
+    <row r="251" s="6" customFormat="1" spans="1:4">
       <c r="A251" s="6" t="s">
         <v>30</v>
       </c>
@@ -6787,7 +6270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:11" s="1" customFormat="1">
+    <row r="253" s="1" customFormat="1" spans="1:9">
       <c r="A253" s="1" t="s">
         <v>0</v>
       </c>
@@ -6804,7 +6287,7 @@
         <v>210</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>35</v>
@@ -6813,15 +6296,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:11" s="2" customFormat="1">
+    <row r="254" s="2" customFormat="1" spans="1:8">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D254" s="20" t="s">
         <v>94</v>
@@ -6830,16 +6313,16 @@
         <v>85</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="255" spans="1:11" s="3" customFormat="1">
+    <row r="255" s="3" customFormat="1" spans="1:11">
       <c r="A255" s="3" t="s">
         <v>4</v>
       </c>
@@ -6860,7 +6343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" spans="1:11" s="4" customFormat="1">
+    <row r="256" s="4" customFormat="1" spans="1:9">
       <c r="A256" s="4" t="s">
         <v>12</v>
       </c>
@@ -6875,7 +6358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="257" spans="1:11" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:11">
       <c r="A257" s="5" t="s">
         <v>21</v>
       </c>
@@ -6904,7 +6387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:11" s="6" customFormat="1">
+    <row r="258" s="6" customFormat="1" spans="1:4">
       <c r="A258" s="6" t="s">
         <v>30</v>
       </c>
@@ -6914,21 +6397,21 @@
       </c>
       <c r="D258" s="8"/>
     </row>
-    <row r="260" spans="1:11" s="1" customFormat="1">
+    <row r="260" s="1" customFormat="1" spans="1:9">
       <c r="A260" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="E260" s="20" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="F260" s="17"/>
       <c r="H260" s="1" t="s">
@@ -6938,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:11" s="2" customFormat="1">
+    <row r="261" s="2" customFormat="1" spans="1:8">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
@@ -6949,31 +6432,31 @@
         <v>189</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="F261" s="21"/>
       <c r="H261" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="262" spans="1:11" s="3" customFormat="1">
+    <row r="262" s="3" customFormat="1" spans="1:11">
       <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="H262" s="3" t="s">
         <v>10</v>
@@ -6988,7 +6471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:11" s="4" customFormat="1">
+    <row r="263" s="4" customFormat="1" spans="1:9">
       <c r="A263" s="4" t="s">
         <v>12</v>
       </c>
@@ -7004,17 +6487,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:11" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:11">
       <c r="A264" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B264" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C264" s="39" t="s">
+      <c r="C264" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D264" s="39" t="s">
+      <c r="D264" s="38" t="s">
         <v>80</v>
       </c>
       <c r="E264" s="24" t="s">
@@ -7033,7 +6516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:11" s="6" customFormat="1">
+    <row r="265" s="6" customFormat="1" spans="1:4">
       <c r="A265" s="6" t="s">
         <v>30</v>
       </c>
@@ -7043,56 +6526,56 @@
       </c>
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:1">
       <c r="A266" s="13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" s="1" customFormat="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="267" s="1" customFormat="1" spans="1:6">
       <c r="A267" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>276</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>94</v>
       </c>
       <c r="F267" s="17"/>
     </row>
-    <row r="268" spans="1:11" s="2" customFormat="1">
+    <row r="268" s="2" customFormat="1" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="E268" s="21" t="s">
         <v>277</v>
       </c>
       <c r="F268" s="21"/>
     </row>
-    <row r="269" spans="1:11" s="3" customFormat="1">
+    <row r="269" s="3" customFormat="1" spans="1:10">
       <c r="A269" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="D269" s="9"/>
       <c r="H269" s="3" t="s">
@@ -7105,7 +6588,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="270" spans="1:11" s="4" customFormat="1">
+    <row r="270" s="4" customFormat="1" spans="1:11">
       <c r="A270" s="4" t="s">
         <v>12</v>
       </c>
@@ -7127,20 +6610,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:11" s="5" customFormat="1">
+    <row r="271" s="5" customFormat="1" spans="1:11">
       <c r="A271" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B271" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="C271" s="39" t="s">
+      <c r="B271" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C271" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D271" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="E271" s="39" t="s">
+      <c r="D271" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E271" s="38" t="s">
         <v>179</v>
       </c>
       <c r="H271" s="31" t="s">
@@ -7156,7 +6639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:11" s="6" customFormat="1">
+    <row r="272" s="6" customFormat="1" spans="1:4">
       <c r="A272" s="6" t="s">
         <v>30</v>
       </c>
@@ -7170,434 +6653,142 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:17" s="1" customFormat="1">
+    <row r="274" s="1" customFormat="1" spans="1:10">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B274" s="16"/>
-      <c r="C274" s="16"/>
-      <c r="D274" s="17"/>
-      <c r="E274" s="17"/>
-      <c r="F274" s="17"/>
-      <c r="H274" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:17" s="2" customFormat="1">
+      <c r="B274" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D274" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F274" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J274" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="275" s="2" customFormat="1" spans="1:9">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="C275" s="43" t="s">
-        <v>366</v>
-      </c>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
       <c r="D275" s="20"/>
       <c r="F275" s="20"/>
-    </row>
-    <row r="276" spans="1:17" s="3" customFormat="1">
+      <c r="H275" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="276" s="3" customFormat="1" spans="1:5">
       <c r="A276" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B276" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E276" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="F276" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="H276" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I276" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J276" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K276" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L276" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="277" spans="1:17" s="4" customFormat="1">
+      <c r="B276" s="9"/>
+      <c r="C276" s="22"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+    </row>
+    <row r="277" s="4" customFormat="1" spans="1:9">
       <c r="A277" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B277" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="D277" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E277" s="14" t="s">
-        <v>370</v>
+      <c r="B277" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I277" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="278" spans="1:17" s="5" customFormat="1">
+      <c r="I277" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="278" s="5" customFormat="1" spans="1:11">
       <c r="A278" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B278" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C278" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D278" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E278" s="31" t="s">
-        <v>29</v>
+      <c r="B278" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C278" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="H278" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I278" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J278" s="11" t="s">
         <v>27</v>
+      </c>
+      <c r="J278" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="K278" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:17" s="6" customFormat="1">
+    <row r="279" s="6" customFormat="1" spans="1:4">
       <c r="A279" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B279" s="8"/>
+      <c r="B279" s="8">
+        <v>8</v>
+      </c>
       <c r="C279" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D279" s="8"/>
-    </row>
-    <row r="281" spans="1:17" s="1" customFormat="1">
-      <c r="A281" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C281" s="16"/>
-      <c r="D281" s="17"/>
-      <c r="E281" s="17"/>
-      <c r="F281" s="17"/>
-      <c r="H281" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I281" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="J281" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="M281" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N281" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O281" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P281" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q281" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="282" spans="1:17" s="2" customFormat="1">
-      <c r="A282" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B282" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="C282" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D282" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="E282" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F282" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="H282" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="M282" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N282" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="283" spans="1:17" s="3" customFormat="1">
-      <c r="A283" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B283" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D283" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="E283" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="F283" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="H283" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I283" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J283" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="284" spans="1:17" s="4" customFormat="1">
-      <c r="A284" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D284" s="10"/>
-      <c r="E284" s="14"/>
-      <c r="F284" s="14"/>
-      <c r="H284" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I284" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="J284" s="14"/>
-      <c r="M284" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="285" spans="1:17" s="5" customFormat="1">
-      <c r="A285" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C285" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D285" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E285" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H285" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I285" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J285" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K285" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M285" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N285" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="O285" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P285" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="286" spans="1:17" s="6" customFormat="1">
-      <c r="A286" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B286" s="8"/>
-      <c r="C286" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D286" s="8"/>
-    </row>
-    <row r="288" spans="1:17" s="1" customFormat="1">
-      <c r="A288" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B288" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C288" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D288" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F288" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I288" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J288" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" s="2" customFormat="1">
-      <c r="A289" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B289" s="20"/>
-      <c r="C289" s="20"/>
-      <c r="D289" s="20"/>
-      <c r="F289" s="20"/>
-      <c r="H289" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I289" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" s="3" customFormat="1">
-      <c r="A290" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B290" s="9"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="9"/>
-      <c r="E290" s="9"/>
-    </row>
-    <row r="291" spans="1:11" s="4" customFormat="1">
-      <c r="A291" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B291" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C291" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="F291" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H291" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I291" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" s="5" customFormat="1">
-      <c r="A292" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B292" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C292" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D292" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E292" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H292" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I292" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J292" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K292" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" s="6" customFormat="1">
-      <c r="A293" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B293" s="8">
+      <c r="D279" s="8">
         <v>8</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D293" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11">
+    </row>
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" s="1" customFormat="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" spans="1:10">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>218</v>
@@ -7613,7 +6804,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="296" spans="1:11" s="2" customFormat="1">
+    <row r="296" s="2" customFormat="1" spans="1:9">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
@@ -7628,21 +6819,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="297" spans="1:11" s="3" customFormat="1">
+    <row r="297" s="3" customFormat="1" spans="1:11">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>190</v>
@@ -7657,7 +6848,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="298" spans="1:11" s="4" customFormat="1">
+    <row r="298" s="4" customFormat="1" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>12</v>
       </c>
@@ -7665,19 +6856,19 @@
         <v>177</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="299" spans="1:11" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:11">
       <c r="A299" s="5" t="s">
         <v>21</v>
       </c>
@@ -7699,14 +6890,14 @@
       <c r="I299" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J299" s="40" t="s">
+      <c r="J299" s="39" t="s">
         <v>143</v>
       </c>
       <c r="K299" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:11" s="6" customFormat="1">
+    <row r="300" s="6" customFormat="1" spans="1:8">
       <c r="A300" s="6" t="s">
         <v>30</v>
       </c>
@@ -7720,21 +6911,21 @@
         <v>7</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" s="1" customFormat="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="302" s="1" customFormat="1" spans="1:9">
       <c r="A302" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="F302" s="17"/>
       <c r="H302" s="1" t="s">
@@ -7744,15 +6935,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:11" s="2" customFormat="1">
+    <row r="303" s="2" customFormat="1" spans="1:8">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="D303" s="20"/>
       <c r="F303" s="20"/>
@@ -7760,18 +6951,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="304" spans="1:11" s="3" customFormat="1">
+    <row r="304" s="3" customFormat="1" spans="1:11">
       <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="D304" s="22" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="E304" s="22"/>
       <c r="H304" s="3" t="s">
@@ -7787,24 +6978,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:11" s="4" customFormat="1">
+    <row r="305" s="4" customFormat="1" spans="1:9">
       <c r="A305" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>18</v>
@@ -7813,7 +7004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:11" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:11">
       <c r="A306" s="5" t="s">
         <v>21</v>
       </c>
@@ -7823,10 +7014,10 @@
       <c r="C306" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D306" s="39" t="s">
+      <c r="D306" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E306" s="40" t="s">
+      <c r="E306" s="39" t="s">
         <v>172</v>
       </c>
       <c r="H306" s="31" t="s">
@@ -7842,7 +7033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:11" s="6" customFormat="1">
+    <row r="307" s="6" customFormat="1" spans="1:4">
       <c r="A307" s="6" t="s">
         <v>30</v>
       </c>
@@ -7852,12 +7043,12 @@
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="309" spans="1:11" s="1" customFormat="1">
+    <row r="309" s="1" customFormat="1" spans="1:10">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="C309" s="17"/>
       <c r="D309" s="16"/>
@@ -7872,7 +7063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="310" spans="1:11" s="2" customFormat="1">
+    <row r="310" s="2" customFormat="1" spans="1:9">
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
@@ -7884,60 +7075,60 @@
         <v>72</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" s="3" customFormat="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="311" s="3" customFormat="1" spans="1:8">
       <c r="A311" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B311" s="43" t="s">
-        <v>415</v>
+      <c r="B311" s="44" t="s">
+        <v>374</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="D311" s="28" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="F311" s="28" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="G311" s="4"/>
       <c r="H311" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:11" s="4" customFormat="1">
+    <row r="312" s="4" customFormat="1" spans="1:9">
       <c r="A312" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C312" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="D312" s="41" t="s">
-        <v>422</v>
+        <v>379</v>
+      </c>
+      <c r="C312" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D312" s="40" t="s">
+        <v>381</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="H312" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" s="5" customFormat="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="313" s="5" customFormat="1" spans="1:11">
       <c r="A313" s="5" t="s">
         <v>21</v>
       </c>
@@ -7966,7 +7157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:11" s="6" customFormat="1">
+    <row r="314" s="6" customFormat="1" spans="1:4">
       <c r="A314" s="6" t="s">
         <v>30</v>
       </c>
@@ -7983,16 +7174,16 @@
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -8027,14 +7218,14 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -8056,16 +7247,16 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -8073,7 +7264,7 @@
         <v>62</v>
       </c>
       <c r="I319" s="4" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="J319" s="4" t="s">
         <v>20</v>
@@ -8133,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -8156,16 +7347,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="E324" s="20" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -8173,7 +7364,7 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
@@ -8183,13 +7374,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
@@ -8210,10 +7401,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -8223,7 +7414,7 @@
         <v>18</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
@@ -8238,10 +7429,10 @@
       <c r="C327" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D327" s="39" t="s">
+      <c r="D327" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E327" s="39" t="s">
+      <c r="E327" s="38" t="s">
         <v>81</v>
       </c>
       <c r="F327" s="5"/>
@@ -8281,22 +7472,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="F330" s="17" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -8310,16 +7501,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -8335,16 +7526,16 @@
         <v>4</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -8366,7 +7557,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -8377,7 +7568,7 @@
         <v>18</v>
       </c>
       <c r="I333" s="4" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="J333" s="4" t="s">
         <v>20</v>
@@ -8432,10 +7623,764 @@
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
     </row>
+    <row r="337" s="1" customFormat="1" spans="1:21">
+      <c r="A337" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337" s="17"/>
+      <c r="C337" s="17"/>
+      <c r="D337" s="17"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="17"/>
+      <c r="H337" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J337" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M337" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N337" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="O337" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P337" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="R337" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S337" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T337" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="U337" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="338" s="2" customFormat="1" spans="1:19">
+      <c r="A338" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C338" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D338" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E338" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F338" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M338" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R338" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S338" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="339" s="3" customFormat="1" spans="1:18">
+      <c r="A339" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C339" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D339" s="9"/>
+      <c r="H339" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J339" s="3"/>
+      <c r="M339" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N339" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R339" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" s="4" customFormat="1" spans="1:14">
+      <c r="A340" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C340" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D340" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E340" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F340" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="H340" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M340" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N340" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="341" s="5" customFormat="1" spans="1:21">
+      <c r="A341" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B341" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C341" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D341" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E341" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H341" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I341" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J341" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K341" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M341" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N341" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O341" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P341" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R341" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S341" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="T341" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U341" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="342" s="6" customFormat="1" spans="1:8">
+      <c r="A342" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B342" s="8">
+        <v>5</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D342" s="8">
+        <v>7</v>
+      </c>
+      <c r="H342" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="344" s="1" customFormat="1" spans="1:9">
+      <c r="A344" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B344" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C344" s="17"/>
+      <c r="D344" s="17"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="17"/>
+      <c r="H344" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I344" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="345" s="2" customFormat="1" spans="1:10">
+      <c r="A345" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B345" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C345" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D345" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E345" s="21"/>
+      <c r="F345" s="21"/>
+      <c r="H345" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J345" s="48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="346" s="3" customFormat="1" spans="1:9">
+      <c r="A346" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C346" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D346" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="E346" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" s="4" customFormat="1" spans="1:9">
+      <c r="A347" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B347" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D347" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="E347" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="F347" s="14"/>
+      <c r="H347" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I347" s="43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="348" s="5" customFormat="1" spans="1:11">
+      <c r="A348" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D348" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E348" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H348" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I348" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J348" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K348" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" s="6" customFormat="1" spans="1:4">
+      <c r="A349" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" s="8"/>
+      <c r="C349" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D349" s="8"/>
+    </row>
+    <row r="351" s="1" customFormat="1" spans="1:17">
+      <c r="A351" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B351" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C351" s="16"/>
+      <c r="D351" s="17"/>
+      <c r="E351" s="17"/>
+      <c r="F351" s="17"/>
+      <c r="H351" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I351" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="J351" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O351" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P351" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q351" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="352" s="2" customFormat="1" spans="1:14">
+      <c r="A352" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C352" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="D352" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="E352" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F352" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="H352" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M352" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N352" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="353" s="3" customFormat="1" spans="1:10">
+      <c r="A353" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D353" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="E353" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="F353" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H353" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="354" s="4" customFormat="1" spans="1:13">
+      <c r="A354" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D354" s="10"/>
+      <c r="E354" s="14"/>
+      <c r="F354" s="14"/>
+      <c r="H354" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I354" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="J354" s="14"/>
+      <c r="M354" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="355" s="5" customFormat="1" spans="1:16">
+      <c r="A355" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C355" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D355" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E355" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H355" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I355" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J355" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K355" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M355" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N355" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O355" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P355" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="356" s="6" customFormat="1" spans="1:4">
+      <c r="A356" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B356" s="8"/>
+      <c r="C356" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D356" s="8"/>
+    </row>
+    <row r="358" s="1" customFormat="1" spans="1:8">
+      <c r="A358" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B358" s="16"/>
+      <c r="C358" s="16"/>
+      <c r="D358" s="17"/>
+      <c r="E358" s="17"/>
+      <c r="F358" s="17"/>
+      <c r="H358" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" s="2" customFormat="1" spans="1:6">
+      <c r="A359" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B359" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="C359" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="D359" s="20"/>
+      <c r="F359" s="20"/>
+    </row>
+    <row r="360" s="3" customFormat="1" spans="1:12">
+      <c r="A360" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="F360" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L360" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="361" s="4" customFormat="1" spans="1:9">
+      <c r="A361" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C361" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E361" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F361" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="H361" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I361" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" s="5" customFormat="1" spans="1:11">
+      <c r="A362" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B362" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C362" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D362" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E362" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H362" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I362" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J362" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K362" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" s="6" customFormat="1" spans="1:4">
+      <c r="A363" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B363" s="8"/>
+      <c r="C363" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D363" s="8"/>
+    </row>
+    <row r="365" s="1" customFormat="1" spans="1:9">
+      <c r="A365" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B365" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C365" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D365" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F365" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I365" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="366" s="2" customFormat="1" spans="1:9">
+      <c r="A366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C366" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="D366" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E366" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="F366" s="21"/>
+      <c r="H366" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I366" s="48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="367" s="3" customFormat="1" spans="1:11">
+      <c r="A367" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B367" s="9"/>
+      <c r="C367" s="22"/>
+      <c r="D367" s="9"/>
+      <c r="E367" s="9"/>
+      <c r="H367" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I367" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J367" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="368" s="4" customFormat="1" spans="1:9">
+      <c r="A368" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B368" s="15"/>
+      <c r="C368" s="14"/>
+      <c r="E368" s="14"/>
+      <c r="F368" s="14"/>
+      <c r="H368" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I368" s="43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="369" s="5" customFormat="1" spans="1:11">
+      <c r="A369" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B369" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C369" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D369" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E369" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H369" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I369" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J369" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K369" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="370" s="6" customFormat="1" spans="1:4">
+      <c r="A370" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B370" s="8">
+        <v>3</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D370" s="8">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25110" windowHeight="12600"/>
+    <workbookView windowWidth="25080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463">
   <si>
     <t>王国</t>
   </si>
@@ -826,157 +826,163 @@
     <t>美杜莎女王</t>
   </si>
   <si>
+    <t>脱困战神</t>
+  </si>
+  <si>
+    <t>治疗天使</t>
+  </si>
+  <si>
+    <t>本源之力天使</t>
+  </si>
+  <si>
+    <t>死契复活雷兽</t>
+  </si>
+  <si>
+    <t>法反化蛇</t>
+  </si>
+  <si>
+    <t>蛮荒之力幻翼</t>
+  </si>
+  <si>
+    <t>反击雷兽</t>
+  </si>
+  <si>
+    <t>狂热雷兽</t>
+  </si>
+  <si>
+    <t>弱点战神</t>
+  </si>
+  <si>
+    <t>横扫战神</t>
+  </si>
+  <si>
+    <t>暴击女武神</t>
+  </si>
+  <si>
+    <t>冰甲女武神</t>
+  </si>
+  <si>
+    <t>回魂2老头</t>
+  </si>
+  <si>
+    <t>格挡圣堂</t>
+  </si>
+  <si>
+    <t>王国之力天使</t>
+  </si>
+  <si>
+    <t>王国守护天使</t>
+  </si>
+  <si>
+    <t>封印金属</t>
+  </si>
+  <si>
+    <t>转生金属</t>
+  </si>
+  <si>
+    <t>法侵金属</t>
+  </si>
+  <si>
+    <t>甘霖兔子</t>
+  </si>
+  <si>
+    <t>降临复活化蛇</t>
+  </si>
+  <si>
+    <t>降临摧毁化蛇</t>
+  </si>
+  <si>
+    <t>冰甲化蛇</t>
+  </si>
+  <si>
+    <t>暴风雪幻翼</t>
+  </si>
+  <si>
+    <t>格挡雷兽</t>
+  </si>
+  <si>
+    <t>免疫天使</t>
+  </si>
+  <si>
+    <t>战意光龙</t>
+  </si>
+  <si>
+    <t>法反天使</t>
+  </si>
+  <si>
+    <t>弱点麒麟</t>
+  </si>
+  <si>
+    <t>燃烧凤凰</t>
+  </si>
+  <si>
+    <t>穷追猛打雷兽</t>
+  </si>
+  <si>
+    <t>巫妖领主</t>
+  </si>
+  <si>
+    <t>回春时光</t>
+  </si>
+  <si>
+    <t>甘霖时光</t>
+  </si>
+  <si>
+    <t>降临传送兔子</t>
+  </si>
+  <si>
+    <t>冰甲金属</t>
+  </si>
+  <si>
+    <t>陷阱2金属</t>
+  </si>
+  <si>
+    <t>连锁元素灵龙</t>
+  </si>
+  <si>
+    <t>免疫元素灵龙</t>
+  </si>
+  <si>
+    <t>不动元素灵龙</t>
+  </si>
+  <si>
+    <t>复苏</t>
+  </si>
+  <si>
+    <t>免疫龙角</t>
+  </si>
+  <si>
+    <t>横扫龙角</t>
+  </si>
+  <si>
+    <t>横扫毒龙</t>
+  </si>
+  <si>
+    <t>烈火毒龙</t>
+  </si>
+  <si>
+    <t>法侵化蛇</t>
+  </si>
+  <si>
+    <t>转生海妖</t>
+  </si>
+  <si>
+    <t>圣灵大祭司</t>
+  </si>
+  <si>
     <t>免疫海妖</t>
   </si>
   <si>
     <t>神圣守护幻翼</t>
   </si>
   <si>
-    <t>格挡雷兽</t>
-  </si>
-  <si>
     <t>战争怒吼狗头</t>
   </si>
   <si>
     <t>本源守护7圆月</t>
   </si>
   <si>
-    <t>脱困战神</t>
-  </si>
-  <si>
-    <t>治疗天使</t>
-  </si>
-  <si>
-    <t>本源之力天使</t>
-  </si>
-  <si>
-    <t>死契复活雷兽</t>
-  </si>
-  <si>
-    <t>法反化蛇</t>
-  </si>
-  <si>
-    <t>蛮荒之力幻翼</t>
-  </si>
-  <si>
-    <t>反击雷兽</t>
-  </si>
-  <si>
-    <t>狂热雷兽</t>
-  </si>
-  <si>
-    <t>弱点战神</t>
-  </si>
-  <si>
-    <t>横扫战神</t>
-  </si>
-  <si>
-    <t>暴击女武神</t>
-  </si>
-  <si>
-    <t>冰甲女武神</t>
-  </si>
-  <si>
-    <t>回魂2老头</t>
-  </si>
-  <si>
-    <t>格挡圣堂</t>
-  </si>
-  <si>
-    <t>王国之力天使</t>
-  </si>
-  <si>
-    <t>王国守护天使</t>
-  </si>
-  <si>
-    <t>封印金属</t>
-  </si>
-  <si>
-    <t>转生金属</t>
-  </si>
-  <si>
-    <t>法侵金属</t>
-  </si>
-  <si>
-    <t>甘霖兔子</t>
-  </si>
-  <si>
-    <t>降临复活化蛇</t>
-  </si>
-  <si>
-    <t>降临摧毁化蛇</t>
-  </si>
-  <si>
-    <t>冰甲化蛇</t>
-  </si>
-  <si>
-    <t>暴风雪幻翼</t>
-  </si>
-  <si>
-    <t>免疫天使</t>
-  </si>
-  <si>
-    <t>战意光龙</t>
-  </si>
-  <si>
-    <t>法反天使</t>
-  </si>
-  <si>
-    <t>弱点麒麟</t>
-  </si>
-  <si>
-    <t>燃烧凤凰</t>
-  </si>
-  <si>
-    <t>穷追猛打雷兽</t>
-  </si>
-  <si>
-    <t>巫妖领主</t>
-  </si>
-  <si>
-    <t>回春时光</t>
-  </si>
-  <si>
-    <t>甘霖时光</t>
-  </si>
-  <si>
-    <t>降临传送兔子</t>
-  </si>
-  <si>
-    <t>冰甲金属</t>
-  </si>
-  <si>
-    <t>陷阱2金属</t>
-  </si>
-  <si>
-    <t>连锁元素灵龙</t>
-  </si>
-  <si>
-    <t>免疫元素灵龙</t>
-  </si>
-  <si>
-    <t>不动元素灵龙</t>
-  </si>
-  <si>
-    <t>复苏</t>
-  </si>
-  <si>
-    <t>免疫龙角</t>
-  </si>
-  <si>
-    <t>横扫龙角</t>
-  </si>
-  <si>
-    <t>横扫毒龙</t>
-  </si>
-  <si>
-    <t>烈火毒龙</t>
-  </si>
-  <si>
-    <t>法侵化蛇</t>
-  </si>
-  <si>
-    <t>转生海妖</t>
+    <t>欲望惩罚者</t>
   </si>
   <si>
     <t>脱困兔子</t>
@@ -1027,9 +1033,6 @@
     <t>不屈圆月魔女</t>
   </si>
   <si>
-    <t>欲望惩罚者</t>
-  </si>
-  <si>
     <t>战争怒吼陨星</t>
   </si>
   <si>
@@ -1186,7 +1189,7 @@
     <t>圣诞老人+免疫</t>
   </si>
   <si>
-    <t>幸运星贤者</t>
+    <t>月女*2</t>
   </si>
   <si>
     <t>齐天美猴王+免疫</t>
@@ -1219,7 +1222,7 @@
     <t>死域军神+不动</t>
   </si>
   <si>
-    <t>死域军神*2</t>
+    <t>雪崩</t>
   </si>
   <si>
     <t>天界守护者+横扫</t>
@@ -1261,6 +1264,9 @@
     <t>战场扫荡者+弱点攻击</t>
   </si>
   <si>
+    <t>机神</t>
+  </si>
+  <si>
     <t>时光女神+战争怒吼</t>
   </si>
   <si>
@@ -1336,9 +1342,6 @@
     <t>不动兔子</t>
   </si>
   <si>
-    <t>圣灵大祭司</t>
-  </si>
-  <si>
     <t>不动黄金金属巨龙</t>
   </si>
   <si>
@@ -1366,9 +1369,6 @@
     <t>复仇金属</t>
   </si>
   <si>
-    <t>兔子*2</t>
-  </si>
-  <si>
     <t>弱点海妖</t>
   </si>
   <si>
@@ -1393,9 +1393,6 @@
     <t>圣炎光龙</t>
   </si>
   <si>
-    <t>机神</t>
-  </si>
-  <si>
     <t>不动圣堂</t>
   </si>
   <si>
@@ -1427,9 +1424,6 @@
   </si>
   <si>
     <t>战意斗神+弱点攻击</t>
-  </si>
-  <si>
-    <t>欲望</t>
   </si>
   <si>
     <t>弱点攻击战意斗神</t>
@@ -1467,12 +1461,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1507,12 +1501,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1603,23 +1591,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1666,15 +1654,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2018,8 +2001,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="I341" sqref="I341"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="K353" sqref="K353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5115,136 +5098,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" s="1" customFormat="1" spans="1:9">
-      <c r="A169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C169" s="17"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17"/>
-      <c r="H169" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="170" s="2" customFormat="1" spans="1:8">
-      <c r="A170" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="171" s="3" customFormat="1" spans="1:11">
-      <c r="A171" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I171" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" s="4" customFormat="1" spans="1:9">
-      <c r="A172" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I172" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" s="5" customFormat="1" spans="1:11">
-      <c r="A173" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H173" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I173" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J173" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K173" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" s="6" customFormat="1" spans="1:4">
-      <c r="A174" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B174" s="8">
-        <v>5</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D174" s="8">
-        <v>6</v>
-      </c>
-    </row>
     <row r="176" s="1" customFormat="1" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>0</v>
@@ -5253,16 +5106,16 @@
         <v>209</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E176" s="17" t="s">
         <v>221</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H176" s="16" t="s">
         <v>2</v>
@@ -5284,19 +5137,19 @@
         <v>4</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>11</v>
@@ -5372,16 +5225,16 @@
         <v>0</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F183" s="17"/>
       <c r="H183" s="1" t="s">
@@ -5402,13 +5255,13 @@
         <v>65</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>221</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>72</v>
@@ -5419,10 +5272,10 @@
         <v>4</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>10</v>
@@ -5502,19 +5355,19 @@
         <v>3</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E191" s="21" t="s">
         <v>94</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>72</v>
@@ -5525,19 +5378,19 @@
         <v>4</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>55</v>
@@ -5613,16 +5466,16 @@
         <v>0</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F197" s="17"/>
       <c r="H197" s="1" t="s">
@@ -5655,10 +5508,10 @@
         <v>94</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E198" s="21" t="s">
         <v>174</v>
@@ -5675,7 +5528,7 @@
         <v>7</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D199" s="9"/>
       <c r="H199" s="3" t="s">
@@ -5691,7 +5544,7 @@
         <v>110</v>
       </c>
       <c r="R199" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" s="4" customFormat="1" spans="1:18">
@@ -5776,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F211" s="17"/>
     </row>
@@ -5794,10 +5647,10 @@
         <v>94</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E212" s="21" t="s">
         <v>95</v>
@@ -5809,13 +5662,13 @@
         <v>4</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>55</v>
@@ -5860,7 +5713,7 @@
         <v>91</v>
       </c>
       <c r="D215" s="38" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E215" s="38" t="s">
         <v>179</v>
@@ -5900,7 +5753,7 @@
         <v>7</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -5913,10 +5766,10 @@
         <v>3</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -5929,13 +5782,13 @@
         <v>4</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E220" s="22" t="s">
         <v>141</v>
@@ -5955,10 +5808,10 @@
         <v>12</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -6015,6 +5868,139 @@
         <v>7</v>
       </c>
     </row>
+    <row r="232" s="1" customFormat="1" spans="1:9">
+      <c r="A232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C232" s="17"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+      <c r="H232" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="233" s="2" customFormat="1" spans="1:10">
+      <c r="A233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="234" s="3" customFormat="1" spans="1:9">
+      <c r="A234" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I234" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="235" s="4" customFormat="1" spans="1:10">
+      <c r="A235" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D235" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I235" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" s="5" customFormat="1" spans="1:11">
+      <c r="A236" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H236" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I236" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J236" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K236" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237" s="6" customFormat="1" spans="1:4">
+      <c r="A237" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" s="8">
+        <v>5</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D237" s="8">
+        <v>6</v>
+      </c>
+    </row>
     <row r="239" s="1" customFormat="1" spans="1:6">
       <c r="A239" s="1" t="s">
         <v>0</v>
@@ -6029,16 +6015,16 @@
         <v>3</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F240" s="21"/>
     </row>
@@ -6047,19 +6033,19 @@
         <v>4</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>11</v>
@@ -6140,22 +6126,22 @@
         <v>0</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F246" s="16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H246" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I246" s="42" t="s">
+      <c r="I246" s="16" t="s">
         <v>35</v>
       </c>
       <c r="J246" s="16"/>
@@ -6179,16 +6165,16 @@
         <v>4</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H248" s="22" t="s">
         <v>148</v>
@@ -6205,7 +6191,7 @@
         <v>12</v>
       </c>
       <c r="B249" s="40" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>243</v>
@@ -6214,7 +6200,7 @@
         <v>32</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F249" s="14"/>
       <c r="H249" s="14" t="s">
@@ -6223,8 +6209,8 @@
       <c r="I249" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J249" s="43" t="s">
-        <v>320</v>
+      <c r="J249" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="250" s="5" customFormat="1" spans="1:11">
@@ -6275,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C253" s="17" t="s">
         <v>146</v>
@@ -6287,7 +6273,7 @@
         <v>210</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>35</v>
@@ -6301,10 +6287,10 @@
         <v>3</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D254" s="20" t="s">
         <v>94</v>
@@ -6313,10 +6299,10 @@
         <v>85</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>72</v>
@@ -6402,16 +6388,16 @@
         <v>0</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E260" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F260" s="17"/>
       <c r="H260" s="1" t="s">
@@ -6432,10 +6418,10 @@
         <v>189</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F261" s="21"/>
       <c r="H261" s="2" t="s">
@@ -6447,16 +6433,16 @@
         <v>4</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H262" s="3" t="s">
         <v>10</v>
@@ -6528,7 +6514,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="267" s="1" customFormat="1" spans="1:6">
@@ -6536,13 +6522,13 @@
         <v>0</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C267" s="21" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>94</v>
@@ -6554,16 +6540,16 @@
         <v>3</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F268" s="21"/>
     </row>
@@ -6572,10 +6558,10 @@
         <v>4</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D269" s="9"/>
       <c r="H269" s="3" t="s">
@@ -6615,13 +6601,13 @@
         <v>21</v>
       </c>
       <c r="B271" s="38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C271" s="38" t="s">
         <v>91</v>
       </c>
       <c r="D271" s="38" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E271" s="38" t="s">
         <v>179</v>
@@ -6658,16 +6644,16 @@
         <v>0</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D274" s="16" t="s">
         <v>210</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F274" s="17" t="s">
         <v>116</v>
@@ -6714,22 +6700,22 @@
         <v>249</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="278" s="5" customFormat="1" spans="1:11">
@@ -6777,7 +6763,7 @@
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="295" s="1" customFormat="1" spans="1:10">
@@ -6785,10 +6771,10 @@
         <v>0</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>218</v>
@@ -6824,16 +6810,16 @@
         <v>4</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>190</v>
@@ -6856,13 +6842,13 @@
         <v>177</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>62</v>
@@ -6911,7 +6897,7 @@
         <v>7</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="302" s="1" customFormat="1" spans="1:9">
@@ -6919,13 +6905,13 @@
         <v>0</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F302" s="17"/>
       <c r="H302" s="1" t="s">
@@ -6940,10 +6926,10 @@
         <v>3</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D303" s="20"/>
       <c r="F303" s="20"/>
@@ -6956,13 +6942,13 @@
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D304" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E304" s="22"/>
       <c r="H304" s="3" t="s">
@@ -6983,19 +6969,19 @@
         <v>12</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>18</v>
@@ -7048,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C309" s="17"/>
       <c r="D309" s="16"/>
@@ -7057,10 +7043,10 @@
         <v>2</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="310" s="2" customFormat="1" spans="1:9">
@@ -7072,60 +7058,60 @@
       <c r="D310" s="20"/>
       <c r="F310" s="20"/>
       <c r="H310" s="2" t="s">
-        <v>72</v>
+        <v>374</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="311" s="3" customFormat="1" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="311" s="3" customFormat="1" spans="1:7">
       <c r="A311" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B311" s="44" t="s">
-        <v>374</v>
+      <c r="B311" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D311" s="28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F311" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G311" s="4"/>
-      <c r="H311" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="312" s="4" customFormat="1" spans="1:9">
+    </row>
+    <row r="312" s="4" customFormat="1" spans="1:10">
       <c r="A312" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D312" s="40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>384</v>
+        <v>305</v>
+      </c>
+      <c r="J312" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="313" s="5" customFormat="1" spans="1:11">
@@ -7144,17 +7130,17 @@
       <c r="E313" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H313" s="31" t="s">
+      <c r="H313" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I313" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J313" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J313" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K313" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="K313" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="314" s="6" customFormat="1" spans="1:4">
@@ -7174,16 +7160,16 @@
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -7218,14 +7204,14 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -7247,16 +7233,16 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -7264,7 +7250,7 @@
         <v>62</v>
       </c>
       <c r="I319" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J319" s="4" t="s">
         <v>20</v>
@@ -7324,20 +7310,20 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="17"/>
       <c r="G323" s="1"/>
       <c r="H323" s="16" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>35</v>
+        <v>399</v>
       </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -7347,16 +7333,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E324" s="20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7364,9 +7350,11 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J324" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="J324" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="K324" s="2"/>
     </row>
     <row r="325" spans="1:11">
@@ -7374,26 +7362,24 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="I325" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J325" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="J325" s="3"/>
       <c r="K325" s="3"/>
     </row>
     <row r="326" spans="1:11">
@@ -7401,22 +7387,24 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J326" s="4"/>
+        <v>305</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="K326" s="4"/>
     </row>
     <row r="327" spans="1:11">
@@ -7440,8 +7428,8 @@
       <c r="H327" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I327" s="24" t="s">
-        <v>23</v>
+      <c r="I327" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="J327" s="24" t="s">
         <v>27</v>
@@ -7472,28 +7460,32 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F330" s="17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
+      <c r="I330" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="K330" s="1"/>
     </row>
     <row r="331" spans="1:11">
@@ -7501,24 +7493,28 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
       <c r="H331" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I331" s="2"/>
-      <c r="J331" s="2"/>
+      <c r="I331" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J331" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="K331" s="2"/>
     </row>
     <row r="332" spans="1:11">
@@ -7526,38 +7522,34 @@
         <v>4</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J332" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K332" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7565,14 +7557,12 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I333" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J333" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="J333" s="4"/>
       <c r="K333" s="4"/>
     </row>
     <row r="334" spans="1:11">
@@ -7602,8 +7592,8 @@
       <c r="J334" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K334" s="12" t="s">
-        <v>26</v>
+      <c r="K334" s="38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -7636,7 +7626,7 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -7645,7 +7635,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7660,7 +7650,7 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
@@ -7671,25 +7661,25 @@
         <v>3</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F338" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>423</v>
+        <v>300</v>
       </c>
       <c r="M338" s="2" t="s">
         <v>72</v>
@@ -7706,10 +7696,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D339" s="9"/>
       <c r="H339" s="3" t="s">
@@ -7718,7 +7708,6 @@
       <c r="I339" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J339" s="3"/>
       <c r="M339" s="3" t="s">
         <v>10</v>
       </c>
@@ -7734,19 +7723,19 @@
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>18</v>
@@ -7762,7 +7751,7 @@
       <c r="A341" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B341" s="45" t="s">
+      <c r="B341" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C341" s="38" t="s">
@@ -7825,7 +7814,7 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" spans="1:9">
@@ -7842,7 +7831,7 @@
       <c r="H344" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I344" s="42" t="s">
+      <c r="I344" s="16" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7851,13 +7840,13 @@
         <v>3</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7865,10 +7854,10 @@
         <v>72</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J345" s="48" t="s">
-        <v>423</v>
+        <v>124</v>
+      </c>
+      <c r="J345" s="21" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="346" s="3" customFormat="1" spans="1:9">
@@ -7894,7 +7883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" s="4" customFormat="1" spans="1:9">
+    <row r="347" s="4" customFormat="1" spans="1:10">
       <c r="A347" s="35" t="s">
         <v>12</v>
       </c>
@@ -7911,11 +7900,14 @@
         <v>439</v>
       </c>
       <c r="F347" s="14"/>
-      <c r="H347" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="I347" s="43" t="s">
-        <v>320</v>
+      <c r="H347" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I347" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="J347" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="348" s="5" customFormat="1" spans="1:11">
@@ -7934,10 +7926,10 @@
       <c r="E348" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H348" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I348" s="49" t="s">
+      <c r="H348" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I348" s="38" t="s">
         <v>81</v>
       </c>
       <c r="J348" s="11" t="s">
@@ -7975,7 +7967,10 @@
         <v>441</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>442</v>
+        <v>399</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="M351" s="1" t="s">
         <v>68</v>
@@ -7987,67 +7982,67 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q351" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="Q351" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:14">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B352" s="46" t="s">
+      <c r="B352" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="C352" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="C352" s="20" t="s">
+      <c r="D352" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="D352" s="20" t="s">
+      <c r="E352" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F352" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="E352" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="F352" s="20" t="s">
-        <v>448</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
       </c>
+      <c r="I352" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="M352" s="2" t="s">
         <v>124</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="353" s="3" customFormat="1" spans="1:10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="353" s="3" customFormat="1" spans="1:8">
       <c r="A353" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="E353" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="E353" s="22" t="s">
+      <c r="F353" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="F353" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="H353" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I353" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J353" s="3" t="s">
+      <c r="H353" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8056,16 +8051,16 @@
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
       <c r="F354" s="14"/>
       <c r="H354" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I354" s="14" t="s">
-        <v>454</v>
+        <v>62</v>
+      </c>
+      <c r="I354" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="J354" s="14"/>
       <c r="M354" s="4" t="s">
@@ -8123,7 +8118,7 @@
       </c>
       <c r="D356" s="8"/>
     </row>
-    <row r="358" s="1" customFormat="1" spans="1:8">
+    <row r="358" s="1" customFormat="1" spans="1:9">
       <c r="A358" s="1" t="s">
         <v>0</v>
       </c>
@@ -8135,38 +8130,47 @@
       <c r="H358" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="359" s="2" customFormat="1" spans="1:6">
+      <c r="I358" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="359" s="2" customFormat="1" spans="1:9">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="C359" s="44" t="s">
-        <v>456</v>
+        <v>453</v>
+      </c>
+      <c r="C359" s="42" t="s">
+        <v>454</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
-    </row>
-    <row r="360" s="3" customFormat="1" spans="1:12">
+      <c r="H359" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="360" s="3" customFormat="1" spans="1:11">
       <c r="A360" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B360" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E360" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F360" s="22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H360" s="3" t="s">
         <v>11</v>
@@ -8175,13 +8179,10 @@
         <v>10</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="K360" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="L360" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="361" s="4" customFormat="1" spans="1:9">
@@ -8189,25 +8190,25 @@
         <v>12</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H361" s="4" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="I361" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="362" s="5" customFormat="1" spans="1:11">
@@ -8257,7 +8258,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8271,7 +8272,7 @@
       <c r="H365" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I365" s="42" t="s">
+      <c r="I365" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8283,20 +8284,20 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="D366" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E366" s="21" t="s">
         <v>462</v>
-      </c>
-      <c r="D366" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="E366" s="21" t="s">
-        <v>464</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I366" s="48" t="s">
-        <v>423</v>
+      <c r="I366" s="21" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="367" s="3" customFormat="1" spans="1:11">
@@ -8313,7 +8314,7 @@
       <c r="I367" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J367" s="50" t="s">
+      <c r="J367" s="22" t="s">
         <v>148</v>
       </c>
       <c r="K367" s="3" t="s">
@@ -8328,11 +8329,11 @@
       <c r="C368" s="14"/>
       <c r="E368" s="14"/>
       <c r="F368" s="14"/>
-      <c r="H368" s="43" t="s">
+      <c r="H368" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I368" s="43" t="s">
-        <v>320</v>
+      <c r="I368" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="369" s="5" customFormat="1" spans="1:11">

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467">
   <si>
     <t>王国</t>
   </si>
@@ -970,6 +970,9 @@
     <t>圣灵大祭司</t>
   </si>
   <si>
+    <t>处女座</t>
+  </si>
+  <si>
     <t>免疫海妖</t>
   </si>
   <si>
@@ -1018,6 +1021,9 @@
     <t>弱点攻击扫荡者</t>
   </si>
   <si>
+    <t>月樱</t>
+  </si>
+  <si>
     <t>复仇巫妖</t>
   </si>
   <si>
@@ -1333,7 +1339,7 @@
     <t>圆月魔女+魔甲4</t>
   </si>
   <si>
-    <t>机神*2</t>
+    <t>3堕落天使：</t>
   </si>
   <si>
     <t>陨星*2</t>
@@ -1453,7 +1459,13 @@
     <t>盾刺金属*2</t>
   </si>
   <si>
-    <t>回春金属</t>
+    <t>回春8金属</t>
+  </si>
+  <si>
+    <t>免疫人偶</t>
+  </si>
+  <si>
+    <t>复活陨星</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2001,8 +2013,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="K353" sqref="K353"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="J340" sqref="J340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5868,7 +5880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" s="1" customFormat="1" spans="1:9">
+    <row r="232" s="1" customFormat="1" spans="1:8">
       <c r="A232" s="1" t="s">
         <v>0</v>
       </c>
@@ -5882,11 +5894,8 @@
       <c r="H232" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I232" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="233" s="2" customFormat="1" spans="1:10">
+    </row>
+    <row r="233" s="2" customFormat="1" spans="1:11">
       <c r="A233" s="2" t="s">
         <v>3</v>
       </c>
@@ -5900,10 +5909,13 @@
         <v>72</v>
       </c>
       <c r="I233" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J233" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>300</v>
+      <c r="K233" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="234" s="3" customFormat="1" spans="1:9">
@@ -5911,10 +5923,10 @@
         <v>4</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>74</v>
@@ -5943,10 +5955,10 @@
         <v>109</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>62</v>
@@ -5955,7 +5967,7 @@
         <v>20</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" s="5" customFormat="1" spans="1:11">
@@ -6015,16 +6027,16 @@
         <v>3</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F240" s="21"/>
     </row>
@@ -6033,13 +6045,13 @@
         <v>4</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E241" s="22" t="s">
         <v>277</v>
@@ -6121,33 +6133,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" spans="1:11">
+    <row r="246" s="1" customFormat="1" spans="1:16">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F246" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H246" s="16" t="s">
         <v>153</v>
       </c>
       <c r="I246" s="16" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="J246" s="16"/>
       <c r="K246" s="16"/>
-    </row>
-    <row r="247" s="2" customFormat="1" spans="1:8">
+      <c r="M246" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="N246" s="16"/>
+      <c r="O246" s="16"/>
+      <c r="P246" s="16"/>
+    </row>
+    <row r="247" s="2" customFormat="1" spans="1:16">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
@@ -6159,22 +6177,40 @@
       <c r="H247" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="248" s="3" customFormat="1" spans="1:10">
+      <c r="I247" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J247" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M247" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N247" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O247" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="P247" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="248" s="3" customFormat="1" spans="1:15">
       <c r="A248" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H248" s="22" t="s">
         <v>148</v>
@@ -6185,13 +6221,22 @@
       <c r="J248" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="249" s="4" customFormat="1" spans="1:10">
+      <c r="M248" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N248" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O248" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" s="4" customFormat="1" spans="1:14">
       <c r="A249" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B249" s="40" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>243</v>
@@ -6200,20 +6245,23 @@
         <v>32</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F249" s="14"/>
       <c r="H249" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I249" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J249" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="250" s="5" customFormat="1" spans="1:11">
+        <v>62</v>
+      </c>
+      <c r="I249" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="M249" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N249" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="250" s="5" customFormat="1" spans="1:16">
       <c r="A250" s="5" t="s">
         <v>21</v>
       </c>
@@ -6235,10 +6283,22 @@
       <c r="I250" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J250" s="12" t="s">
-        <v>26</v>
+      <c r="J250" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="K250" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M250" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N250" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O250" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P250" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6273,7 +6333,7 @@
         <v>210</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>35</v>
@@ -6287,10 +6347,10 @@
         <v>3</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D254" s="20" t="s">
         <v>94</v>
@@ -6299,10 +6359,10 @@
         <v>85</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>72</v>
@@ -6388,16 +6448,16 @@
         <v>0</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E260" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F260" s="17"/>
       <c r="H260" s="1" t="s">
@@ -6418,10 +6478,10 @@
         <v>189</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F261" s="21"/>
       <c r="H261" s="2" t="s">
@@ -6433,16 +6493,16 @@
         <v>4</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H262" s="3" t="s">
         <v>10</v>
@@ -6514,7 +6574,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="267" s="1" customFormat="1" spans="1:6">
@@ -6522,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>271</v>
@@ -6540,13 +6600,13 @@
         <v>3</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E268" s="21" t="s">
         <v>272</v>
@@ -6558,10 +6618,10 @@
         <v>4</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D269" s="9"/>
       <c r="H269" s="3" t="s">
@@ -6601,7 +6661,7 @@
         <v>21</v>
       </c>
       <c r="B271" s="38" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C271" s="38" t="s">
         <v>91</v>
@@ -6644,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C274" s="16" t="s">
         <v>254</v>
@@ -6653,7 +6713,7 @@
         <v>210</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F274" s="17" t="s">
         <v>116</v>
@@ -6700,22 +6760,22 @@
         <v>249</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="278" s="5" customFormat="1" spans="1:11">
@@ -6763,7 +6823,7 @@
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="295" s="1" customFormat="1" spans="1:10">
@@ -6771,10 +6831,10 @@
         <v>0</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>218</v>
@@ -6810,16 +6870,16 @@
         <v>4</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>190</v>
@@ -6842,13 +6902,13 @@
         <v>177</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>62</v>
@@ -6897,7 +6957,7 @@
         <v>7</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="302" s="1" customFormat="1" spans="1:9">
@@ -6905,50 +6965,54 @@
         <v>0</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F302" s="17"/>
       <c r="H302" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I302" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" s="2" customFormat="1" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I302" s="16"/>
+    </row>
+    <row r="303" s="2" customFormat="1" spans="1:10">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D303" s="20"/>
       <c r="F303" s="20"/>
       <c r="H303" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="I303" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="304" s="3" customFormat="1" spans="1:11">
       <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D304" s="22" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E304" s="22"/>
       <c r="H304" s="3" t="s">
@@ -6969,25 +7033,25 @@
         <v>12</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
     </row>
     <row r="306" s="5" customFormat="1" spans="1:11">
@@ -7010,13 +7074,13 @@
         <v>29</v>
       </c>
       <c r="I306" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J306" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K306" s="12" t="s">
-        <v>26</v>
+      <c r="J306" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K306" s="38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="307" s="6" customFormat="1" spans="1:4">
@@ -7034,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C309" s="17"/>
       <c r="D309" s="16"/>
@@ -7058,7 +7122,7 @@
       <c r="D310" s="20"/>
       <c r="F310" s="20"/>
       <c r="H310" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>124</v>
@@ -7069,19 +7133,19 @@
         <v>4</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D311" s="28" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F311" s="28" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G311" s="4"/>
     </row>
@@ -7090,25 +7154,25 @@
         <v>12</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D312" s="40" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H312" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J312" s="4" t="s">
         <v>61</v>
@@ -7137,7 +7201,7 @@
         <v>28</v>
       </c>
       <c r="J313" s="18" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K313" s="24" t="s">
         <v>27</v>
@@ -7160,16 +7224,16 @@
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -7204,14 +7268,14 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -7233,16 +7297,16 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -7250,7 +7314,7 @@
         <v>62</v>
       </c>
       <c r="I319" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J319" s="4" t="s">
         <v>20</v>
@@ -7310,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7323,7 +7387,7 @@
         <v>136</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -7333,16 +7397,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E324" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7350,7 +7414,7 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
@@ -7362,13 +7426,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
@@ -7387,10 +7451,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7400,7 +7464,7 @@
         <v>62</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J326" s="4" t="s">
         <v>20</v>
@@ -7460,22 +7524,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F330" s="17" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -7484,25 +7548,27 @@
         <v>136</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K330" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7522,16 +7588,16 @@
         <v>4</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7539,7 +7605,7 @@
         <v>110</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
@@ -7549,7 +7615,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7557,11 +7623,9 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I333" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="I333" s="4"/>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
     </row>
@@ -7586,8 +7650,8 @@
       <c r="H334" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I334" s="24" t="s">
-        <v>23</v>
+      <c r="I334" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="J334" s="24" t="s">
         <v>27</v>
@@ -7613,6 +7677,11 @@
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
     </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>424</v>
+      </c>
+    </row>
     <row r="337" s="1" customFormat="1" spans="1:21">
       <c r="A337" s="1" t="s">
         <v>0</v>
@@ -7626,16 +7695,17 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="K337" s="1"/>
       <c r="M337" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7650,7 +7720,7 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
@@ -7661,7 +7731,7 @@
         <v>3</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>53</v>
@@ -7670,16 +7740,22 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F338" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I338" s="2" t="s">
         <v>300</v>
+      </c>
+      <c r="J338" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K338" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="M338" s="2" t="s">
         <v>72</v>
@@ -7696,10 +7772,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D339" s="9"/>
       <c r="H339" s="3" t="s">
@@ -7723,22 +7799,22 @@
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H340" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M340" s="4" t="s">
         <v>61</v>
@@ -7763,11 +7839,11 @@
       <c r="E341" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H341" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I341" s="38" t="s">
+      <c r="H341" s="38" t="s">
         <v>81</v>
+      </c>
+      <c r="I341" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="J341" s="11" t="s">
         <v>27</v>
@@ -7814,7 +7890,7 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" spans="1:9">
@@ -7843,10 +7919,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7865,13 +7941,13 @@
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -7888,23 +7964,23 @@
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="22" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I347" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J347" s="4" t="s">
         <v>20</v>
@@ -7954,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -7964,10 +8040,10 @@
         <v>2</v>
       </c>
       <c r="I351" s="16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>153</v>
@@ -7982,10 +8058,10 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q351" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:14">
@@ -7993,19 +8069,19 @@
         <v>3</v>
       </c>
       <c r="B352" s="44" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
@@ -8028,19 +8104,19 @@
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>110</v>
@@ -8051,7 +8127,7 @@
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8060,7 +8136,7 @@
         <v>62</v>
       </c>
       <c r="I354" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J354" s="14"/>
       <c r="M354" s="4" t="s">
@@ -8134,15 +8210,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="359" s="2" customFormat="1" spans="1:9">
+    <row r="359" s="2" customFormat="1" spans="1:10">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8152,16 +8228,19 @@
       <c r="I359" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="360" s="3" customFormat="1" spans="1:11">
+      <c r="J359" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="360" s="3" customFormat="1" spans="1:10">
       <c r="A360" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B360" s="22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8179,9 +8258,6 @@
         <v>10</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K360" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8190,22 +8266,22 @@
         <v>12</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H361" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>62</v>
@@ -8258,7 +8334,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8273,10 +8349,10 @@
         <v>136</v>
       </c>
       <c r="I365" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="366" s="2" customFormat="1" spans="1:9">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="366" s="2" customFormat="1" spans="1:10">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
@@ -8284,13 +8360,13 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E366" s="21" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
@@ -8299,13 +8375,20 @@
       <c r="I366" s="21" t="s">
         <v>300</v>
       </c>
+      <c r="J366" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="367" s="3" customFormat="1" spans="1:11">
       <c r="A367" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B367" s="9"/>
-      <c r="C367" s="22"/>
+      <c r="B367" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>466</v>
+      </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
       <c r="H367" s="3" t="s">
@@ -8318,10 +8401,10 @@
         <v>148</v>
       </c>
       <c r="K367" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="368" s="4" customFormat="1" spans="1:9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="368" s="4" customFormat="1" spans="1:8">
       <c r="A368" s="4" t="s">
         <v>12</v>
       </c>
@@ -8330,10 +8413,7 @@
       <c r="E368" s="14"/>
       <c r="F368" s="14"/>
       <c r="H368" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I368" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="369" s="5" customFormat="1" spans="1:11">
@@ -8341,13 +8421,13 @@
         <v>21</v>
       </c>
       <c r="B369" s="18" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C369" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D369" s="18" t="s">
-        <v>64</v>
+      <c r="D369" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="E369" s="23" t="s">
         <v>80</v>
@@ -8355,11 +8435,11 @@
       <c r="H369" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I369" s="24" t="s">
+      <c r="I369" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J369" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J369" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="K369" s="31" t="s">
         <v>29</v>

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469">
   <si>
     <t>王国</t>
   </si>
@@ -967,10 +967,145 @@
     <t>转生海妖</t>
   </si>
   <si>
+    <t>脱困兔子</t>
+  </si>
+  <si>
+    <t>弱点金属*2</t>
+  </si>
+  <si>
+    <t>甘霖金属</t>
+  </si>
+  <si>
+    <t>祈祷金属</t>
+  </si>
+  <si>
+    <t>不动化蛇</t>
+  </si>
+  <si>
+    <t>暴击雷兽</t>
+  </si>
+  <si>
+    <t>暗杀雷兽</t>
+  </si>
+  <si>
+    <t>冰甲老头（必须留张先知堕掉）</t>
+  </si>
+  <si>
+    <t>回春天使</t>
+  </si>
+  <si>
+    <t>本源守护天使</t>
+  </si>
+  <si>
+    <t>弱点攻击扫荡者</t>
+  </si>
+  <si>
+    <t>月樱</t>
+  </si>
+  <si>
+    <t>处女座</t>
+  </si>
+  <si>
     <t>圣灵大祭司</t>
   </si>
   <si>
-    <t>处女座</t>
+    <t>复仇巫妖</t>
+  </si>
+  <si>
+    <t>脱困堕落天使</t>
+  </si>
+  <si>
+    <t>甘霖狗头</t>
+  </si>
+  <si>
+    <t>免疫末日</t>
+  </si>
+  <si>
+    <t>不屈圆月魔女</t>
+  </si>
+  <si>
+    <t>欲望惩罚者</t>
+  </si>
+  <si>
+    <t>战争怒吼陨星</t>
+  </si>
+  <si>
+    <t>回魂2兔子</t>
+  </si>
+  <si>
+    <t>战争怒吼时光</t>
+  </si>
+  <si>
+    <t>暴击时光</t>
+  </si>
+  <si>
+    <t>回春8时光</t>
+  </si>
+  <si>
+    <t>战意8时光</t>
+  </si>
+  <si>
+    <t>甘霖9兔子</t>
+  </si>
+  <si>
+    <t>回魂2精灵女王</t>
+  </si>
+  <si>
+    <t>吸血8金属</t>
+  </si>
+  <si>
+    <t>连锁6金属</t>
+  </si>
+  <si>
+    <t>森林之力8梦境</t>
+  </si>
+  <si>
+    <t>死契复活月女</t>
+  </si>
+  <si>
+    <t>冰甲8雷雕</t>
+  </si>
+  <si>
+    <t>吸血8雷雕</t>
+  </si>
+  <si>
+    <t>全法侵：</t>
+  </si>
+  <si>
+    <t>法侵精灵女王</t>
+  </si>
+  <si>
+    <t>脱困时光</t>
+  </si>
+  <si>
+    <t>森林守护时光</t>
+  </si>
+  <si>
+    <t>格挡时光</t>
+  </si>
+  <si>
+    <t>森林之力梦境</t>
+  </si>
+  <si>
+    <t>甘霖梦境</t>
+  </si>
+  <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>脱困圣诞</t>
+  </si>
+  <si>
+    <t>不动恐惧</t>
+  </si>
+  <si>
+    <t>格挡暗夜魔影</t>
+  </si>
+  <si>
+    <t>转生暗夜魔影</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
   </si>
   <si>
     <t>免疫海妖</t>
@@ -985,141 +1120,6 @@
     <t>本源守护7圆月</t>
   </si>
   <si>
-    <t>欲望惩罚者</t>
-  </si>
-  <si>
-    <t>脱困兔子</t>
-  </si>
-  <si>
-    <t>弱点金属*2</t>
-  </si>
-  <si>
-    <t>甘霖金属</t>
-  </si>
-  <si>
-    <t>祈祷金属</t>
-  </si>
-  <si>
-    <t>不动化蛇</t>
-  </si>
-  <si>
-    <t>暴击雷兽</t>
-  </si>
-  <si>
-    <t>暗杀雷兽</t>
-  </si>
-  <si>
-    <t>冰甲老头（必须留张先知堕掉）</t>
-  </si>
-  <si>
-    <t>回春天使</t>
-  </si>
-  <si>
-    <t>本源守护天使</t>
-  </si>
-  <si>
-    <t>弱点攻击扫荡者</t>
-  </si>
-  <si>
-    <t>月樱</t>
-  </si>
-  <si>
-    <t>复仇巫妖</t>
-  </si>
-  <si>
-    <t>脱困堕落天使</t>
-  </si>
-  <si>
-    <t>甘霖狗头</t>
-  </si>
-  <si>
-    <t>免疫末日</t>
-  </si>
-  <si>
-    <t>不屈圆月魔女</t>
-  </si>
-  <si>
-    <t>战争怒吼陨星</t>
-  </si>
-  <si>
-    <t>回魂2兔子</t>
-  </si>
-  <si>
-    <t>战争怒吼时光</t>
-  </si>
-  <si>
-    <t>暴击时光</t>
-  </si>
-  <si>
-    <t>回春8时光</t>
-  </si>
-  <si>
-    <t>战意8时光</t>
-  </si>
-  <si>
-    <t>甘霖9兔子</t>
-  </si>
-  <si>
-    <t>回魂2精灵女王</t>
-  </si>
-  <si>
-    <t>吸血8金属</t>
-  </si>
-  <si>
-    <t>连锁6金属</t>
-  </si>
-  <si>
-    <t>森林之力8梦境</t>
-  </si>
-  <si>
-    <t>死契复活月女</t>
-  </si>
-  <si>
-    <t>冰甲8雷雕</t>
-  </si>
-  <si>
-    <t>吸血8雷雕</t>
-  </si>
-  <si>
-    <t>全法侵：</t>
-  </si>
-  <si>
-    <t>法侵精灵女王</t>
-  </si>
-  <si>
-    <t>脱困时光</t>
-  </si>
-  <si>
-    <t>森林守护时光</t>
-  </si>
-  <si>
-    <t>格挡时光</t>
-  </si>
-  <si>
-    <t>森林之力梦境</t>
-  </si>
-  <si>
-    <t>甘霖梦境</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>脱困圣诞</t>
-  </si>
-  <si>
-    <t>不动恐惧</t>
-  </si>
-  <si>
-    <t>格挡暗夜魔影</t>
-  </si>
-  <si>
-    <t>转生暗夜魔影</t>
-  </si>
-  <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
     <t>3狗头：</t>
   </si>
   <si>
@@ -1129,6 +1129,9 @@
     <t>回魂2女武神</t>
   </si>
   <si>
+    <t>（月樱）</t>
+  </si>
+  <si>
     <t>圣炎圆月</t>
   </si>
   <si>
@@ -1139,6 +1142,9 @@
   </si>
   <si>
     <t>甘霖堕落天使</t>
+  </si>
+  <si>
+    <t>（蛤蟆）</t>
   </si>
   <si>
     <t>邪灵狗头</t>
@@ -1474,9 +1480,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2013,8 +2019,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="J340" sqref="J340"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="K355" sqref="K355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5880,139 +5886,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" s="1" customFormat="1" spans="1:8">
-      <c r="A232" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B232" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C232" s="17"/>
-      <c r="D232" s="16"/>
-      <c r="E232" s="17"/>
-      <c r="F232" s="17"/>
-      <c r="H232" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="233" s="2" customFormat="1" spans="1:11">
-      <c r="A233" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J233" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K233" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="234" s="3" customFormat="1" spans="1:9">
-      <c r="A234" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I234" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="235" s="4" customFormat="1" spans="1:10">
-      <c r="A235" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B235" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C235" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D235" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I235" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J235" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="236" s="5" customFormat="1" spans="1:11">
-      <c r="A236" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E236" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H236" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I236" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J236" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K236" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="237" s="6" customFormat="1" spans="1:4">
-      <c r="A237" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B237" s="8">
-        <v>5</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D237" s="8">
-        <v>6</v>
-      </c>
-    </row>
     <row r="239" s="1" customFormat="1" spans="1:6">
       <c r="A239" s="1" t="s">
         <v>0</v>
@@ -6027,16 +5900,16 @@
         <v>3</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F240" s="21"/>
     </row>
@@ -6045,13 +5918,13 @@
         <v>4</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E241" s="22" t="s">
         <v>277</v>
@@ -6138,23 +6011,23 @@
         <v>0</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="16" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F246" s="16" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H246" s="16" t="s">
         <v>153</v>
       </c>
       <c r="I246" s="16" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J246" s="16"/>
       <c r="K246" s="16"/>
@@ -6181,7 +6054,7 @@
         <v>124</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M247" s="2" t="s">
         <v>72</v>
@@ -6190,10 +6063,10 @@
         <v>124</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="P247" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" s="3" customFormat="1" spans="1:15">
@@ -6201,16 +6074,16 @@
         <v>4</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H248" s="22" t="s">
         <v>148</v>
@@ -6236,7 +6109,7 @@
         <v>12</v>
       </c>
       <c r="B249" s="40" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>243</v>
@@ -6245,20 +6118,20 @@
         <v>32</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F249" s="14"/>
       <c r="H249" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I249" s="14" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="M249" s="14" t="s">
         <v>62</v>
       </c>
       <c r="N249" s="14" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250" s="5" customFormat="1" spans="1:16">
@@ -6333,7 +6206,7 @@
         <v>210</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>35</v>
@@ -6347,10 +6220,10 @@
         <v>3</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D254" s="20" t="s">
         <v>94</v>
@@ -6359,10 +6232,10 @@
         <v>85</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>72</v>
@@ -6448,16 +6321,16 @@
         <v>0</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E260" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F260" s="17"/>
       <c r="H260" s="1" t="s">
@@ -6478,10 +6351,10 @@
         <v>189</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F261" s="21"/>
       <c r="H261" s="2" t="s">
@@ -6493,16 +6366,16 @@
         <v>4</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H262" s="3" t="s">
         <v>10</v>
@@ -6574,7 +6447,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="267" s="1" customFormat="1" spans="1:6">
@@ -6582,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>271</v>
@@ -6600,13 +6473,13 @@
         <v>3</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E268" s="21" t="s">
         <v>272</v>
@@ -6618,10 +6491,10 @@
         <v>4</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D269" s="9"/>
       <c r="H269" s="3" t="s">
@@ -6661,7 +6534,7 @@
         <v>21</v>
       </c>
       <c r="B271" s="38" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C271" s="38" t="s">
         <v>91</v>
@@ -6704,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C274" s="16" t="s">
         <v>254</v>
@@ -6713,7 +6586,7 @@
         <v>210</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F274" s="17" t="s">
         <v>116</v>
@@ -6760,22 +6633,22 @@
         <v>249</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="278" s="5" customFormat="1" spans="1:11">
@@ -6821,12 +6694,146 @@
         <v>8</v>
       </c>
     </row>
+    <row r="287" s="1" customFormat="1" spans="1:9">
+      <c r="A287" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C287" s="17"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="17"/>
+      <c r="F287" s="17"/>
+      <c r="H287" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="288" s="2" customFormat="1" spans="1:11">
+      <c r="A288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="289" s="3" customFormat="1" spans="1:9">
+      <c r="A289" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I289" s="22"/>
+    </row>
+    <row r="290" s="4" customFormat="1" spans="1:10">
+      <c r="A290" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C290" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D290" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H290" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I290" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J290" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="291" s="5" customFormat="1" spans="1:11">
+      <c r="A291" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H291" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I291" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J291" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K291" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="292" s="6" customFormat="1" spans="1:4">
+      <c r="A292" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" s="8">
+        <v>5</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D292" s="8">
+        <v>6</v>
+      </c>
+    </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" spans="1:10">
+    <row r="295" s="1" customFormat="1" spans="1:11">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
@@ -6841,16 +6848,19 @@
       </c>
       <c r="F295" s="17"/>
       <c r="H295" s="16" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="296" s="2" customFormat="1" spans="1:9">
+      <c r="K295" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" spans="1:10">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
@@ -6864,34 +6874,34 @@
       <c r="I296" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="297" s="3" customFormat="1" spans="1:11">
+      <c r="J296" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="297" s="3" customFormat="1" spans="1:10">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K297" s="3" t="s">
-        <v>148</v>
+        <v>359</v>
       </c>
     </row>
     <row r="298" s="4" customFormat="1" spans="1:8">
@@ -6902,16 +6912,16 @@
         <v>177</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" s="5" customFormat="1" spans="1:11">
@@ -6936,8 +6946,8 @@
       <c r="I299" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J299" s="39" t="s">
-        <v>143</v>
+      <c r="J299" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="K299" s="11" t="s">
         <v>23</v>
@@ -6957,7 +6967,7 @@
         <v>7</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="302" s="1" customFormat="1" spans="1:9">
@@ -6965,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F302" s="17"/>
       <c r="H302" s="1" t="s">
@@ -6984,10 +6994,10 @@
         <v>3</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D303" s="20"/>
       <c r="F303" s="20"/>
@@ -6998,7 +7008,7 @@
         <v>124</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="1" spans="1:11">
@@ -7006,13 +7016,13 @@
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D304" s="22" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E304" s="22"/>
       <c r="H304" s="3" t="s">
@@ -7033,25 +7043,25 @@
         <v>12</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="306" s="5" customFormat="1" spans="1:11">
@@ -7098,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C309" s="17"/>
       <c r="D309" s="16"/>
@@ -7122,7 +7132,7 @@
       <c r="D310" s="20"/>
       <c r="F310" s="20"/>
       <c r="H310" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>124</v>
@@ -7133,19 +7143,19 @@
         <v>4</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D311" s="28" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F311" s="28" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G311" s="4"/>
     </row>
@@ -7154,25 +7164,25 @@
         <v>12</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D312" s="40" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H312" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="J312" s="4" t="s">
         <v>61</v>
@@ -7201,7 +7211,7 @@
         <v>28</v>
       </c>
       <c r="J313" s="18" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K313" s="24" t="s">
         <v>27</v>
@@ -7224,16 +7234,16 @@
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -7268,14 +7278,14 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -7297,16 +7307,16 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -7314,7 +7324,7 @@
         <v>62</v>
       </c>
       <c r="I319" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J319" s="4" t="s">
         <v>20</v>
@@ -7374,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7387,7 +7397,7 @@
         <v>136</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -7397,16 +7407,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E324" s="20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7414,7 +7424,7 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
@@ -7426,13 +7436,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
@@ -7451,10 +7461,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7464,7 +7474,7 @@
         <v>62</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="J326" s="4" t="s">
         <v>20</v>
@@ -7524,22 +7534,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F330" s="17" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -7548,10 +7558,10 @@
         <v>136</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -7559,16 +7569,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7579,7 +7589,7 @@
         <v>124</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K331" s="2"/>
     </row>
@@ -7588,16 +7598,16 @@
         <v>4</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7615,7 +7625,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7623,7 +7633,7 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
@@ -7679,7 +7689,7 @@
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" spans="1:21">
@@ -7695,17 +7705,16 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K337" s="1"/>
       <c r="M337" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7720,7 +7729,7 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
@@ -7731,7 +7740,7 @@
         <v>3</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>53</v>
@@ -7740,22 +7749,22 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F338" s="21" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="J338" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K338" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M338" s="2" t="s">
         <v>72</v>
@@ -7772,10 +7781,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D339" s="9"/>
       <c r="H339" s="3" t="s">
@@ -7799,19 +7808,19 @@
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
@@ -7890,7 +7899,7 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" spans="1:9">
@@ -7919,10 +7928,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7933,7 +7942,7 @@
         <v>124</v>
       </c>
       <c r="J345" s="21" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="346" s="3" customFormat="1" spans="1:9">
@@ -7941,13 +7950,13 @@
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -7964,23 +7973,23 @@
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="22" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I347" s="14" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="J347" s="4" t="s">
         <v>20</v>
@@ -8030,23 +8039,23 @@
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
       <c r="E351" s="17"/>
       <c r="F351" s="17"/>
-      <c r="H351" s="16" t="s">
-        <v>2</v>
+      <c r="H351" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="I351" s="16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="M351" s="1" t="s">
         <v>68</v>
@@ -8058,10 +8067,10 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q351" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:14">
@@ -8069,25 +8078,25 @@
         <v>3</v>
       </c>
       <c r="B352" s="44" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="J352" s="2" t="s">
         <v>124</v>
@@ -8096,7 +8105,7 @@
         <v>124</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="353" s="3" customFormat="1" spans="1:8">
@@ -8104,19 +8113,19 @@
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>110</v>
@@ -8127,7 +8136,7 @@
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8136,7 +8145,7 @@
         <v>62</v>
       </c>
       <c r="I354" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="J354" s="14"/>
       <c r="M354" s="4" t="s">
@@ -8163,13 +8172,13 @@
         <v>29</v>
       </c>
       <c r="I355" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J355" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K355" s="11" t="s">
         <v>27</v>
+      </c>
+      <c r="J355" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K355" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="M355" s="11" t="s">
         <v>27</v>
@@ -8215,10 +8224,10 @@
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8229,7 +8238,7 @@
         <v>72</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="360" s="3" customFormat="1" spans="1:10">
@@ -8237,10 +8246,10 @@
         <v>4</v>
       </c>
       <c r="B360" s="22" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8266,22 +8275,22 @@
         <v>12</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H361" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>62</v>
@@ -8334,7 +8343,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8349,7 +8358,7 @@
         <v>136</v>
       </c>
       <c r="I365" s="16" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="366" s="2" customFormat="1" spans="1:10">
@@ -8360,20 +8369,20 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E366" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I366" s="21" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="J366" s="2" t="s">
         <v>124</v>
@@ -8384,10 +8393,10 @@
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -8413,7 +8422,7 @@
       <c r="E368" s="14"/>
       <c r="F368" s="14"/>
       <c r="H368" s="14" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="369" s="5" customFormat="1" spans="1:11">

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYH\Desktop\魔卡幻想\new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="474">
   <si>
     <t>王国</t>
   </si>
@@ -1267,9 +1272,6 @@
     <t>月蚀兽+地狱之力8</t>
   </si>
   <si>
-    <t>死域军神</t>
-  </si>
-  <si>
     <t>星辰主宰+冰甲6</t>
   </si>
   <si>
@@ -1472,19 +1474,37 @@
   </si>
   <si>
     <t>复活陨星</t>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>月樱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处女座</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲望惩罚者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣灵大祭司</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1523,8 +1543,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1605,27 +1632,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1676,15 +1688,23 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1983,6 +2003,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2015,12 +2036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="K355" sqref="K355"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="K314" sqref="K314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2034,7 +2054,7 @@
     <col min="12" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,12 +2065,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
+    <row r="3" spans="1:11" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2076,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:10">
+    <row r="4" spans="1:11" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2105,7 +2125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:11">
+    <row r="5" spans="1:11" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2134,7 +2154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:4">
+    <row r="6" spans="1:11" s="6" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -2148,10 +2168,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:11">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:8">
+    <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:8">
+    <row r="9" spans="1:11" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2185,7 +2205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:11">
+    <row r="10" spans="1:11" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:9">
+    <row r="11" spans="1:11" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2226,7 +2246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:11">
+    <row r="12" spans="1:11" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:4">
+    <row r="13" spans="1:11" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2269,10 +2289,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:11">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
+    <row r="15" spans="1:11" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:2">
+    <row r="16" spans="1:11" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2297,7 +2317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:10">
+    <row r="17" spans="1:11" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:11">
+    <row r="18" spans="1:11" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -2343,7 +2363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:11">
+    <row r="19" spans="1:11" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2372,7 +2392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:4">
+    <row r="20" spans="1:11" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2386,10 +2406,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="2:2">
+    <row r="21" spans="1:11" s="7" customFormat="1">
       <c r="B21" s="19"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
+    <row r="22" spans="1:11" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2426,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:10">
+    <row r="23" spans="1:11" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2426,7 +2446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:9">
+    <row r="24" spans="1:11" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:8">
+    <row r="25" spans="1:11" s="4" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -2463,7 +2483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:11">
+    <row r="26" spans="1:11" s="5" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2492,7 +2512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:4">
+    <row r="27" spans="1:11" s="6" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -2506,10 +2526,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="2:2">
+    <row r="28" spans="1:11" s="7" customFormat="1">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:9">
+    <row r="29" spans="1:11" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +2543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:8">
+    <row r="30" spans="1:11" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2560,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:9">
+    <row r="31" spans="1:11" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2563,7 +2583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:9">
+    <row r="32" spans="1:11" s="4" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2580,7 +2600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" spans="1:11">
+    <row r="33" spans="1:16" s="5" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:4">
+    <row r="34" spans="1:16" s="6" customFormat="1">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -2623,12 +2643,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:1">
+    <row r="35" spans="1:16" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
+    <row r="36" spans="1:16" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:3">
+    <row r="37" spans="1:16" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2670,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:10">
+    <row r="38" spans="1:16" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2670,7 +2690,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1" spans="1:11">
+    <row r="39" spans="1:16" s="4" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2699,7 +2719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:11">
+    <row r="40" spans="1:16" s="6" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
@@ -2728,7 +2748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" s="8" customFormat="1" spans="1:4">
+    <row r="41" spans="1:16" s="8" customFormat="1">
       <c r="A41" s="8" t="s">
         <v>30</v>
       </c>
@@ -2742,10 +2762,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:16">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:13">
+    <row r="43" spans="1:16" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:15">
+    <row r="44" spans="1:16" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2791,7 +2811,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:15">
+    <row r="45" spans="1:16" s="3" customFormat="1">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2823,7 +2843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:14">
+    <row r="46" spans="1:16" s="4" customFormat="1">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" s="5" customFormat="1" spans="1:16">
+    <row r="47" spans="1:16" s="5" customFormat="1">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
@@ -2890,7 +2910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" s="6" customFormat="1" spans="1:4">
+    <row r="48" spans="1:16" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -2904,8 +2924,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1"/>
-    <row r="50" s="1" customFormat="1" spans="1:19">
+    <row r="49" spans="1:22" s="7" customFormat="1"/>
+    <row r="50" spans="1:22" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2934,7 +2954,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:15">
+    <row r="51" spans="1:22" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +2971,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:20">
+    <row r="52" spans="1:22" s="3" customFormat="1">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2991,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" spans="1:22">
+    <row r="53" spans="1:22" s="4" customFormat="1">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" s="5" customFormat="1" spans="1:22">
+    <row r="54" spans="1:22" s="5" customFormat="1">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -3074,7 +3094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" s="6" customFormat="1" spans="1:19">
+    <row r="55" spans="1:22" s="6" customFormat="1">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -3094,12 +3114,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:22">
       <c r="A56" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:11">
+    <row r="57" spans="1:22" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3122,7 +3142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:3">
+    <row r="58" spans="1:22" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -3133,7 +3153,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1" spans="1:8">
+    <row r="59" spans="1:22" s="3" customFormat="1">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3156,7 +3176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" s="4" customFormat="1" spans="1:8">
+    <row r="60" spans="1:22" s="4" customFormat="1">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -3167,7 +3187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="1" spans="1:11">
+    <row r="61" spans="1:22" s="5" customFormat="1">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" s="6" customFormat="1" spans="1:4">
+    <row r="62" spans="1:22" s="6" customFormat="1">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -3210,8 +3230,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1"/>
-    <row r="64" s="1" customFormat="1" spans="1:10">
+    <row r="63" spans="1:22" s="7" customFormat="1"/>
+    <row r="64" spans="1:22" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3234,7 +3254,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:9">
+    <row r="65" spans="1:11" s="2" customFormat="1">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -3251,7 +3271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" s="3" customFormat="1" spans="1:9">
+    <row r="66" spans="1:11" s="3" customFormat="1">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3268,7 +3288,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:8">
+    <row r="67" spans="1:11" s="4" customFormat="1">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -3285,7 +3305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:11">
+    <row r="68" spans="1:11" s="5" customFormat="1">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3314,7 +3334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" s="6" customFormat="1" spans="1:4">
+    <row r="69" spans="1:11" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -3328,10 +3348,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:11">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:9">
+    <row r="71" spans="1:11" s="1" customFormat="1">
       <c r="A71" s="25" t="s">
         <v>0</v>
       </c>
@@ -3348,7 +3368,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:9">
+    <row r="72" spans="1:11" s="2" customFormat="1">
       <c r="A72" s="26" t="s">
         <v>3</v>
       </c>
@@ -3371,7 +3391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" s="3" customFormat="1" spans="1:9">
+    <row r="73" spans="1:11" s="3" customFormat="1">
       <c r="A73" s="27" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:9">
+    <row r="74" spans="1:11" s="4" customFormat="1">
       <c r="A74" s="28" t="s">
         <v>12</v>
       </c>
@@ -3402,7 +3422,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" s="5" customFormat="1" spans="1:11">
+    <row r="75" spans="1:11" s="5" customFormat="1">
       <c r="A75" s="29" t="s">
         <v>21</v>
       </c>
@@ -3431,7 +3451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" spans="1:4">
+    <row r="76" spans="1:11" s="6" customFormat="1">
       <c r="A76" s="30" t="s">
         <v>30</v>
       </c>
@@ -3445,7 +3465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:11">
+    <row r="78" spans="1:11" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3469,7 +3489,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" s="2" customFormat="1" spans="1:9">
+    <row r="79" spans="1:11" s="2" customFormat="1">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1" spans="1:8">
+    <row r="80" spans="1:11" s="3" customFormat="1">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -3506,7 +3526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" s="4" customFormat="1" spans="1:9">
+    <row r="81" spans="1:16" s="4" customFormat="1">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
@@ -3520,7 +3540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" s="5" customFormat="1" spans="1:11">
+    <row r="82" spans="1:16" s="5" customFormat="1">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -3549,7 +3569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" s="6" customFormat="1" spans="1:4">
+    <row r="83" spans="1:16" s="6" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>30</v>
       </c>
@@ -3563,7 +3583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:3">
+    <row r="85" spans="1:16" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3572,7 +3592,7 @@
       </c>
       <c r="C85" s="17"/>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:9">
+    <row r="86" spans="1:16" s="2" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="1" spans="1:11">
+    <row r="87" spans="1:16" s="3" customFormat="1">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" s="4" customFormat="1" spans="1:11">
+    <row r="88" spans="1:16" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" s="5" customFormat="1" spans="1:11">
+    <row r="89" spans="1:16" s="5" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" s="6" customFormat="1" spans="1:4">
+    <row r="90" spans="1:16" s="6" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>30</v>
       </c>
@@ -3687,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" spans="1:16">
+    <row r="92" spans="1:16" s="1" customFormat="1">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" spans="1:14">
+    <row r="93" spans="1:16" s="2" customFormat="1">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" spans="1:14">
+    <row r="94" spans="1:16" s="3" customFormat="1">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3762,7 +3782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" s="4" customFormat="1" spans="1:13">
+    <row r="95" spans="1:16" s="4" customFormat="1">
       <c r="A95" s="4" t="s">
         <v>12</v>
       </c>
@@ -3791,7 +3811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" s="5" customFormat="1" spans="1:16">
+    <row r="96" spans="1:16" s="5" customFormat="1">
       <c r="A96" s="5" t="s">
         <v>21</v>
       </c>
@@ -3832,7 +3852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="1" spans="1:4">
+    <row r="97" spans="1:17" s="6" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>30</v>
       </c>
@@ -3846,7 +3866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="1:11">
+    <row r="99" spans="1:17" s="1" customFormat="1">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:8">
+    <row r="100" spans="1:17" s="2" customFormat="1">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -3883,7 +3903,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" s="3" customFormat="1" spans="1:8">
+    <row r="101" spans="1:17" s="3" customFormat="1">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3897,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" s="4" customFormat="1" spans="1:9">
+    <row r="102" spans="1:17" s="4" customFormat="1">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
@@ -3920,7 +3940,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" s="5" customFormat="1" spans="1:11">
+    <row r="103" spans="1:17" s="5" customFormat="1">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -3949,7 +3969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" s="6" customFormat="1" spans="1:4">
+    <row r="104" spans="1:17" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>30</v>
       </c>
@@ -3963,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" spans="1:4">
+    <row r="106" spans="1:17" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -3977,7 +3997,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" spans="1:14">
+    <row r="107" spans="1:17" s="2" customFormat="1">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +4014,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" s="3" customFormat="1" spans="1:17">
+    <row r="108" spans="1:17" s="3" customFormat="1">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -4022,7 +4042,7 @@
       </c>
       <c r="Q108" s="22"/>
     </row>
-    <row r="109" s="4" customFormat="1" spans="1:17">
+    <row r="109" spans="1:17" s="4" customFormat="1">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -4066,7 +4086,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="1" spans="1:17">
+    <row r="110" spans="1:17" s="5" customFormat="1">
       <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
@@ -4107,7 +4127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" s="6" customFormat="1" spans="1:14">
+    <row r="111" spans="1:17" s="6" customFormat="1">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -4124,7 +4144,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" spans="1:13">
+    <row r="113" spans="1:16" s="1" customFormat="1">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4146,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:5">
+    <row r="114" spans="1:16" s="2" customFormat="1">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -4159,7 +4179,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" s="3" customFormat="1" spans="1:16">
+    <row r="115" spans="1:16" s="3" customFormat="1">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
@@ -4189,7 +4209,7 @@
       </c>
       <c r="P115" s="22"/>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:16">
+    <row r="116" spans="1:16" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
         <v>12</v>
       </c>
@@ -4224,7 +4244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" s="5" customFormat="1" spans="1:16">
+    <row r="117" spans="1:16" s="5" customFormat="1">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -4265,7 +4285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" s="6" customFormat="1" spans="1:4">
+    <row r="118" spans="1:16" s="6" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -4279,12 +4299,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" spans="1:9">
+    <row r="120" spans="1:16" s="1" customFormat="1">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4304,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" spans="1:9">
+    <row r="121" spans="1:16" s="2" customFormat="1">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
@@ -4315,7 +4335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" s="3" customFormat="1" spans="1:9">
+    <row r="122" spans="1:16" s="3" customFormat="1">
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
@@ -4335,7 +4355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:10">
+    <row r="123" spans="1:16" s="4" customFormat="1">
       <c r="A123" s="4" t="s">
         <v>12</v>
       </c>
@@ -4361,7 +4381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" s="5" customFormat="1" spans="1:11">
+    <row r="124" spans="1:16" s="5" customFormat="1">
       <c r="A124" s="5" t="s">
         <v>21</v>
       </c>
@@ -4390,7 +4410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" s="6" customFormat="1" spans="1:4">
+    <row r="125" spans="1:16" s="6" customFormat="1">
       <c r="A125" s="6" t="s">
         <v>30</v>
       </c>
@@ -4404,7 +4424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" spans="1:8">
+    <row r="127" spans="1:16" s="1" customFormat="1">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4444,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:2">
+    <row r="128" spans="1:16" s="2" customFormat="1">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -4432,7 +4452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="129" s="3" customFormat="1" spans="1:11">
+    <row r="129" spans="1:11" s="3" customFormat="1">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +4469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" s="4" customFormat="1" spans="1:11">
+    <row r="130" spans="1:11" s="4" customFormat="1">
       <c r="A130" s="4" t="s">
         <v>12</v>
       </c>
@@ -4478,7 +4498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" s="5" customFormat="1" spans="1:11">
+    <row r="131" spans="1:11" s="5" customFormat="1">
       <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
@@ -4507,7 +4527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" s="6" customFormat="1" spans="1:4">
+    <row r="132" spans="1:11" s="6" customFormat="1">
       <c r="A132" s="6" t="s">
         <v>30</v>
       </c>
@@ -4521,11 +4541,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" s="7" customFormat="1" spans="2:4">
+    <row r="133" spans="1:11" s="7" customFormat="1">
       <c r="B133" s="19"/>
       <c r="D133" s="19"/>
     </row>
-    <row r="134" s="1" customFormat="1" spans="1:10">
+    <row r="134" spans="1:11" s="1" customFormat="1">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4577,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:8">
+    <row r="135" spans="1:11" s="2" customFormat="1">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -4565,7 +4585,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" s="3" customFormat="1" spans="1:10">
+    <row r="136" spans="1:11" s="3" customFormat="1">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
@@ -4591,7 +4611,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" s="4" customFormat="1" spans="1:8">
+    <row r="137" spans="1:11" s="4" customFormat="1">
       <c r="A137" s="4" t="s">
         <v>12</v>
       </c>
@@ -4600,7 +4620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" s="5" customFormat="1" spans="1:11">
+    <row r="138" spans="1:11" s="5" customFormat="1">
       <c r="A138" s="5" t="s">
         <v>21</v>
       </c>
@@ -4629,7 +4649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" s="6" customFormat="1" spans="1:4">
+    <row r="139" spans="1:11" s="6" customFormat="1">
       <c r="A139" s="6" t="s">
         <v>30</v>
       </c>
@@ -4643,7 +4663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" spans="1:9">
+    <row r="141" spans="1:11" s="1" customFormat="1">
       <c r="A141" s="32" t="s">
         <v>0</v>
       </c>
@@ -4669,7 +4689,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" spans="1:10">
+    <row r="142" spans="1:11" s="2" customFormat="1">
       <c r="A142" s="33" t="s">
         <v>3</v>
       </c>
@@ -4698,7 +4718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" s="3" customFormat="1" spans="1:9">
+    <row r="143" spans="1:11" s="3" customFormat="1">
       <c r="A143" s="34" t="s">
         <v>4</v>
       </c>
@@ -4709,7 +4729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" s="4" customFormat="1" spans="1:8">
+    <row r="144" spans="1:11" s="4" customFormat="1">
       <c r="A144" s="35" t="s">
         <v>12</v>
       </c>
@@ -4717,7 +4737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" s="5" customFormat="1" spans="1:11">
+    <row r="145" spans="1:11" s="5" customFormat="1">
       <c r="A145" s="36" t="s">
         <v>21</v>
       </c>
@@ -4746,7 +4766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" s="6" customFormat="1" spans="1:4">
+    <row r="146" spans="1:11" s="6" customFormat="1">
       <c r="A146" s="6" t="s">
         <v>30</v>
       </c>
@@ -4760,7 +4780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" spans="1:10">
+    <row r="148" spans="1:11" s="1" customFormat="1">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -4784,7 +4804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" spans="1:9">
+    <row r="149" spans="1:11" s="2" customFormat="1">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -4801,7 +4821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" s="3" customFormat="1" spans="1:8">
+    <row r="150" spans="1:11" s="3" customFormat="1">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -4818,7 +4838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" s="4" customFormat="1" spans="1:9">
+    <row r="151" spans="1:11" s="4" customFormat="1">
       <c r="A151" s="4" t="s">
         <v>12</v>
       </c>
@@ -4835,7 +4855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" s="5" customFormat="1" spans="1:11">
+    <row r="152" spans="1:11" s="5" customFormat="1">
       <c r="A152" s="5" t="s">
         <v>21</v>
       </c>
@@ -4864,7 +4884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" s="6" customFormat="1" spans="1:4">
+    <row r="153" spans="1:11" s="6" customFormat="1">
       <c r="A153" s="6" t="s">
         <v>30</v>
       </c>
@@ -4878,7 +4898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" spans="1:8">
+    <row r="155" spans="1:11" s="1" customFormat="1">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -4890,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:8">
+    <row r="156" spans="1:11" s="2" customFormat="1">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
@@ -4913,7 +4933,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" s="3" customFormat="1" spans="1:10">
+    <row r="157" spans="1:11" s="3" customFormat="1">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
@@ -4927,7 +4947,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" s="4" customFormat="1" spans="1:10">
+    <row r="158" spans="1:11" s="4" customFormat="1">
       <c r="A158" s="4" t="s">
         <v>12</v>
       </c>
@@ -4956,7 +4976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" s="5" customFormat="1" spans="1:11">
+    <row r="159" spans="1:11" s="5" customFormat="1">
       <c r="A159" s="5" t="s">
         <v>21</v>
       </c>
@@ -4985,7 +5005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" s="6" customFormat="1" spans="1:4">
+    <row r="160" spans="1:11" s="6" customFormat="1">
       <c r="A160" s="6" t="s">
         <v>30</v>
       </c>
@@ -4999,7 +5019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" spans="1:11">
+    <row r="162" spans="1:11" s="1" customFormat="1">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -5031,7 +5051,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:9">
+    <row r="163" spans="1:11" s="2" customFormat="1">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
@@ -5042,7 +5062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" s="3" customFormat="1" spans="1:8">
+    <row r="164" spans="1:11" s="3" customFormat="1">
       <c r="A164" s="3" t="s">
         <v>4</v>
       </c>
@@ -5050,7 +5070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" s="4" customFormat="1" spans="1:8">
+    <row r="165" spans="1:11" s="4" customFormat="1">
       <c r="A165" s="4" t="s">
         <v>12</v>
       </c>
@@ -5073,7 +5093,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" s="5" customFormat="1" spans="1:11">
+    <row r="166" spans="1:11" s="5" customFormat="1">
       <c r="A166" s="5" t="s">
         <v>21</v>
       </c>
@@ -5102,7 +5122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" s="6" customFormat="1" spans="1:4">
+    <row r="167" spans="1:11" s="6" customFormat="1">
       <c r="A167" s="6" t="s">
         <v>30</v>
       </c>
@@ -5116,7 +5136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" spans="1:8">
+    <row r="176" spans="1:11" s="1" customFormat="1">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:9">
+    <row r="177" spans="1:11" s="2" customFormat="1">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
@@ -5150,7 +5170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" s="3" customFormat="1" spans="1:10">
+    <row r="178" spans="1:11" s="3" customFormat="1">
       <c r="A178" s="3" t="s">
         <v>4</v>
       </c>
@@ -5179,7 +5199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" s="4" customFormat="1" spans="1:10">
+    <row r="179" spans="1:11" s="4" customFormat="1">
       <c r="A179" s="4" t="s">
         <v>12</v>
       </c>
@@ -5195,7 +5215,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" s="5" customFormat="1" spans="1:11">
+    <row r="180" spans="1:11" s="5" customFormat="1">
       <c r="A180" s="5" t="s">
         <v>21</v>
       </c>
@@ -5224,7 +5244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" s="6" customFormat="1" spans="1:4">
+    <row r="181" spans="1:11" s="6" customFormat="1">
       <c r="A181" s="6" t="s">
         <v>30</v>
       </c>
@@ -5238,7 +5258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" spans="1:10">
+    <row r="183" spans="1:11" s="1" customFormat="1">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -5265,7 +5285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" spans="1:8">
+    <row r="184" spans="1:11" s="2" customFormat="1">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
@@ -5285,7 +5305,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="185" s="3" customFormat="1" spans="1:8">
+    <row r="185" spans="1:11" s="3" customFormat="1">
       <c r="A185" s="3" t="s">
         <v>4</v>
       </c>
@@ -5299,7 +5319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" s="4" customFormat="1" spans="1:9">
+    <row r="186" spans="1:11" s="4" customFormat="1">
       <c r="A186" s="4" t="s">
         <v>12</v>
       </c>
@@ -5312,7 +5332,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" s="5" customFormat="1" spans="1:11">
+    <row r="187" spans="1:11" s="5" customFormat="1">
       <c r="A187" s="5" t="s">
         <v>21</v>
       </c>
@@ -5341,7 +5361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" s="6" customFormat="1" spans="1:4">
+    <row r="188" spans="1:11" s="6" customFormat="1">
       <c r="A188" s="6" t="s">
         <v>30</v>
       </c>
@@ -5355,7 +5375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" spans="1:8">
+    <row r="190" spans="1:11" s="1" customFormat="1">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -5368,7 +5388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" spans="1:8">
+    <row r="191" spans="1:11" s="2" customFormat="1">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
@@ -5391,7 +5411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" s="3" customFormat="1" spans="1:10">
+    <row r="192" spans="1:11" s="3" customFormat="1">
       <c r="A192" s="3" t="s">
         <v>4</v>
       </c>
@@ -5420,7 +5440,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="193" s="4" customFormat="1" spans="1:10">
+    <row r="193" spans="1:18" s="4" customFormat="1">
       <c r="A193" s="4" t="s">
         <v>12</v>
       </c>
@@ -5436,7 +5456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="194" s="5" customFormat="1" spans="1:11">
+    <row r="194" spans="1:18" s="5" customFormat="1">
       <c r="A194" s="5" t="s">
         <v>21</v>
       </c>
@@ -5465,7 +5485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" s="6" customFormat="1" spans="1:4">
+    <row r="195" spans="1:18" s="6" customFormat="1">
       <c r="A195" s="6" t="s">
         <v>30</v>
       </c>
@@ -5479,7 +5499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" s="1" customFormat="1" spans="1:15">
+    <row r="197" spans="1:18" s="1" customFormat="1">
       <c r="A197" s="32" t="s">
         <v>0</v>
       </c>
@@ -5518,7 +5538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" spans="1:8">
+    <row r="198" spans="1:18" s="2" customFormat="1">
       <c r="A198" s="33" t="s">
         <v>3</v>
       </c>
@@ -5538,7 +5558,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="199" s="3" customFormat="1" spans="1:18">
+    <row r="199" spans="1:18" s="3" customFormat="1">
       <c r="A199" s="34" t="s">
         <v>4</v>
       </c>
@@ -5565,7 +5585,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="200" s="4" customFormat="1" spans="1:18">
+    <row r="200" spans="1:18" s="4" customFormat="1">
       <c r="A200" s="35" t="s">
         <v>12</v>
       </c>
@@ -5587,7 +5607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" s="5" customFormat="1" spans="1:18">
+    <row r="201" spans="1:18" s="5" customFormat="1">
       <c r="A201" s="36" t="s">
         <v>21</v>
       </c>
@@ -5628,7 +5648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" s="6" customFormat="1" spans="1:4">
+    <row r="202" spans="1:18" s="6" customFormat="1">
       <c r="A202" s="6" t="s">
         <v>30</v>
       </c>
@@ -5642,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" s="1" customFormat="1" spans="1:6">
+    <row r="211" spans="1:11" s="1" customFormat="1">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
@@ -5657,7 +5677,7 @@
       </c>
       <c r="F211" s="17"/>
     </row>
-    <row r="212" s="2" customFormat="1" spans="1:6">
+    <row r="212" spans="1:11" s="2" customFormat="1">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -5675,7 +5695,7 @@
       </c>
       <c r="F212" s="21"/>
     </row>
-    <row r="213" s="3" customFormat="1" spans="1:10">
+    <row r="213" spans="1:11" s="3" customFormat="1">
       <c r="A213" s="3" t="s">
         <v>4</v>
       </c>
@@ -5698,7 +5718,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="214" s="4" customFormat="1" spans="1:11">
+    <row r="214" spans="1:11" s="4" customFormat="1">
       <c r="A214" s="4" t="s">
         <v>12</v>
       </c>
@@ -5720,7 +5740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" s="5" customFormat="1" spans="1:11">
+    <row r="215" spans="1:11" s="5" customFormat="1">
       <c r="A215" s="5" t="s">
         <v>21</v>
       </c>
@@ -5749,7 +5769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" s="6" customFormat="1" spans="1:4">
+    <row r="216" spans="1:11" s="6" customFormat="1">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -5763,7 +5783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" s="1" customFormat="1" spans="1:8">
+    <row r="218" spans="1:11" s="1" customFormat="1">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -5779,7 +5799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" spans="1:8">
+    <row r="219" spans="1:11" s="2" customFormat="1">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
@@ -5795,7 +5815,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" s="3" customFormat="1" spans="1:10">
+    <row r="220" spans="1:11" s="3" customFormat="1">
       <c r="A220" s="3" t="s">
         <v>4</v>
       </c>
@@ -5821,7 +5841,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" s="4" customFormat="1" spans="1:10">
+    <row r="221" spans="1:11" s="4" customFormat="1">
       <c r="A221" s="4" t="s">
         <v>12</v>
       </c>
@@ -5843,7 +5863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" s="5" customFormat="1" spans="1:11">
+    <row r="222" spans="1:11" s="5" customFormat="1">
       <c r="A222" s="5" t="s">
         <v>21</v>
       </c>
@@ -5872,7 +5892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" s="6" customFormat="1" spans="1:4">
+    <row r="223" spans="1:11" s="6" customFormat="1">
       <c r="A223" s="6" t="s">
         <v>30</v>
       </c>
@@ -5886,7 +5906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" s="1" customFormat="1" spans="1:6">
+    <row r="239" spans="1:6" s="1" customFormat="1">
       <c r="A239" s="1" t="s">
         <v>0</v>
       </c>
@@ -5895,7 +5915,7 @@
       <c r="D239" s="17"/>
       <c r="F239" s="16"/>
     </row>
-    <row r="240" s="2" customFormat="1" spans="1:6">
+    <row r="240" spans="1:6" s="2" customFormat="1">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
@@ -5913,7 +5933,7 @@
       </c>
       <c r="F240" s="21"/>
     </row>
-    <row r="241" s="3" customFormat="1" spans="1:10">
+    <row r="241" spans="1:16" s="3" customFormat="1">
       <c r="A241" s="3" t="s">
         <v>4</v>
       </c>
@@ -5942,7 +5962,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="242" s="4" customFormat="1" spans="1:11">
+    <row r="242" spans="1:16" s="4" customFormat="1">
       <c r="A242" s="4" t="s">
         <v>12</v>
       </c>
@@ -5963,7 +5983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" s="5" customFormat="1" spans="1:11">
+    <row r="243" spans="1:16" s="5" customFormat="1">
       <c r="A243" s="5" t="s">
         <v>21</v>
       </c>
@@ -5992,7 +6012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" s="6" customFormat="1" spans="1:4">
+    <row r="244" spans="1:16" s="6" customFormat="1">
       <c r="A244" s="6" t="s">
         <v>30</v>
       </c>
@@ -6006,7 +6026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" spans="1:16">
+    <row r="246" spans="1:16" s="1" customFormat="1">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
@@ -6038,7 +6058,7 @@
       <c r="O246" s="16"/>
       <c r="P246" s="16"/>
     </row>
-    <row r="247" s="2" customFormat="1" spans="1:16">
+    <row r="247" spans="1:16" s="2" customFormat="1">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
@@ -6069,7 +6089,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="248" s="3" customFormat="1" spans="1:15">
+    <row r="248" spans="1:16" s="3" customFormat="1">
       <c r="A248" s="3" t="s">
         <v>4</v>
       </c>
@@ -6104,7 +6124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" s="4" customFormat="1" spans="1:14">
+    <row r="249" spans="1:16" s="4" customFormat="1">
       <c r="A249" s="4" t="s">
         <v>12</v>
       </c>
@@ -6134,7 +6154,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="250" s="5" customFormat="1" spans="1:16">
+    <row r="250" spans="1:16" s="5" customFormat="1">
       <c r="A250" s="5" t="s">
         <v>21</v>
       </c>
@@ -6175,7 +6195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" s="6" customFormat="1" spans="1:4">
+    <row r="251" spans="1:16" s="6" customFormat="1">
       <c r="A251" s="6" t="s">
         <v>30</v>
       </c>
@@ -6189,7 +6209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" s="1" customFormat="1" spans="1:9">
+    <row r="253" spans="1:16" s="1" customFormat="1">
       <c r="A253" s="1" t="s">
         <v>0</v>
       </c>
@@ -6215,7 +6235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" s="2" customFormat="1" spans="1:8">
+    <row r="254" spans="1:16" s="2" customFormat="1">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
@@ -6241,7 +6261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="255" s="3" customFormat="1" spans="1:11">
+    <row r="255" spans="1:16" s="3" customFormat="1">
       <c r="A255" s="3" t="s">
         <v>4</v>
       </c>
@@ -6262,7 +6282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" s="4" customFormat="1" spans="1:9">
+    <row r="256" spans="1:16" s="4" customFormat="1">
       <c r="A256" s="4" t="s">
         <v>12</v>
       </c>
@@ -6277,7 +6297,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:11">
+    <row r="257" spans="1:11" s="5" customFormat="1">
       <c r="A257" s="5" t="s">
         <v>21</v>
       </c>
@@ -6306,7 +6326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" s="6" customFormat="1" spans="1:4">
+    <row r="258" spans="1:11" s="6" customFormat="1">
       <c r="A258" s="6" t="s">
         <v>30</v>
       </c>
@@ -6316,7 +6336,7 @@
       </c>
       <c r="D258" s="8"/>
     </row>
-    <row r="260" s="1" customFormat="1" spans="1:9">
+    <row r="260" spans="1:11" s="1" customFormat="1">
       <c r="A260" s="1" t="s">
         <v>0</v>
       </c>
@@ -6340,7 +6360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="1" spans="1:8">
+    <row r="261" spans="1:11" s="2" customFormat="1">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
@@ -6361,7 +6381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="262" s="3" customFormat="1" spans="1:11">
+    <row r="262" spans="1:11" s="3" customFormat="1">
       <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
@@ -6390,7 +6410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" s="4" customFormat="1" spans="1:9">
+    <row r="263" spans="1:11" s="4" customFormat="1">
       <c r="A263" s="4" t="s">
         <v>12</v>
       </c>
@@ -6406,7 +6426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:11">
+    <row r="264" spans="1:11" s="5" customFormat="1">
       <c r="A264" s="5" t="s">
         <v>21</v>
       </c>
@@ -6435,7 +6455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" s="6" customFormat="1" spans="1:4">
+    <row r="265" spans="1:11" s="6" customFormat="1">
       <c r="A265" s="6" t="s">
         <v>30</v>
       </c>
@@ -6445,12 +6465,12 @@
       </c>
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:11">
       <c r="A266" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="267" s="1" customFormat="1" spans="1:6">
+    <row r="267" spans="1:11" s="1" customFormat="1">
       <c r="A267" s="1" t="s">
         <v>0</v>
       </c>
@@ -6468,7 +6488,7 @@
       </c>
       <c r="F267" s="17"/>
     </row>
-    <row r="268" s="2" customFormat="1" spans="1:6">
+    <row r="268" spans="1:11" s="2" customFormat="1">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
@@ -6486,7 +6506,7 @@
       </c>
       <c r="F268" s="21"/>
     </row>
-    <row r="269" s="3" customFormat="1" spans="1:10">
+    <row r="269" spans="1:11" s="3" customFormat="1">
       <c r="A269" s="3" t="s">
         <v>4</v>
       </c>
@@ -6507,7 +6527,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="270" s="4" customFormat="1" spans="1:11">
+    <row r="270" spans="1:11" s="4" customFormat="1">
       <c r="A270" s="4" t="s">
         <v>12</v>
       </c>
@@ -6529,7 +6549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" spans="1:11">
+    <row r="271" spans="1:11" s="5" customFormat="1">
       <c r="A271" s="5" t="s">
         <v>21</v>
       </c>
@@ -6558,7 +6578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" s="6" customFormat="1" spans="1:4">
+    <row r="272" spans="1:11" s="6" customFormat="1">
       <c r="A272" s="6" t="s">
         <v>30</v>
       </c>
@@ -6572,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" s="1" customFormat="1" spans="1:10">
+    <row r="274" spans="1:11" s="1" customFormat="1">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
@@ -6601,7 +6621,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="1" spans="1:9">
+    <row r="275" spans="1:11" s="2" customFormat="1">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -6616,7 +6636,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="276" s="3" customFormat="1" spans="1:5">
+    <row r="276" spans="1:11" s="3" customFormat="1">
       <c r="A276" s="3" t="s">
         <v>4</v>
       </c>
@@ -6625,7 +6645,7 @@
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" s="4" customFormat="1" spans="1:9">
+    <row r="277" spans="1:11" s="4" customFormat="1">
       <c r="A277" s="4" t="s">
         <v>12</v>
       </c>
@@ -6651,7 +6671,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="278" s="5" customFormat="1" spans="1:11">
+    <row r="278" spans="1:11" s="5" customFormat="1">
       <c r="A278" s="5" t="s">
         <v>21</v>
       </c>
@@ -6680,7 +6700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" s="6" customFormat="1" spans="1:4">
+    <row r="279" spans="1:11" s="6" customFormat="1">
       <c r="A279" s="6" t="s">
         <v>30</v>
       </c>
@@ -6694,7 +6714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" spans="1:9">
+    <row r="287" spans="1:11" s="1" customFormat="1">
       <c r="A287" s="1" t="s">
         <v>0</v>
       </c>
@@ -6712,7 +6732,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" s="2" customFormat="1" spans="1:11">
+    <row r="288" spans="1:11" s="2" customFormat="1">
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
@@ -6735,7 +6755,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="289" s="3" customFormat="1" spans="1:9">
+    <row r="289" spans="1:11" s="3" customFormat="1">
       <c r="A289" s="3" t="s">
         <v>4</v>
       </c>
@@ -6759,7 +6779,7 @@
       </c>
       <c r="I289" s="22"/>
     </row>
-    <row r="290" s="4" customFormat="1" spans="1:10">
+    <row r="290" spans="1:11" s="4" customFormat="1">
       <c r="A290" s="4" t="s">
         <v>12</v>
       </c>
@@ -6785,7 +6805,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="291" s="5" customFormat="1" spans="1:11">
+    <row r="291" spans="1:11" s="5" customFormat="1">
       <c r="A291" s="5" t="s">
         <v>21</v>
       </c>
@@ -6804,8 +6824,8 @@
       <c r="H291" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I291" s="23" t="s">
-        <v>80</v>
+      <c r="I291" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="J291" s="11" t="s">
         <v>27</v>
@@ -6814,7 +6834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" s="6" customFormat="1" spans="1:4">
+    <row r="292" spans="1:11" s="6" customFormat="1">
       <c r="A292" s="6" t="s">
         <v>30</v>
       </c>
@@ -6828,12 +6848,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" spans="1:11">
+    <row r="295" spans="1:11" s="1" customFormat="1">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
@@ -6860,7 +6880,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="296" s="2" customFormat="1" spans="1:10">
+    <row r="296" spans="1:11" s="2" customFormat="1">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
@@ -6878,7 +6898,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="297" s="3" customFormat="1" spans="1:10">
+    <row r="297" spans="1:11" s="3" customFormat="1">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
@@ -6904,7 +6924,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="298" s="4" customFormat="1" spans="1:8">
+    <row r="298" spans="1:11" s="4" customFormat="1">
       <c r="A298" s="4" t="s">
         <v>12</v>
       </c>
@@ -6924,7 +6944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:11">
+    <row r="299" spans="1:11" s="5" customFormat="1">
       <c r="A299" s="5" t="s">
         <v>21</v>
       </c>
@@ -6953,7 +6973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" s="6" customFormat="1" spans="1:8">
+    <row r="300" spans="1:11" s="6" customFormat="1">
       <c r="A300" s="6" t="s">
         <v>30</v>
       </c>
@@ -6970,7 +6990,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="302" s="1" customFormat="1" spans="1:9">
+    <row r="302" spans="1:11" s="1" customFormat="1">
       <c r="A302" s="1" t="s">
         <v>0</v>
       </c>
@@ -6989,7 +7009,7 @@
       </c>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" s="2" customFormat="1" spans="1:10">
+    <row r="303" spans="1:11" s="2" customFormat="1">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
@@ -7011,7 +7031,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" s="3" customFormat="1" spans="1:11">
+    <row r="304" spans="1:11" s="3" customFormat="1">
       <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
@@ -7038,7 +7058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" s="4" customFormat="1" spans="1:9">
+    <row r="305" spans="1:11" s="4" customFormat="1">
       <c r="A305" s="4" t="s">
         <v>12</v>
       </c>
@@ -7064,7 +7084,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:11">
+    <row r="306" spans="1:11" s="5" customFormat="1">
       <c r="A306" s="5" t="s">
         <v>21</v>
       </c>
@@ -7093,7 +7113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="307" s="6" customFormat="1" spans="1:4">
+    <row r="307" spans="1:11" s="6" customFormat="1">
       <c r="A307" s="6" t="s">
         <v>30</v>
       </c>
@@ -7103,7 +7123,7 @@
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="309" s="1" customFormat="1" spans="1:10">
+    <row r="309" spans="1:11" s="1" customFormat="1">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
@@ -7123,7 +7143,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="310" s="2" customFormat="1" spans="1:9">
+    <row r="310" spans="1:11" s="2" customFormat="1">
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
@@ -7138,7 +7158,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="311" s="3" customFormat="1" spans="1:7">
+    <row r="311" spans="1:11" s="3" customFormat="1">
       <c r="A311" s="3" t="s">
         <v>4</v>
       </c>
@@ -7159,7 +7179,7 @@
       </c>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" s="4" customFormat="1" spans="1:10">
+    <row r="312" spans="1:11" s="4" customFormat="1">
       <c r="A312" s="4" t="s">
         <v>12</v>
       </c>
@@ -7188,7 +7208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" spans="1:11">
+    <row r="313" spans="1:11" s="5" customFormat="1">
       <c r="A313" s="5" t="s">
         <v>21</v>
       </c>
@@ -7217,7 +7237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" spans="1:4">
+    <row r="314" spans="1:11" s="6" customFormat="1">
       <c r="A314" s="6" t="s">
         <v>30</v>
       </c>
@@ -7253,7 +7273,9 @@
       <c r="I316" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J316" s="1"/>
+      <c r="J316" s="46" t="s">
+        <v>469</v>
+      </c>
       <c r="K316" s="1"/>
     </row>
     <row r="317" spans="1:11">
@@ -7269,8 +7291,12 @@
       <c r="H317" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I317" s="2"/>
-      <c r="J317" s="2"/>
+      <c r="I317" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="J317" s="48" t="s">
+        <v>473</v>
+      </c>
       <c r="K317" s="2"/>
     </row>
     <row r="318" spans="1:11">
@@ -7298,9 +7324,7 @@
       <c r="J318" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K318" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="K318" s="3"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="4" t="s">
@@ -7320,15 +7344,11 @@
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
-      <c r="H319" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I319" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J319" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H319" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="I319" s="4"/>
+      <c r="J319" s="4"/>
       <c r="K319" s="4"/>
     </row>
     <row r="320" spans="1:11">
@@ -7353,13 +7373,13 @@
         <v>29</v>
       </c>
       <c r="I320" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J320" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K320" s="12" t="s">
-        <v>26</v>
+      <c r="J320" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K320" s="38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -7384,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="C323" s="17" t="s">
         <v>401</v>
-      </c>
-      <c r="C323" s="17" t="s">
-        <v>402</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7397,7 +7417,7 @@
         <v>136</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -7407,16 +7427,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="C324" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="C324" s="21" t="s">
+      <c r="D324" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="D324" s="21" t="s">
+      <c r="E324" s="20" t="s">
         <v>406</v>
-      </c>
-      <c r="E324" s="20" t="s">
-        <v>407</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7424,35 +7444,35 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K324" s="2"/>
+      <c r="K324" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C325" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C325" s="20" t="s">
+      <c r="D325" s="21" t="s">
         <v>410</v>
-      </c>
-      <c r="D325" s="21" t="s">
-        <v>411</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I325" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="I325" s="3"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
     </row>
@@ -7461,10 +7481,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C326" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>413</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7508,8 +7528,8 @@
       <c r="J327" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K327" s="12" t="s">
-        <v>26</v>
+      <c r="K327" s="38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -7534,22 +7554,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="C330" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C330" s="16" t="s">
+      <c r="D330" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E330" s="1" t="s">
+      <c r="F330" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="F330" s="17" t="s">
-        <v>418</v>
-      </c>
       <c r="G330" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -7558,7 +7578,7 @@
         <v>136</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K330" s="1" t="s">
         <v>311</v>
@@ -7569,16 +7589,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C331" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="C331" s="20" t="s">
+      <c r="D331" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="D331" s="21" t="s">
+      <c r="E331" s="20" t="s">
         <v>421</v>
-      </c>
-      <c r="E331" s="20" t="s">
-        <v>422</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7601,13 +7621,13 @@
         <v>379</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D332" s="22" t="s">
         <v>370</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7625,7 +7645,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7687,12 +7707,12 @@
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:11">
       <c r="A336" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="337" s="1" customFormat="1" spans="1:21">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" s="1" customFormat="1">
       <c r="A337" s="1" t="s">
         <v>0</v>
       </c>
@@ -7705,7 +7725,7 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -7714,7 +7734,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7729,13 +7749,13 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="338" s="2" customFormat="1" spans="1:19">
+    <row r="338" spans="1:21" s="2" customFormat="1">
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
@@ -7749,7 +7769,7 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F338" s="21" t="s">
         <v>300</v>
@@ -7776,15 +7796,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="339" s="3" customFormat="1" spans="1:18">
+    <row r="339" spans="1:21" s="3" customFormat="1">
       <c r="A339" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C339" s="21" t="s">
         <v>429</v>
-      </c>
-      <c r="C339" s="21" t="s">
-        <v>430</v>
       </c>
       <c r="D339" s="9"/>
       <c r="H339" s="3" t="s">
@@ -7803,24 +7823,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" s="4" customFormat="1" spans="1:14">
+    <row r="340" spans="1:21" s="4" customFormat="1">
       <c r="A340" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>357</v>
       </c>
       <c r="D340" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E340" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="E340" s="14" t="s">
+      <c r="F340" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="F340" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
@@ -7832,7 +7852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="341" s="5" customFormat="1" spans="1:21">
+    <row r="341" spans="1:21" s="5" customFormat="1">
       <c r="A341" s="5" t="s">
         <v>21</v>
       </c>
@@ -7885,7 +7905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" s="6" customFormat="1" spans="1:8">
+    <row r="342" spans="1:21" s="6" customFormat="1">
       <c r="A342" s="6" t="s">
         <v>30</v>
       </c>
@@ -7899,10 +7919,10 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="344" s="1" customFormat="1" spans="1:9">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" s="1" customFormat="1">
       <c r="A344" s="32" t="s">
         <v>0</v>
       </c>
@@ -7920,7 +7940,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="345" s="2" customFormat="1" spans="1:10">
+    <row r="345" spans="1:21" s="2" customFormat="1">
       <c r="A345" s="33" t="s">
         <v>3</v>
       </c>
@@ -7928,10 +7948,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D345" s="21" t="s">
         <v>436</v>
-      </c>
-      <c r="D345" s="21" t="s">
-        <v>437</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7945,18 +7965,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="346" s="3" customFormat="1" spans="1:9">
+    <row r="346" spans="1:21" s="3" customFormat="1">
       <c r="A346" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C346" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="C346" s="22" t="s">
+      <c r="D346" s="22" t="s">
         <v>439</v>
-      </c>
-      <c r="D346" s="22" t="s">
-        <v>440</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -7968,21 +7988,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" s="4" customFormat="1" spans="1:10">
+    <row r="347" spans="1:21" s="4" customFormat="1">
       <c r="A347" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E347" s="22" t="s">
         <v>442</v>
-      </c>
-      <c r="E347" s="22" t="s">
-        <v>443</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
@@ -7995,7 +8015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" s="5" customFormat="1" spans="1:11">
+    <row r="348" spans="1:21" s="5" customFormat="1">
       <c r="A348" s="36" t="s">
         <v>21</v>
       </c>
@@ -8024,7 +8044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="349" s="6" customFormat="1" spans="1:4">
+    <row r="349" spans="1:21" s="6" customFormat="1">
       <c r="A349" s="6" t="s">
         <v>30</v>
       </c>
@@ -8034,12 +8054,12 @@
       </c>
       <c r="D349" s="8"/>
     </row>
-    <row r="351" s="1" customFormat="1" spans="1:17">
+    <row r="351" spans="1:21" s="1" customFormat="1">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8049,10 +8069,10 @@
         <v>153</v>
       </c>
       <c r="I351" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>311</v>
@@ -8067,30 +8087,30 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q351" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="Q351" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="352" s="2" customFormat="1" spans="1:14">
+    </row>
+    <row r="352" spans="1:21" s="2" customFormat="1">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B352" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="C352" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="C352" s="20" t="s">
+      <c r="D352" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="D352" s="20" t="s">
-        <v>450</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
@@ -8108,35 +8128,35 @@
         <v>313</v>
       </c>
     </row>
-    <row r="353" s="3" customFormat="1" spans="1:8">
+    <row r="353" spans="1:16" s="3" customFormat="1">
       <c r="A353" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="E353" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="E353" s="22" t="s">
+      <c r="F353" s="22" t="s">
         <v>454</v>
-      </c>
-      <c r="F353" s="22" t="s">
-        <v>455</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="354" s="4" customFormat="1" spans="1:13">
+    <row r="354" spans="1:16" s="4" customFormat="1">
       <c r="A354" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8152,7 +8172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="355" s="5" customFormat="1" spans="1:16">
+    <row r="355" spans="1:16" s="5" customFormat="1">
       <c r="A355" s="5" t="s">
         <v>21</v>
       </c>
@@ -8193,7 +8213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" s="6" customFormat="1" spans="1:4">
+    <row r="356" spans="1:16" s="6" customFormat="1">
       <c r="A356" s="6" t="s">
         <v>30</v>
       </c>
@@ -8203,7 +8223,7 @@
       </c>
       <c r="D356" s="8"/>
     </row>
-    <row r="358" s="1" customFormat="1" spans="1:9">
+    <row r="358" spans="1:16" s="1" customFormat="1">
       <c r="A358" s="1" t="s">
         <v>0</v>
       </c>
@@ -8219,15 +8239,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="359" s="2" customFormat="1" spans="1:10">
+    <row r="359" spans="1:16" s="2" customFormat="1">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C359" s="42" t="s">
         <v>457</v>
-      </c>
-      <c r="C359" s="42" t="s">
-        <v>458</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8241,7 +8261,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="360" s="3" customFormat="1" spans="1:10">
+    <row r="360" spans="1:16" s="3" customFormat="1">
       <c r="A360" s="3" t="s">
         <v>4</v>
       </c>
@@ -8249,7 +8269,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8270,7 +8290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" s="4" customFormat="1" spans="1:9">
+    <row r="361" spans="1:16" s="4" customFormat="1">
       <c r="A361" s="4" t="s">
         <v>12</v>
       </c>
@@ -8278,16 +8298,16 @@
         <v>361</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F361" s="14" t="s">
         <v>461</v>
-      </c>
-      <c r="F361" s="14" t="s">
-        <v>462</v>
       </c>
       <c r="H361" s="4" t="s">
         <v>319</v>
@@ -8296,7 +8316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="362" s="5" customFormat="1" spans="1:11">
+    <row r="362" spans="1:16" s="5" customFormat="1">
       <c r="A362" s="5" t="s">
         <v>21</v>
       </c>
@@ -8325,7 +8345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" s="6" customFormat="1" spans="1:4">
+    <row r="363" spans="1:16" s="6" customFormat="1">
       <c r="A363" s="6" t="s">
         <v>30</v>
       </c>
@@ -8335,7 +8355,7 @@
       </c>
       <c r="D363" s="8"/>
     </row>
-    <row r="365" s="1" customFormat="1" spans="1:9">
+    <row r="365" spans="1:16" s="1" customFormat="1">
       <c r="A365" s="1" t="s">
         <v>0</v>
       </c>
@@ -8343,7 +8363,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8361,7 +8381,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="366" s="2" customFormat="1" spans="1:10">
+    <row r="366" spans="1:16" s="2" customFormat="1">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
@@ -8369,13 +8389,13 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D366" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D366" s="21" t="s">
+      <c r="E366" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="E366" s="21" t="s">
-        <v>466</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
@@ -8388,15 +8408,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="367" s="3" customFormat="1" spans="1:11">
+    <row r="367" spans="1:16" s="3" customFormat="1">
       <c r="A367" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C367" s="16" t="s">
         <v>467</v>
-      </c>
-      <c r="C367" s="16" t="s">
-        <v>468</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -8413,7 +8433,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="368" s="4" customFormat="1" spans="1:8">
+    <row r="368" spans="1:16" s="4" customFormat="1">
       <c r="A368" s="4" t="s">
         <v>12</v>
       </c>
@@ -8425,7 +8445,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="369" s="5" customFormat="1" spans="1:11">
+    <row r="369" spans="1:11" s="5" customFormat="1">
       <c r="A369" s="5" t="s">
         <v>21</v>
       </c>
@@ -8454,7 +8474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" s="6" customFormat="1" spans="1:4">
+    <row r="370" spans="1:11" s="6" customFormat="1">
       <c r="A370" s="6" t="s">
         <v>30</v>
       </c>
@@ -8469,8 +8489,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="480">
   <si>
     <t>王国</t>
   </si>
@@ -1499,12 +1499,48 @@
     <t>圣灵大祭司</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>月樱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣灵大祭司</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>月樱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>处女座</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>月蚀兽*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1550,6 +1586,14 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1637,7 +1681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1691,6 +1735,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2039,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="K314" sqref="K314"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="J331" sqref="J331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7578,11 +7623,9 @@
         <v>136</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K330" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="K330" s="1"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="2" t="s">
@@ -7608,8 +7651,8 @@
       <c r="I331" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>313</v>
+      <c r="J331" s="48" t="s">
+        <v>478</v>
       </c>
       <c r="K331" s="2"/>
     </row>
@@ -7632,11 +7675,9 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I332" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I332" s="3"/>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
     </row>
@@ -7655,7 +7696,9 @@
       <c r="H333" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I333" s="4"/>
+      <c r="I333" s="47" t="s">
+        <v>479</v>
+      </c>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
     </row>
@@ -7680,8 +7723,8 @@
       <c r="H334" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I334" s="18" t="s">
-        <v>63</v>
+      <c r="I334" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="J334" s="24" t="s">
         <v>27</v>
@@ -7933,11 +7976,11 @@
       <c r="D344" s="17"/>
       <c r="E344" s="16"/>
       <c r="F344" s="17"/>
-      <c r="H344" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I344" s="16" t="s">
-        <v>136</v>
+      <c r="H344" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="I344" s="46" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="345" spans="1:21" s="2" customFormat="1">
@@ -7998,10 +8041,10 @@
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D347" s="22" t="s">
+      <c r="D347" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="E347" s="22" t="s">
+      <c r="E347" s="49" t="s">
         <v>442</v>
       </c>
       <c r="F347" s="14"/>
@@ -8236,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>136</v>
+        <v>474</v>
       </c>
     </row>
     <row r="359" spans="1:16" s="2" customFormat="1">
@@ -8260,6 +8303,9 @@
       <c r="J359" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="K359" s="2" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="360" spans="1:16" s="3" customFormat="1">
       <c r="A360" s="3" t="s">
@@ -8312,9 +8358,6 @@
       <c r="H361" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I361" s="4" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="362" spans="1:16" s="5" customFormat="1">
       <c r="A362" s="5" t="s">
@@ -8336,13 +8379,13 @@
         <v>29</v>
       </c>
       <c r="I362" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J362" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K362" s="12" t="s">
-        <v>26</v>
+      <c r="J362" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K362" s="38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="363" spans="1:16" s="6" customFormat="1">

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYH\Desktop\魔卡幻想\new\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12180"/>
+    <workbookView windowWidth="25080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468">
   <si>
     <t>王国</t>
   </si>
@@ -1278,9 +1273,6 @@
     <t>战场扫荡者+弱点攻击</t>
   </si>
   <si>
-    <t>机神</t>
-  </si>
-  <si>
     <t>时光女神+战争怒吼</t>
   </si>
   <si>
@@ -1347,180 +1339,13 @@
     <t>圆月魔女+魔甲4</t>
   </si>
   <si>
-    <t>3堕落天使：</t>
-  </si>
-  <si>
-    <t>陨星*2</t>
-  </si>
-  <si>
-    <t>不动兔子</t>
-  </si>
-  <si>
-    <t>不动黄金金属巨龙</t>
-  </si>
-  <si>
-    <t>弱点黄金金属巨龙</t>
-  </si>
-  <si>
-    <t>回魂2堕落天使</t>
-  </si>
-  <si>
-    <t>祈祷堕落天使</t>
-  </si>
-  <si>
-    <t>脱困混沌龙</t>
-  </si>
-  <si>
-    <t>转生萝莉</t>
-  </si>
-  <si>
-    <t>要把堕落天使堕掉</t>
-  </si>
-  <si>
-    <t>甘霖世界树</t>
-  </si>
-  <si>
-    <t>复仇金属</t>
-  </si>
-  <si>
-    <t>弱点海妖</t>
-  </si>
-  <si>
-    <t>法侵海妖</t>
-  </si>
-  <si>
-    <t>冰甲幻翼</t>
-  </si>
-  <si>
-    <t>转生狗头</t>
-  </si>
-  <si>
-    <t>回魂3怒雪咆哮</t>
-  </si>
-  <si>
-    <t>免疫怒雪咆哮</t>
-  </si>
-  <si>
-    <t>甘霖6圣诞</t>
-  </si>
-  <si>
-    <t>圣炎光龙</t>
-  </si>
-  <si>
-    <t>不动圣堂</t>
-  </si>
-  <si>
-    <t>陷阱2老头</t>
-  </si>
-  <si>
-    <t>送还时光</t>
-  </si>
-  <si>
-    <t>迷魂8兔子</t>
-  </si>
-  <si>
-    <t>暴风雪4唤雨师</t>
-  </si>
-  <si>
-    <t>圣灵大祭司+死契摧毁</t>
-  </si>
-  <si>
-    <t>幻翼命运神</t>
-  </si>
-  <si>
-    <t>穷追猛打9化蛇</t>
-  </si>
-  <si>
-    <t>格挡10雷兽</t>
-  </si>
-  <si>
-    <t>毒雾8蟹黄</t>
-  </si>
-  <si>
-    <t>战意斗神+弱点攻击</t>
-  </si>
-  <si>
-    <t>弱点攻击战意斗神</t>
-  </si>
-  <si>
-    <t>复活猴子</t>
-  </si>
-  <si>
-    <t>封印化蛇</t>
-  </si>
-  <si>
-    <t>横扫混沌龙</t>
-  </si>
-  <si>
-    <t>本源守护末日</t>
-  </si>
-  <si>
-    <t>转生黑龙</t>
-  </si>
-  <si>
-    <t>祈祷天使</t>
-  </si>
-  <si>
-    <t>圣炎时光</t>
-  </si>
-  <si>
-    <t>盾刺金属*2</t>
-  </si>
-  <si>
-    <t>回春8金属</t>
-  </si>
-  <si>
-    <t>免疫人偶</t>
-  </si>
-  <si>
-    <t>复活陨星</t>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>月樱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>处女座</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欲望惩罚者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣灵大祭司</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>月樱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣灵大祭司</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>月樱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人偶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>处女座</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>月蚀兽*</t>
     </r>
     <r>
@@ -1528,18 +1353,151 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3堕落天使：</t>
+  </si>
+  <si>
+    <t>机神</t>
+  </si>
+  <si>
+    <t>陨星*2</t>
+  </si>
+  <si>
+    <t>不动兔子</t>
+  </si>
+  <si>
+    <t>不动黄金金属巨龙</t>
+  </si>
+  <si>
+    <t>弱点黄金金属巨龙</t>
+  </si>
+  <si>
+    <t>回魂2堕落天使</t>
+  </si>
+  <si>
+    <t>祈祷堕落天使</t>
+  </si>
+  <si>
+    <t>脱困混沌龙</t>
+  </si>
+  <si>
+    <t>转生萝莉</t>
+  </si>
+  <si>
+    <t>要把堕落天使堕掉</t>
+  </si>
+  <si>
+    <t>甘霖世界树</t>
+  </si>
+  <si>
+    <t>复仇金属</t>
+  </si>
+  <si>
+    <t>弱点海妖</t>
+  </si>
+  <si>
+    <t>法侵海妖</t>
+  </si>
+  <si>
+    <t>冰甲幻翼</t>
+  </si>
+  <si>
+    <t>转生狗头</t>
+  </si>
+  <si>
+    <t>回魂3怒雪咆哮</t>
+  </si>
+  <si>
+    <t>免疫怒雪咆哮</t>
+  </si>
+  <si>
+    <t>甘霖6圣诞</t>
+  </si>
+  <si>
+    <t>不动圣堂</t>
+  </si>
+  <si>
+    <t>陷阱2老头</t>
+  </si>
+  <si>
+    <t>送还时光</t>
+  </si>
+  <si>
+    <t>迷魂8兔子</t>
+  </si>
+  <si>
+    <t>暴风雪4唤雨师</t>
+  </si>
+  <si>
+    <t>圣灵大祭司+死契摧毁</t>
+  </si>
+  <si>
+    <t>幻翼命运神</t>
+  </si>
+  <si>
+    <t>穷追猛打9化蛇</t>
+  </si>
+  <si>
+    <t>格挡10雷兽</t>
+  </si>
+  <si>
+    <t>毒雾8蟹黄</t>
+  </si>
+  <si>
+    <t>战意斗神+弱点攻击</t>
+  </si>
+  <si>
+    <t>弱点攻击战意斗神</t>
+  </si>
+  <si>
+    <t>复活猴子</t>
+  </si>
+  <si>
+    <t>封印化蛇</t>
+  </si>
+  <si>
+    <t>横扫混沌龙</t>
+  </si>
+  <si>
+    <t>本源守护末日</t>
+  </si>
+  <si>
+    <t>转生黑龙</t>
+  </si>
+  <si>
+    <t>祈祷天使</t>
+  </si>
+  <si>
+    <t>圣炎时光</t>
+  </si>
+  <si>
+    <t>盾刺金属*2</t>
+  </si>
+  <si>
+    <t>回春8金属</t>
+  </si>
+  <si>
+    <t>免疫人偶</t>
+  </si>
+  <si>
+    <t>复活陨星</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1579,23 +1537,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1676,8 +1632,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1729,27 +1700,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2048,7 +2014,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2081,11 +2046,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="J331" sqref="J331"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="J252" sqref="J252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2099,7 +2065,7 @@
     <col min="12" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,12 +2076,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="1" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2141,7 +2107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1">
+    <row r="4" s="4" customFormat="1" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2170,7 +2136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1">
+    <row r="5" s="5" customFormat="1" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2199,7 +2165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1">
+    <row r="6" s="6" customFormat="1" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -2213,10 +2179,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:1">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1">
+    <row r="9" s="2" customFormat="1" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2250,7 +2216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1">
+    <row r="10" s="3" customFormat="1" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1">
+    <row r="11" s="4" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2291,7 +2257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1">
+    <row r="12" s="5" customFormat="1" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2320,7 +2286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1">
+    <row r="13" s="6" customFormat="1" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2334,10 +2300,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:1">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1">
+    <row r="16" s="2" customFormat="1" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2362,7 +2328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1">
+    <row r="17" s="3" customFormat="1" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +2345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1">
+    <row r="18" s="4" customFormat="1" spans="1:11">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -2408,7 +2374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="5" customFormat="1">
+    <row r="19" s="5" customFormat="1" spans="1:11">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2437,7 +2403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1">
+    <row r="20" s="6" customFormat="1" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2451,10 +2417,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" s="7" customFormat="1" spans="2:2">
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1">
+    <row r="22" s="1" customFormat="1" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2437,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1">
+    <row r="23" s="2" customFormat="1" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2491,7 +2457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1">
+    <row r="24" s="3" customFormat="1" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="4" customFormat="1">
+    <row r="25" s="4" customFormat="1" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -2528,7 +2494,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1">
+    <row r="26" s="5" customFormat="1" spans="1:11">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2557,7 +2523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1">
+    <row r="27" s="6" customFormat="1" spans="1:4">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -2571,10 +2537,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1">
+    <row r="28" s="7" customFormat="1" spans="2:2">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2554,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1">
+    <row r="30" s="2" customFormat="1" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2605,7 +2571,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1">
+    <row r="31" s="3" customFormat="1" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2628,7 +2594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1">
+    <row r="32" s="4" customFormat="1" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2645,7 +2611,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="5" customFormat="1">
+    <row r="33" s="5" customFormat="1" spans="1:11">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -2674,7 +2640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="6" customFormat="1">
+    <row r="34" s="6" customFormat="1" spans="1:4">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -2688,12 +2654,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1">
+    <row r="35" s="7" customFormat="1" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1">
+    <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1">
+    <row r="37" s="2" customFormat="1" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -2715,7 +2681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1">
+    <row r="38" s="3" customFormat="1" spans="1:10">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2701,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1">
+    <row r="39" s="4" customFormat="1" spans="1:11">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2764,7 +2730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="6" customFormat="1">
+    <row r="40" s="6" customFormat="1" spans="1:11">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
@@ -2793,7 +2759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="8" customFormat="1">
+    <row r="41" s="8" customFormat="1" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>30</v>
       </c>
@@ -2807,10 +2773,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:1">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1">
+    <row r="43" s="1" customFormat="1" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,7 +2793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1">
+    <row r="44" s="2" customFormat="1" spans="1:15">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2856,7 +2822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1">
+    <row r="45" s="3" customFormat="1" spans="1:15">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2888,7 +2854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="4" customFormat="1">
+    <row r="46" s="4" customFormat="1" spans="1:14">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2914,7 +2880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="5" customFormat="1">
+    <row r="47" s="5" customFormat="1" spans="1:16">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
@@ -2955,7 +2921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="6" customFormat="1">
+    <row r="48" s="6" customFormat="1" spans="1:4">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -2969,8 +2935,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="7" customFormat="1"/>
-    <row r="50" spans="1:22" s="1" customFormat="1">
+    <row r="49" s="7" customFormat="1"/>
+    <row r="50" s="1" customFormat="1" spans="1:19">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2999,7 +2965,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="2" customFormat="1">
+    <row r="51" s="2" customFormat="1" spans="1:15">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
@@ -3016,7 +2982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="3" customFormat="1">
+    <row r="52" s="3" customFormat="1" spans="1:20">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +3002,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="4" customFormat="1">
+    <row r="53" s="4" customFormat="1" spans="1:22">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -3086,7 +3052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="5" customFormat="1">
+    <row r="54" s="5" customFormat="1" spans="1:22">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -3139,7 +3105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="6" customFormat="1">
+    <row r="55" s="6" customFormat="1" spans="1:19">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -3159,12 +3125,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="1" customFormat="1">
+    <row r="57" s="1" customFormat="1" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="2" customFormat="1">
+    <row r="58" s="2" customFormat="1" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -3198,7 +3164,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="3" customFormat="1">
+    <row r="59" s="3" customFormat="1" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3221,7 +3187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="4" customFormat="1">
+    <row r="60" s="4" customFormat="1" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -3232,7 +3198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="5" customFormat="1">
+    <row r="61" s="5" customFormat="1" spans="1:11">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +3227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="6" customFormat="1">
+    <row r="62" s="6" customFormat="1" spans="1:4">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -3275,8 +3241,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="7" customFormat="1"/>
-    <row r="64" spans="1:22" s="1" customFormat="1">
+    <row r="63" s="7" customFormat="1"/>
+    <row r="64" s="1" customFormat="1" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3299,7 +3265,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="2" customFormat="1">
+    <row r="65" s="2" customFormat="1" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -3316,7 +3282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="3" customFormat="1">
+    <row r="66" s="3" customFormat="1" spans="1:9">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3333,7 +3299,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="4" customFormat="1">
+    <row r="67" s="4" customFormat="1" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -3350,7 +3316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="5" customFormat="1">
+    <row r="68" s="5" customFormat="1" spans="1:11">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3379,7 +3345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1">
+    <row r="69" s="6" customFormat="1" spans="1:4">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -3393,10 +3359,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:1">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1">
+    <row r="71" s="1" customFormat="1" spans="1:9">
       <c r="A71" s="25" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +3379,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1">
+    <row r="72" s="2" customFormat="1" spans="1:9">
       <c r="A72" s="26" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1">
+    <row r="73" s="3" customFormat="1" spans="1:9">
       <c r="A73" s="27" t="s">
         <v>4</v>
       </c>
@@ -3453,7 +3419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="4" customFormat="1">
+    <row r="74" s="4" customFormat="1" spans="1:9">
       <c r="A74" s="28" t="s">
         <v>12</v>
       </c>
@@ -3467,7 +3433,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="5" customFormat="1">
+    <row r="75" s="5" customFormat="1" spans="1:11">
       <c r="A75" s="29" t="s">
         <v>21</v>
       </c>
@@ -3496,7 +3462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1">
+    <row r="76" s="6" customFormat="1" spans="1:4">
       <c r="A76" s="30" t="s">
         <v>30</v>
       </c>
@@ -3510,7 +3476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1">
+    <row r="78" s="1" customFormat="1" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3500,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:11" s="2" customFormat="1">
+    <row r="79" s="2" customFormat="1" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -3557,7 +3523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1">
+    <row r="80" s="3" customFormat="1" spans="1:8">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -3571,7 +3537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="4" customFormat="1">
+    <row r="81" s="4" customFormat="1" spans="1:9">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
@@ -3585,7 +3551,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="5" customFormat="1">
+    <row r="82" s="5" customFormat="1" spans="1:11">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -3614,7 +3580,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="6" customFormat="1">
+    <row r="83" s="6" customFormat="1" spans="1:4">
       <c r="A83" s="6" t="s">
         <v>30</v>
       </c>
@@ -3628,7 +3594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="1" customFormat="1">
+    <row r="85" s="1" customFormat="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3637,7 +3603,7 @@
       </c>
       <c r="C85" s="17"/>
     </row>
-    <row r="86" spans="1:16" s="2" customFormat="1">
+    <row r="86" s="2" customFormat="1" spans="1:9">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -3654,7 +3620,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1">
+    <row r="87" s="3" customFormat="1" spans="1:11">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -3680,7 +3646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="4" customFormat="1">
+    <row r="88" s="4" customFormat="1" spans="1:11">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -3709,7 +3675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="5" customFormat="1">
+    <row r="89" s="5" customFormat="1" spans="1:11">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -3738,7 +3704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="6" customFormat="1">
+    <row r="90" s="6" customFormat="1" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>30</v>
       </c>
@@ -3752,7 +3718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="1" customFormat="1">
+    <row r="92" s="1" customFormat="1" spans="1:16">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3778,7 +3744,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="2" customFormat="1">
+    <row r="93" s="2" customFormat="1" spans="1:14">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -3801,7 +3767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1">
+    <row r="94" s="3" customFormat="1" spans="1:14">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3827,7 +3793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="4" customFormat="1">
+    <row r="95" s="4" customFormat="1" spans="1:13">
       <c r="A95" s="4" t="s">
         <v>12</v>
       </c>
@@ -3856,7 +3822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="5" customFormat="1">
+    <row r="96" s="5" customFormat="1" spans="1:16">
       <c r="A96" s="5" t="s">
         <v>21</v>
       </c>
@@ -3897,7 +3863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="6" customFormat="1">
+    <row r="97" s="6" customFormat="1" spans="1:4">
       <c r="A97" s="6" t="s">
         <v>30</v>
       </c>
@@ -3911,7 +3877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="1" customFormat="1">
+    <row r="99" s="1" customFormat="1" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -3934,7 +3900,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="2" customFormat="1">
+    <row r="100" s="2" customFormat="1" spans="1:8">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -3948,7 +3914,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="3" customFormat="1">
+    <row r="101" s="3" customFormat="1" spans="1:8">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3962,7 +3928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="4" customFormat="1">
+    <row r="102" s="4" customFormat="1" spans="1:9">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
@@ -3985,7 +3951,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="5" customFormat="1">
+    <row r="103" s="5" customFormat="1" spans="1:11">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -4014,7 +3980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="6" customFormat="1">
+    <row r="104" s="6" customFormat="1" spans="1:4">
       <c r="A104" s="6" t="s">
         <v>30</v>
       </c>
@@ -4028,7 +3994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="1" customFormat="1">
+    <row r="106" s="1" customFormat="1" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4008,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="2" customFormat="1">
+    <row r="107" s="2" customFormat="1" spans="1:14">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
@@ -4059,7 +4025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="3" customFormat="1">
+    <row r="108" s="3" customFormat="1" spans="1:17">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -4087,7 +4053,7 @@
       </c>
       <c r="Q108" s="22"/>
     </row>
-    <row r="109" spans="1:17" s="4" customFormat="1">
+    <row r="109" s="4" customFormat="1" spans="1:17">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -4131,7 +4097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="5" customFormat="1">
+    <row r="110" s="5" customFormat="1" spans="1:17">
       <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
@@ -4172,7 +4138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="6" customFormat="1">
+    <row r="111" s="6" customFormat="1" spans="1:14">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -4189,7 +4155,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="1" customFormat="1">
+    <row r="113" s="1" customFormat="1" spans="1:13">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4211,7 +4177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="2" customFormat="1">
+    <row r="114" s="2" customFormat="1" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -4224,7 +4190,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:16" s="3" customFormat="1">
+    <row r="115" s="3" customFormat="1" spans="1:16">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4220,7 @@
       </c>
       <c r="P115" s="22"/>
     </row>
-    <row r="116" spans="1:16" s="4" customFormat="1">
+    <row r="116" s="4" customFormat="1" spans="1:16">
       <c r="A116" s="4" t="s">
         <v>12</v>
       </c>
@@ -4289,7 +4255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="5" customFormat="1">
+    <row r="117" s="5" customFormat="1" spans="1:16">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -4330,7 +4296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="6" customFormat="1">
+    <row r="118" s="6" customFormat="1" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -4344,12 +4310,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="1" customFormat="1">
+    <row r="120" s="1" customFormat="1" spans="1:9">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4369,7 +4335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="2" customFormat="1">
+    <row r="121" s="2" customFormat="1" spans="1:9">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
@@ -4380,7 +4346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1">
+    <row r="122" s="3" customFormat="1" spans="1:9">
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
@@ -4400,7 +4366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="4" customFormat="1">
+    <row r="123" s="4" customFormat="1" spans="1:10">
       <c r="A123" s="4" t="s">
         <v>12</v>
       </c>
@@ -4426,7 +4392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="5" customFormat="1">
+    <row r="124" s="5" customFormat="1" spans="1:11">
       <c r="A124" s="5" t="s">
         <v>21</v>
       </c>
@@ -4455,7 +4421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="6" customFormat="1">
+    <row r="125" s="6" customFormat="1" spans="1:4">
       <c r="A125" s="6" t="s">
         <v>30</v>
       </c>
@@ -4469,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="1" customFormat="1">
+    <row r="127" s="1" customFormat="1" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -4489,7 +4455,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="2" customFormat="1">
+    <row r="128" s="2" customFormat="1" spans="1:2">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -4497,7 +4463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="3" customFormat="1">
+    <row r="129" s="3" customFormat="1" spans="1:11">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -4514,7 +4480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="4" customFormat="1">
+    <row r="130" s="4" customFormat="1" spans="1:11">
       <c r="A130" s="4" t="s">
         <v>12</v>
       </c>
@@ -4543,7 +4509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1">
+    <row r="131" s="5" customFormat="1" spans="1:11">
       <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
@@ -4572,7 +4538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="6" customFormat="1">
+    <row r="132" s="6" customFormat="1" spans="1:4">
       <c r="A132" s="6" t="s">
         <v>30</v>
       </c>
@@ -4586,11 +4552,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="7" customFormat="1">
+    <row r="133" s="7" customFormat="1" spans="2:4">
       <c r="B133" s="19"/>
       <c r="D133" s="19"/>
     </row>
-    <row r="134" spans="1:11" s="1" customFormat="1">
+    <row r="134" s="1" customFormat="1" spans="1:10">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -4622,7 +4588,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="2" customFormat="1">
+    <row r="135" s="2" customFormat="1" spans="1:8">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -4630,7 +4596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1">
+    <row r="136" s="3" customFormat="1" spans="1:10">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
@@ -4656,7 +4622,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="4" customFormat="1">
+    <row r="137" s="4" customFormat="1" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>12</v>
       </c>
@@ -4665,7 +4631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="5" customFormat="1">
+    <row r="138" s="5" customFormat="1" spans="1:11">
       <c r="A138" s="5" t="s">
         <v>21</v>
       </c>
@@ -4694,7 +4660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="6" customFormat="1">
+    <row r="139" s="6" customFormat="1" spans="1:4">
       <c r="A139" s="6" t="s">
         <v>30</v>
       </c>
@@ -4708,7 +4674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="1" customFormat="1">
+    <row r="141" s="1" customFormat="1" spans="1:9">
       <c r="A141" s="32" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4700,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="2" customFormat="1">
+    <row r="142" s="2" customFormat="1" spans="1:10">
       <c r="A142" s="33" t="s">
         <v>3</v>
       </c>
@@ -4763,7 +4729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1">
+    <row r="143" s="3" customFormat="1" spans="1:9">
       <c r="A143" s="34" t="s">
         <v>4</v>
       </c>
@@ -4774,7 +4740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="4" customFormat="1">
+    <row r="144" s="4" customFormat="1" spans="1:8">
       <c r="A144" s="35" t="s">
         <v>12</v>
       </c>
@@ -4782,7 +4748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="5" customFormat="1">
+    <row r="145" s="5" customFormat="1" spans="1:11">
       <c r="A145" s="36" t="s">
         <v>21</v>
       </c>
@@ -4811,7 +4777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="6" customFormat="1">
+    <row r="146" s="6" customFormat="1" spans="1:4">
       <c r="A146" s="6" t="s">
         <v>30</v>
       </c>
@@ -4825,7 +4791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="1" customFormat="1">
+    <row r="148" s="1" customFormat="1" spans="1:10">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="2" customFormat="1">
+    <row r="149" s="2" customFormat="1" spans="1:9">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -4866,7 +4832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1">
+    <row r="150" s="3" customFormat="1" spans="1:8">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -4883,7 +4849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="4" customFormat="1">
+    <row r="151" s="4" customFormat="1" spans="1:9">
       <c r="A151" s="4" t="s">
         <v>12</v>
       </c>
@@ -4900,7 +4866,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="5" customFormat="1">
+    <row r="152" s="5" customFormat="1" spans="1:11">
       <c r="A152" s="5" t="s">
         <v>21</v>
       </c>
@@ -4929,7 +4895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="6" customFormat="1">
+    <row r="153" s="6" customFormat="1" spans="1:4">
       <c r="A153" s="6" t="s">
         <v>30</v>
       </c>
@@ -4943,7 +4909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="1" customFormat="1">
+    <row r="155" s="1" customFormat="1" spans="1:8">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -4955,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="2" customFormat="1">
+    <row r="156" s="2" customFormat="1" spans="1:8">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
@@ -4978,7 +4944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1">
+    <row r="157" s="3" customFormat="1" spans="1:10">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
@@ -4992,7 +4958,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="4" customFormat="1">
+    <row r="158" s="4" customFormat="1" spans="1:10">
       <c r="A158" s="4" t="s">
         <v>12</v>
       </c>
@@ -5021,7 +4987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="5" customFormat="1">
+    <row r="159" s="5" customFormat="1" spans="1:11">
       <c r="A159" s="5" t="s">
         <v>21</v>
       </c>
@@ -5050,7 +5016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="6" customFormat="1">
+    <row r="160" s="6" customFormat="1" spans="1:4">
       <c r="A160" s="6" t="s">
         <v>30</v>
       </c>
@@ -5064,7 +5030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="1" customFormat="1">
+    <row r="162" s="1" customFormat="1" spans="1:11">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -5096,7 +5062,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="2" customFormat="1">
+    <row r="163" s="2" customFormat="1" spans="1:9">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
@@ -5107,7 +5073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="3" customFormat="1">
+    <row r="164" s="3" customFormat="1" spans="1:8">
       <c r="A164" s="3" t="s">
         <v>4</v>
       </c>
@@ -5115,7 +5081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="4" customFormat="1">
+    <row r="165" s="4" customFormat="1" spans="1:8">
       <c r="A165" s="4" t="s">
         <v>12</v>
       </c>
@@ -5138,7 +5104,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="5" customFormat="1">
+    <row r="166" s="5" customFormat="1" spans="1:11">
       <c r="A166" s="5" t="s">
         <v>21</v>
       </c>
@@ -5167,7 +5133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="6" customFormat="1">
+    <row r="167" s="6" customFormat="1" spans="1:4">
       <c r="A167" s="6" t="s">
         <v>30</v>
       </c>
@@ -5181,7 +5147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="1" customFormat="1">
+    <row r="176" s="1" customFormat="1" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -5204,7 +5170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" s="2" customFormat="1">
+    <row r="177" s="2" customFormat="1" spans="1:9">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
@@ -5215,7 +5181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="3" customFormat="1">
+    <row r="178" s="3" customFormat="1" spans="1:10">
       <c r="A178" s="3" t="s">
         <v>4</v>
       </c>
@@ -5244,7 +5210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:11" s="4" customFormat="1">
+    <row r="179" s="4" customFormat="1" spans="1:10">
       <c r="A179" s="4" t="s">
         <v>12</v>
       </c>
@@ -5260,7 +5226,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="5" customFormat="1">
+    <row r="180" s="5" customFormat="1" spans="1:11">
       <c r="A180" s="5" t="s">
         <v>21</v>
       </c>
@@ -5289,7 +5255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="6" customFormat="1">
+    <row r="181" s="6" customFormat="1" spans="1:4">
       <c r="A181" s="6" t="s">
         <v>30</v>
       </c>
@@ -5303,7 +5269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="1" customFormat="1">
+    <row r="183" s="1" customFormat="1" spans="1:10">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -5330,7 +5296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="2" customFormat="1">
+    <row r="184" s="2" customFormat="1" spans="1:8">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
@@ -5350,7 +5316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1">
+    <row r="185" s="3" customFormat="1" spans="1:8">
       <c r="A185" s="3" t="s">
         <v>4</v>
       </c>
@@ -5364,7 +5330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="4" customFormat="1">
+    <row r="186" s="4" customFormat="1" spans="1:9">
       <c r="A186" s="4" t="s">
         <v>12</v>
       </c>
@@ -5377,7 +5343,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="5" customFormat="1">
+    <row r="187" s="5" customFormat="1" spans="1:11">
       <c r="A187" s="5" t="s">
         <v>21</v>
       </c>
@@ -5406,7 +5372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="6" customFormat="1">
+    <row r="188" s="6" customFormat="1" spans="1:4">
       <c r="A188" s="6" t="s">
         <v>30</v>
       </c>
@@ -5420,7 +5386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="1" customFormat="1">
+    <row r="190" s="1" customFormat="1" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -5433,7 +5399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:11" s="2" customFormat="1">
+    <row r="191" s="2" customFormat="1" spans="1:8">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
@@ -5456,7 +5422,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:11" s="3" customFormat="1">
+    <row r="192" s="3" customFormat="1" spans="1:10">
       <c r="A192" s="3" t="s">
         <v>4</v>
       </c>
@@ -5485,7 +5451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="193" spans="1:18" s="4" customFormat="1">
+    <row r="193" s="4" customFormat="1" spans="1:10">
       <c r="A193" s="4" t="s">
         <v>12</v>
       </c>
@@ -5501,7 +5467,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="194" spans="1:18" s="5" customFormat="1">
+    <row r="194" s="5" customFormat="1" spans="1:11">
       <c r="A194" s="5" t="s">
         <v>21</v>
       </c>
@@ -5530,7 +5496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="6" customFormat="1">
+    <row r="195" s="6" customFormat="1" spans="1:4">
       <c r="A195" s="6" t="s">
         <v>30</v>
       </c>
@@ -5544,7 +5510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:18" s="1" customFormat="1">
+    <row r="197" s="1" customFormat="1" spans="1:15">
       <c r="A197" s="32" t="s">
         <v>0</v>
       </c>
@@ -5583,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="2" customFormat="1">
+    <row r="198" s="2" customFormat="1" spans="1:8">
       <c r="A198" s="33" t="s">
         <v>3</v>
       </c>
@@ -5603,7 +5569,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="199" spans="1:18" s="3" customFormat="1">
+    <row r="199" s="3" customFormat="1" spans="1:18">
       <c r="A199" s="34" t="s">
         <v>4</v>
       </c>
@@ -5630,7 +5596,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="200" spans="1:18" s="4" customFormat="1">
+    <row r="200" s="4" customFormat="1" spans="1:18">
       <c r="A200" s="35" t="s">
         <v>12</v>
       </c>
@@ -5652,7 +5618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="5" customFormat="1">
+    <row r="201" s="5" customFormat="1" spans="1:18">
       <c r="A201" s="36" t="s">
         <v>21</v>
       </c>
@@ -5693,7 +5659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:18" s="6" customFormat="1">
+    <row r="202" s="6" customFormat="1" spans="1:4">
       <c r="A202" s="6" t="s">
         <v>30</v>
       </c>
@@ -5707,7 +5673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:11" s="1" customFormat="1">
+    <row r="211" s="1" customFormat="1" spans="1:6">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
@@ -5722,7 +5688,7 @@
       </c>
       <c r="F211" s="17"/>
     </row>
-    <row r="212" spans="1:11" s="2" customFormat="1">
+    <row r="212" s="2" customFormat="1" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -5740,7 +5706,7 @@
       </c>
       <c r="F212" s="21"/>
     </row>
-    <row r="213" spans="1:11" s="3" customFormat="1">
+    <row r="213" s="3" customFormat="1" spans="1:10">
       <c r="A213" s="3" t="s">
         <v>4</v>
       </c>
@@ -5763,7 +5729,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="4" customFormat="1">
+    <row r="214" s="4" customFormat="1" spans="1:11">
       <c r="A214" s="4" t="s">
         <v>12</v>
       </c>
@@ -5785,7 +5751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="5" customFormat="1">
+    <row r="215" s="5" customFormat="1" spans="1:11">
       <c r="A215" s="5" t="s">
         <v>21</v>
       </c>
@@ -5814,7 +5780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="6" customFormat="1">
+    <row r="216" s="6" customFormat="1" spans="1:4">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -5828,7 +5794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="1" customFormat="1">
+    <row r="218" s="1" customFormat="1" spans="1:8">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -5844,7 +5810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="2" customFormat="1">
+    <row r="219" s="2" customFormat="1" spans="1:8">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
@@ -5860,7 +5826,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="3" customFormat="1">
+    <row r="220" s="3" customFormat="1" spans="1:10">
       <c r="A220" s="3" t="s">
         <v>4</v>
       </c>
@@ -5886,7 +5852,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="4" customFormat="1">
+    <row r="221" s="4" customFormat="1" spans="1:10">
       <c r="A221" s="4" t="s">
         <v>12</v>
       </c>
@@ -5908,7 +5874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:11" s="5" customFormat="1">
+    <row r="222" s="5" customFormat="1" spans="1:11">
       <c r="A222" s="5" t="s">
         <v>21</v>
       </c>
@@ -5937,7 +5903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:11" s="6" customFormat="1">
+    <row r="223" s="6" customFormat="1" spans="1:4">
       <c r="A223" s="6" t="s">
         <v>30</v>
       </c>
@@ -5951,7 +5917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="1" customFormat="1">
+    <row r="239" s="1" customFormat="1" spans="1:6">
       <c r="A239" s="1" t="s">
         <v>0</v>
       </c>
@@ -5960,7 +5926,7 @@
       <c r="D239" s="17"/>
       <c r="F239" s="16"/>
     </row>
-    <row r="240" spans="1:6" s="2" customFormat="1">
+    <row r="240" s="2" customFormat="1" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
@@ -5978,7 +5944,7 @@
       </c>
       <c r="F240" s="21"/>
     </row>
-    <row r="241" spans="1:16" s="3" customFormat="1">
+    <row r="241" s="3" customFormat="1" spans="1:10">
       <c r="A241" s="3" t="s">
         <v>4</v>
       </c>
@@ -6007,7 +5973,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="4" customFormat="1">
+    <row r="242" s="4" customFormat="1" spans="1:11">
       <c r="A242" s="4" t="s">
         <v>12</v>
       </c>
@@ -6028,7 +5994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="5" customFormat="1">
+    <row r="243" s="5" customFormat="1" spans="1:11">
       <c r="A243" s="5" t="s">
         <v>21</v>
       </c>
@@ -6057,7 +6023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="6" customFormat="1">
+    <row r="244" s="6" customFormat="1" spans="1:4">
       <c r="A244" s="6" t="s">
         <v>30</v>
       </c>
@@ -6071,7 +6037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:16" s="1" customFormat="1">
+    <row r="246" s="1" customFormat="1" spans="1:16">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
@@ -6103,7 +6069,7 @@
       <c r="O246" s="16"/>
       <c r="P246" s="16"/>
     </row>
-    <row r="247" spans="1:16" s="2" customFormat="1">
+    <row r="247" s="2" customFormat="1" spans="1:16">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
@@ -6134,7 +6100,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="248" spans="1:16" s="3" customFormat="1">
+    <row r="248" s="3" customFormat="1" spans="1:15">
       <c r="A248" s="3" t="s">
         <v>4</v>
       </c>
@@ -6150,15 +6116,13 @@
       <c r="E248" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="H248" s="22" t="s">
-        <v>148</v>
+      <c r="H248" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J248" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="J248" s="3"/>
       <c r="M248" s="22" t="s">
         <v>148</v>
       </c>
@@ -6169,7 +6133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="4" customFormat="1">
+    <row r="249" s="4" customFormat="1" spans="1:14">
       <c r="A249" s="4" t="s">
         <v>12</v>
       </c>
@@ -6192,6 +6156,9 @@
       <c r="I249" s="14" t="s">
         <v>319</v>
       </c>
+      <c r="J249" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M249" s="14" t="s">
         <v>62</v>
       </c>
@@ -6199,7 +6166,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="250" spans="1:16" s="5" customFormat="1">
+    <row r="250" s="5" customFormat="1" spans="1:16">
       <c r="A250" s="5" t="s">
         <v>21</v>
       </c>
@@ -6215,8 +6182,8 @@
       <c r="E250" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H250" s="11" t="s">
-        <v>23</v>
+      <c r="H250" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="I250" s="24" t="s">
         <v>27</v>
@@ -6240,7 +6207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="6" customFormat="1">
+    <row r="251" s="6" customFormat="1" spans="1:4">
       <c r="A251" s="6" t="s">
         <v>30</v>
       </c>
@@ -6254,7 +6221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:16" s="1" customFormat="1">
+    <row r="253" s="1" customFormat="1" spans="1:9">
       <c r="A253" s="1" t="s">
         <v>0</v>
       </c>
@@ -6280,7 +6247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:16" s="2" customFormat="1">
+    <row r="254" s="2" customFormat="1" spans="1:8">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
@@ -6306,7 +6273,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="3" customFormat="1">
+    <row r="255" s="3" customFormat="1" spans="1:11">
       <c r="A255" s="3" t="s">
         <v>4</v>
       </c>
@@ -6327,7 +6294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="4" customFormat="1">
+    <row r="256" s="4" customFormat="1" spans="1:9">
       <c r="A256" s="4" t="s">
         <v>12</v>
       </c>
@@ -6342,7 +6309,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="257" spans="1:11" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:11">
       <c r="A257" s="5" t="s">
         <v>21</v>
       </c>
@@ -6371,7 +6338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:11" s="6" customFormat="1">
+    <row r="258" s="6" customFormat="1" spans="1:4">
       <c r="A258" s="6" t="s">
         <v>30</v>
       </c>
@@ -6381,7 +6348,7 @@
       </c>
       <c r="D258" s="8"/>
     </row>
-    <row r="260" spans="1:11" s="1" customFormat="1">
+    <row r="260" s="1" customFormat="1" spans="1:9">
       <c r="A260" s="1" t="s">
         <v>0</v>
       </c>
@@ -6405,7 +6372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:11" s="2" customFormat="1">
+    <row r="261" s="2" customFormat="1" spans="1:8">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
@@ -6426,7 +6393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="262" spans="1:11" s="3" customFormat="1">
+    <row r="262" s="3" customFormat="1" spans="1:11">
       <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
@@ -6455,7 +6422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:11" s="4" customFormat="1">
+    <row r="263" s="4" customFormat="1" spans="1:9">
       <c r="A263" s="4" t="s">
         <v>12</v>
       </c>
@@ -6471,7 +6438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:11" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:11">
       <c r="A264" s="5" t="s">
         <v>21</v>
       </c>
@@ -6500,7 +6467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:11" s="6" customFormat="1">
+    <row r="265" s="6" customFormat="1" spans="1:4">
       <c r="A265" s="6" t="s">
         <v>30</v>
       </c>
@@ -6510,12 +6477,12 @@
       </c>
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:1">
       <c r="A266" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="267" spans="1:11" s="1" customFormat="1">
+    <row r="267" s="1" customFormat="1" spans="1:6">
       <c r="A267" s="1" t="s">
         <v>0</v>
       </c>
@@ -6533,7 +6500,7 @@
       </c>
       <c r="F267" s="17"/>
     </row>
-    <row r="268" spans="1:11" s="2" customFormat="1">
+    <row r="268" s="2" customFormat="1" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
@@ -6551,7 +6518,7 @@
       </c>
       <c r="F268" s="21"/>
     </row>
-    <row r="269" spans="1:11" s="3" customFormat="1">
+    <row r="269" s="3" customFormat="1" spans="1:10">
       <c r="A269" s="3" t="s">
         <v>4</v>
       </c>
@@ -6572,7 +6539,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="270" spans="1:11" s="4" customFormat="1">
+    <row r="270" s="4" customFormat="1" spans="1:11">
       <c r="A270" s="4" t="s">
         <v>12</v>
       </c>
@@ -6594,7 +6561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:11" s="5" customFormat="1">
+    <row r="271" s="5" customFormat="1" spans="1:11">
       <c r="A271" s="5" t="s">
         <v>21</v>
       </c>
@@ -6623,7 +6590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:11" s="6" customFormat="1">
+    <row r="272" s="6" customFormat="1" spans="1:4">
       <c r="A272" s="6" t="s">
         <v>30</v>
       </c>
@@ -6637,7 +6604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:11" s="1" customFormat="1">
+    <row r="274" s="1" customFormat="1" spans="1:10">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
@@ -6666,7 +6633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="275" spans="1:11" s="2" customFormat="1">
+    <row r="275" s="2" customFormat="1" spans="1:9">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -6681,7 +6648,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="276" spans="1:11" s="3" customFormat="1">
+    <row r="276" s="3" customFormat="1" spans="1:5">
       <c r="A276" s="3" t="s">
         <v>4</v>
       </c>
@@ -6690,7 +6657,7 @@
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" spans="1:11" s="4" customFormat="1">
+    <row r="277" s="4" customFormat="1" spans="1:9">
       <c r="A277" s="4" t="s">
         <v>12</v>
       </c>
@@ -6716,7 +6683,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="278" spans="1:11" s="5" customFormat="1">
+    <row r="278" s="5" customFormat="1" spans="1:11">
       <c r="A278" s="5" t="s">
         <v>21</v>
       </c>
@@ -6745,7 +6712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:11" s="6" customFormat="1">
+    <row r="279" s="6" customFormat="1" spans="1:4">
       <c r="A279" s="6" t="s">
         <v>30</v>
       </c>
@@ -6759,7 +6726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:11" s="1" customFormat="1">
+    <row r="287" s="1" customFormat="1" spans="1:9">
       <c r="A287" s="1" t="s">
         <v>0</v>
       </c>
@@ -6777,7 +6744,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" spans="1:11" s="2" customFormat="1">
+    <row r="288" s="2" customFormat="1" spans="1:11">
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
@@ -6800,7 +6767,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="289" spans="1:11" s="3" customFormat="1">
+    <row r="289" s="3" customFormat="1" spans="1:9">
       <c r="A289" s="3" t="s">
         <v>4</v>
       </c>
@@ -6824,7 +6791,7 @@
       </c>
       <c r="I289" s="22"/>
     </row>
-    <row r="290" spans="1:11" s="4" customFormat="1">
+    <row r="290" s="4" customFormat="1" spans="1:10">
       <c r="A290" s="4" t="s">
         <v>12</v>
       </c>
@@ -6850,7 +6817,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="291" spans="1:11" s="5" customFormat="1">
+    <row r="291" s="5" customFormat="1" spans="1:11">
       <c r="A291" s="5" t="s">
         <v>21</v>
       </c>
@@ -6879,7 +6846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11" s="6" customFormat="1">
+    <row r="292" s="6" customFormat="1" spans="1:4">
       <c r="A292" s="6" t="s">
         <v>30</v>
       </c>
@@ -6893,12 +6860,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="295" spans="1:11" s="1" customFormat="1">
+    <row r="295" s="1" customFormat="1" spans="1:11">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
@@ -6925,7 +6892,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="296" spans="1:11" s="2" customFormat="1">
+    <row r="296" s="2" customFormat="1" spans="1:10">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
@@ -6943,7 +6910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="297" spans="1:11" s="3" customFormat="1">
+    <row r="297" s="3" customFormat="1" spans="1:10">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
@@ -6969,7 +6936,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="298" spans="1:11" s="4" customFormat="1">
+    <row r="298" s="4" customFormat="1" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>12</v>
       </c>
@@ -6989,7 +6956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:11" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:11">
       <c r="A299" s="5" t="s">
         <v>21</v>
       </c>
@@ -7018,7 +6985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:11" s="6" customFormat="1">
+    <row r="300" s="6" customFormat="1" spans="1:8">
       <c r="A300" s="6" t="s">
         <v>30</v>
       </c>
@@ -7035,7 +7002,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="302" spans="1:11" s="1" customFormat="1">
+    <row r="302" s="1" customFormat="1" spans="1:9">
       <c r="A302" s="1" t="s">
         <v>0</v>
       </c>
@@ -7054,7 +7021,7 @@
       </c>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="1:11" s="2" customFormat="1">
+    <row r="303" s="2" customFormat="1" spans="1:10">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
@@ -7076,7 +7043,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" spans="1:11" s="3" customFormat="1">
+    <row r="304" s="3" customFormat="1" spans="1:11">
       <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
@@ -7103,7 +7070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:11" s="4" customFormat="1">
+    <row r="305" s="4" customFormat="1" spans="1:9">
       <c r="A305" s="4" t="s">
         <v>12</v>
       </c>
@@ -7129,7 +7096,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="1:11" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:11">
       <c r="A306" s="5" t="s">
         <v>21</v>
       </c>
@@ -7158,7 +7125,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="307" spans="1:11" s="6" customFormat="1">
+    <row r="307" s="6" customFormat="1" spans="1:4">
       <c r="A307" s="6" t="s">
         <v>30</v>
       </c>
@@ -7168,7 +7135,7 @@
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="309" spans="1:11" s="1" customFormat="1">
+    <row r="309" s="1" customFormat="1" spans="1:10">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
@@ -7188,7 +7155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="310" spans="1:11" s="2" customFormat="1">
+    <row r="310" s="2" customFormat="1" spans="1:9">
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
@@ -7203,7 +7170,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="311" spans="1:11" s="3" customFormat="1">
+    <row r="311" s="3" customFormat="1" spans="1:7">
       <c r="A311" s="3" t="s">
         <v>4</v>
       </c>
@@ -7224,7 +7191,7 @@
       </c>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" spans="1:11" s="4" customFormat="1">
+    <row r="312" s="4" customFormat="1" spans="1:10">
       <c r="A312" s="4" t="s">
         <v>12</v>
       </c>
@@ -7253,7 +7220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" spans="1:11" s="5" customFormat="1">
+    <row r="313" s="5" customFormat="1" spans="1:11">
       <c r="A313" s="5" t="s">
         <v>21</v>
       </c>
@@ -7282,7 +7249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:11" s="6" customFormat="1">
+    <row r="314" s="6" customFormat="1" spans="1:4">
       <c r="A314" s="6" t="s">
         <v>30</v>
       </c>
@@ -7318,8 +7285,8 @@
       <c r="I316" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J316" s="46" t="s">
-        <v>469</v>
+      <c r="J316" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="K316" s="1"/>
     </row>
@@ -7336,11 +7303,11 @@
       <c r="H317" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I317" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="J317" s="48" t="s">
-        <v>473</v>
+      <c r="I317" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="J317" s="45" t="s">
+        <v>313</v>
       </c>
       <c r="K317" s="2"/>
     </row>
@@ -7389,8 +7356,8 @@
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
-      <c r="H319" s="47" t="s">
-        <v>471</v>
+      <c r="H319" s="43" t="s">
+        <v>319</v>
       </c>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
@@ -7462,7 +7429,7 @@
         <v>136</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>469</v>
+        <v>311</v>
       </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -7472,16 +7439,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C324" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="C324" s="21" t="s">
+      <c r="D324" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="D324" s="21" t="s">
+      <c r="E324" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="E324" s="20" t="s">
-        <v>406</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7489,13 +7456,13 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K324" s="2" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -7503,19 +7470,19 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C325" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C325" s="20" t="s">
+      <c r="D325" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="D325" s="21" t="s">
-        <v>410</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3" t="s">
-        <v>468</v>
+        <v>10</v>
       </c>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
@@ -7526,10 +7493,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C326" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>412</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7599,19 +7566,19 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="C330" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C330" s="16" t="s">
+      <c r="D330" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E330" s="1" t="s">
+      <c r="F330" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="F330" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>401</v>
@@ -7632,16 +7599,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C331" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="C331" s="20" t="s">
+      <c r="D331" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="D331" s="21" t="s">
+      <c r="E331" s="20" t="s">
         <v>420</v>
-      </c>
-      <c r="E331" s="20" t="s">
-        <v>421</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7651,8 +7618,8 @@
       <c r="I331" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J331" s="48" t="s">
-        <v>478</v>
+      <c r="J331" s="45" t="s">
+        <v>312</v>
       </c>
       <c r="K331" s="2"/>
     </row>
@@ -7664,13 +7631,13 @@
         <v>379</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D332" s="22" t="s">
         <v>370</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7686,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7696,8 +7663,8 @@
       <c r="H333" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I333" s="47" t="s">
-        <v>479</v>
+      <c r="I333" s="43" t="s">
+        <v>424</v>
       </c>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
@@ -7750,12 +7717,12 @@
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:1">
       <c r="A336" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="337" spans="1:21" s="1" customFormat="1">
+    <row r="337" s="1" customFormat="1" spans="1:21">
       <c r="A337" s="1" t="s">
         <v>0</v>
       </c>
@@ -7768,7 +7735,7 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -7777,7 +7744,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7792,13 +7759,13 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="338" spans="1:21" s="2" customFormat="1">
+    <row r="338" s="2" customFormat="1" spans="1:19">
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
@@ -7812,7 +7779,7 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F338" s="21" t="s">
         <v>300</v>
@@ -7839,15 +7806,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="339" spans="1:21" s="3" customFormat="1">
+    <row r="339" s="3" customFormat="1" spans="1:18">
       <c r="A339" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D339" s="9"/>
       <c r="H339" s="3" t="s">
@@ -7866,24 +7833,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:21" s="4" customFormat="1">
+    <row r="340" s="4" customFormat="1" spans="1:14">
       <c r="A340" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>357</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
@@ -7895,11 +7862,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="341" spans="1:21" s="5" customFormat="1">
+    <row r="341" s="5" customFormat="1" spans="1:21">
       <c r="A341" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B341" s="43" t="s">
+      <c r="B341" s="46" t="s">
         <v>47</v>
       </c>
       <c r="C341" s="38" t="s">
@@ -7948,7 +7915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="6" customFormat="1">
+    <row r="342" s="6" customFormat="1" spans="1:8">
       <c r="A342" s="6" t="s">
         <v>30</v>
       </c>
@@ -7962,10 +7929,10 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="344" spans="1:21" s="1" customFormat="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="344" s="1" customFormat="1" spans="1:9">
       <c r="A344" s="32" t="s">
         <v>0</v>
       </c>
@@ -7976,14 +7943,14 @@
       <c r="D344" s="17"/>
       <c r="E344" s="16"/>
       <c r="F344" s="17"/>
-      <c r="H344" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="I344" s="46" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="345" spans="1:21" s="2" customFormat="1">
+      <c r="H344" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="I344" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" s="2" customFormat="1" spans="1:10">
       <c r="A345" s="33" t="s">
         <v>3</v>
       </c>
@@ -7991,10 +7958,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -8008,18 +7975,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="346" spans="1:21" s="3" customFormat="1">
+    <row r="346" s="3" customFormat="1" spans="1:9">
       <c r="A346" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -8031,21 +7998,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:21" s="4" customFormat="1">
+    <row r="347" s="4" customFormat="1" spans="1:10">
       <c r="A347" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D347" s="49" t="s">
-        <v>441</v>
-      </c>
-      <c r="E347" s="49" t="s">
+      <c r="D347" s="47" t="s">
         <v>442</v>
+      </c>
+      <c r="E347" s="47" t="s">
+        <v>443</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
@@ -8058,7 +8025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:21" s="5" customFormat="1">
+    <row r="348" s="5" customFormat="1" spans="1:11">
       <c r="A348" s="36" t="s">
         <v>21</v>
       </c>
@@ -8087,7 +8054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="349" spans="1:21" s="6" customFormat="1">
+    <row r="349" s="6" customFormat="1" spans="1:4">
       <c r="A349" s="6" t="s">
         <v>30</v>
       </c>
@@ -8097,12 +8064,12 @@
       </c>
       <c r="D349" s="8"/>
     </row>
-    <row r="351" spans="1:21" s="1" customFormat="1">
+    <row r="351" s="1" customFormat="1" spans="1:17">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8112,10 +8079,10 @@
         <v>153</v>
       </c>
       <c r="I351" s="16" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>311</v>
@@ -8136,11 +8103,11 @@
         <v>446</v>
       </c>
     </row>
-    <row r="352" spans="1:21" s="2" customFormat="1">
+    <row r="352" s="2" customFormat="1" spans="1:14">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B352" s="44" t="s">
+      <c r="B352" s="48" t="s">
         <v>447</v>
       </c>
       <c r="C352" s="20" t="s">
@@ -8149,7 +8116,7 @@
       <c r="D352" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="E352" s="45" t="s">
+      <c r="E352" s="49" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
@@ -8171,7 +8138,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="353" spans="1:16" s="3" customFormat="1">
+    <row r="353" s="3" customFormat="1" spans="1:8">
       <c r="A353" s="3" t="s">
         <v>4</v>
       </c>
@@ -8194,7 +8161,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="354" spans="1:16" s="4" customFormat="1">
+    <row r="354" s="4" customFormat="1" spans="1:13">
       <c r="A354" s="4" t="s">
         <v>12</v>
       </c>
@@ -8215,7 +8182,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="355" spans="1:16" s="5" customFormat="1">
+    <row r="355" s="5" customFormat="1" spans="1:16">
       <c r="A355" s="5" t="s">
         <v>21</v>
       </c>
@@ -8256,7 +8223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" spans="1:16" s="6" customFormat="1">
+    <row r="356" s="6" customFormat="1" spans="1:4">
       <c r="A356" s="6" t="s">
         <v>30</v>
       </c>
@@ -8266,7 +8233,7 @@
       </c>
       <c r="D356" s="8"/>
     </row>
-    <row r="358" spans="1:16" s="1" customFormat="1">
+    <row r="358" s="1" customFormat="1" spans="1:9">
       <c r="A358" s="1" t="s">
         <v>0</v>
       </c>
@@ -8279,10 +8246,10 @@
         <v>2</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="359" spans="1:16" s="2" customFormat="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="359" s="2" customFormat="1" spans="1:11">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
@@ -8304,10 +8271,10 @@
         <v>312</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" s="3" customFormat="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="360" s="3" customFormat="1" spans="1:10">
       <c r="A360" s="3" t="s">
         <v>4</v>
       </c>
@@ -8336,7 +8303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:16" s="4" customFormat="1">
+    <row r="361" s="4" customFormat="1" spans="1:8">
       <c r="A361" s="4" t="s">
         <v>12</v>
       </c>
@@ -8359,7 +8326,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="362" spans="1:16" s="5" customFormat="1">
+    <row r="362" s="5" customFormat="1" spans="1:11">
       <c r="A362" s="5" t="s">
         <v>21</v>
       </c>
@@ -8388,7 +8355,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:16" s="6" customFormat="1">
+    <row r="363" s="6" customFormat="1" spans="1:4">
       <c r="A363" s="6" t="s">
         <v>30</v>
       </c>
@@ -8398,7 +8365,7 @@
       </c>
       <c r="D363" s="8"/>
     </row>
-    <row r="365" spans="1:16" s="1" customFormat="1">
+    <row r="365" s="1" customFormat="1" spans="1:9">
       <c r="A365" s="1" t="s">
         <v>0</v>
       </c>
@@ -8424,7 +8391,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="366" spans="1:16" s="2" customFormat="1">
+    <row r="366" s="2" customFormat="1" spans="1:10">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
@@ -8451,7 +8418,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="367" spans="1:16" s="3" customFormat="1">
+    <row r="367" s="3" customFormat="1" spans="1:11">
       <c r="A367" s="3" t="s">
         <v>4</v>
       </c>
@@ -8476,7 +8443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="368" spans="1:16" s="4" customFormat="1">
+    <row r="368" s="4" customFormat="1" spans="1:8">
       <c r="A368" s="4" t="s">
         <v>12</v>
       </c>
@@ -8488,7 +8455,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="369" spans="1:11" s="5" customFormat="1">
+    <row r="369" s="5" customFormat="1" spans="1:11">
       <c r="A369" s="5" t="s">
         <v>21</v>
       </c>
@@ -8517,7 +8484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" spans="1:11" s="6" customFormat="1">
+    <row r="370" s="6" customFormat="1" spans="1:4">
       <c r="A370" s="6" t="s">
         <v>30</v>
       </c>
@@ -8532,9 +8499,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466">
   <si>
     <t>王国</t>
   </si>
@@ -1129,7 +1129,7 @@
     <t>回魂2女武神</t>
   </si>
   <si>
-    <t>（月樱）</t>
+    <t>月女*2</t>
   </si>
   <si>
     <t>圣炎圆月</t>
@@ -1144,7 +1144,7 @@
     <t>甘霖堕落天使</t>
   </si>
   <si>
-    <t>（蛤蟆）</t>
+    <t>化蛇（英灵）</t>
   </si>
   <si>
     <t>邪灵狗头</t>
@@ -1201,9 +1201,6 @@
     <t>圣诞老人+免疫</t>
   </si>
   <si>
-    <t>月女*2</t>
-  </si>
-  <si>
     <t>齐天美猴王+免疫</t>
   </si>
   <si>
@@ -1234,7 +1231,7 @@
     <t>死域军神+不动</t>
   </si>
   <si>
-    <t>雪崩</t>
+    <t>3圣炎</t>
   </si>
   <si>
     <t>天界守护者+横扫</t>
@@ -1337,26 +1334,6 @@
   </si>
   <si>
     <t>圆月魔女+魔甲4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月蚀兽*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
   </si>
   <si>
     <t>3堕落天使：</t>
@@ -1495,10 +1472,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1533,19 +1510,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1636,23 +1600,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1700,12 +1664,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -2050,8 +2010,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="J252" sqref="J252"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="L309" sqref="L309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6122,7 +6082,6 @@
       <c r="I248" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J248" s="3"/>
       <c r="M248" s="22" t="s">
         <v>148</v>
       </c>
@@ -6865,7 +6824,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" spans="1:11">
+    <row r="295" s="1" customFormat="1" spans="1:10">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
@@ -6879,17 +6838,14 @@
         <v>218</v>
       </c>
       <c r="F295" s="17"/>
-      <c r="H295" s="16" t="s">
-        <v>118</v>
+      <c r="H295" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="K295" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="296" s="2" customFormat="1" spans="1:10">
@@ -6901,7 +6857,7 @@
       <c r="D296" s="20"/>
       <c r="F296" s="20"/>
       <c r="H296" s="2" t="s">
-        <v>72</v>
+        <v>354</v>
       </c>
       <c r="I296" s="2" t="s">
         <v>39</v>
@@ -6910,7 +6866,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="297" s="3" customFormat="1" spans="1:10">
+    <row r="297" s="3" customFormat="1" spans="1:9">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
@@ -6930,9 +6886,6 @@
         <v>148</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J297" s="3" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6981,8 +6934,8 @@
       <c r="J299" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="K299" s="11" t="s">
-        <v>23</v>
+      <c r="K299" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="300" s="6" customFormat="1" spans="1:8">
@@ -7053,7 +7006,7 @@
       <c r="C304" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="D304" s="22" t="s">
+      <c r="D304" s="42" t="s">
         <v>371</v>
       </c>
       <c r="E304" s="22"/>
@@ -7164,7 +7117,7 @@
       <c r="D310" s="20"/>
       <c r="F310" s="20"/>
       <c r="H310" s="2" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>124</v>
@@ -7175,19 +7128,19 @@
         <v>4</v>
       </c>
       <c r="B311" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="D311" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="D311" s="28" t="s">
+      <c r="E311" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E311" s="10" t="s">
+      <c r="F311" s="28" t="s">
         <v>382</v>
-      </c>
-      <c r="F311" s="28" t="s">
-        <v>383</v>
       </c>
       <c r="G311" s="4"/>
     </row>
@@ -7196,19 +7149,19 @@
         <v>12</v>
       </c>
       <c r="B312" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C312" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="C312" s="40" t="s">
+      <c r="D312" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D312" s="40" t="s">
+      <c r="E312" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E312" s="4" t="s">
+      <c r="F312" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="H312" s="4" t="s">
         <v>62</v>
@@ -7239,11 +7192,11 @@
       <c r="H313" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I313" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J313" s="18" t="s">
-        <v>389</v>
+      <c r="I313" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J313" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="K313" s="24" t="s">
         <v>27</v>
@@ -7261,21 +7214,26 @@
       </c>
       <c r="D314" s="8"/>
     </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>388</v>
+      </c>
+    </row>
     <row r="316" spans="1:11">
       <c r="A316" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C316" s="17" t="s">
         <v>365</v>
       </c>
       <c r="D316" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -7285,10 +7243,12 @@
       <c r="I316" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J316" s="44" t="s">
+      <c r="J316" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="K316" s="1"/>
+      <c r="K316" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="2" t="s">
@@ -7301,12 +7261,12 @@
       <c r="F317" s="20"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I317" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="I317" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="J317" s="45" t="s">
+      <c r="J317" s="21" t="s">
         <v>313</v>
       </c>
       <c r="K317" s="2"/>
@@ -7316,26 +7276,22 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="C318" s="28" t="s">
         <v>393</v>
-      </c>
-      <c r="C318" s="28" t="s">
-        <v>394</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I318" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J318" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
       <c r="K318" s="3"/>
     </row>
     <row r="319" spans="1:11">
@@ -7343,20 +7299,20 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C319" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C319" s="14" t="s">
+      <c r="D319" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D319" s="10" t="s">
+      <c r="E319" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="E319" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
-      <c r="H319" s="43" t="s">
+      <c r="H319" s="14" t="s">
         <v>319</v>
       </c>
       <c r="I319" s="4"/>
@@ -7416,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C323" s="17" t="s">
         <v>400</v>
-      </c>
-      <c r="C323" s="17" t="s">
-        <v>401</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7439,16 +7395,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C324" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="C324" s="21" t="s">
+      <c r="D324" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="D324" s="21" t="s">
+      <c r="E324" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="E324" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7456,7 +7412,7 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
@@ -7470,13 +7426,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C325" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="C325" s="20" t="s">
+      <c r="D325" s="21" t="s">
         <v>408</v>
-      </c>
-      <c r="D325" s="21" t="s">
-        <v>409</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
@@ -7493,10 +7449,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="C326" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>411</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7566,22 +7522,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C330" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C330" s="16" t="s">
+      <c r="D330" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E330" s="1" t="s">
+      <c r="F330" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="F330" s="17" t="s">
-        <v>416</v>
-      </c>
       <c r="G330" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -7599,16 +7555,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C331" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C331" s="20" t="s">
+      <c r="D331" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="D331" s="21" t="s">
+      <c r="E331" s="20" t="s">
         <v>419</v>
-      </c>
-      <c r="E331" s="20" t="s">
-        <v>420</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7618,7 +7574,7 @@
       <c r="I331" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J331" s="45" t="s">
+      <c r="J331" s="21" t="s">
         <v>312</v>
       </c>
       <c r="K331" s="2"/>
@@ -7627,17 +7583,17 @@
       <c r="A332" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B332" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C332" s="9" t="s">
-        <v>421</v>
+      <c r="B332" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C332" s="42" t="s">
+        <v>420</v>
       </c>
       <c r="D332" s="22" t="s">
         <v>370</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7653,7 +7609,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7663,8 +7619,8 @@
       <c r="H333" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I333" s="43" t="s">
-        <v>424</v>
+      <c r="I333" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
@@ -7719,7 +7675,7 @@
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" spans="1:21">
@@ -7735,7 +7691,7 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -7744,7 +7700,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7759,7 +7715,7 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
@@ -7779,7 +7735,7 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F338" s="21" t="s">
         <v>300</v>
@@ -7811,10 +7767,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D339" s="9"/>
       <c r="H339" s="3" t="s">
@@ -7838,19 +7794,19 @@
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>357</v>
       </c>
       <c r="D340" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E340" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F340" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="E340" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F340" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
@@ -7866,7 +7822,7 @@
       <c r="A341" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B341" s="46" t="s">
+      <c r="B341" s="44" t="s">
         <v>47</v>
       </c>
       <c r="C341" s="38" t="s">
@@ -7881,8 +7837,8 @@
       <c r="H341" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="I341" s="24" t="s">
-        <v>23</v>
+      <c r="I341" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="J341" s="11" t="s">
         <v>27</v>
@@ -7929,7 +7885,7 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" spans="1:9">
@@ -7943,10 +7899,10 @@
       <c r="D344" s="17"/>
       <c r="E344" s="16"/>
       <c r="F344" s="17"/>
-      <c r="H344" s="44" t="s">
+      <c r="H344" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="I344" s="44" t="s">
+      <c r="I344" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7958,10 +7914,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7971,7 +7927,7 @@
       <c r="I345" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J345" s="21" t="s">
+      <c r="J345" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7980,13 +7936,13 @@
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C346" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D346" s="22" t="s">
         <v>438</v>
-      </c>
-      <c r="C346" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="D346" s="22" t="s">
-        <v>440</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -8003,16 +7959,16 @@
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D347" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="E347" s="47" t="s">
-        <v>443</v>
+      <c r="D347" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="E347" s="42" t="s">
+        <v>441</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
@@ -8069,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8082,7 +8038,7 @@
         <v>2</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>311</v>
@@ -8097,30 +8053,30 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q351" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:14">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B352" s="48" t="s">
+      <c r="B352" s="43" t="s">
+        <v>445</v>
+      </c>
+      <c r="C352" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="D352" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="C352" s="20" t="s">
+      <c r="E352" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F352" s="20" t="s">
         <v>448</v>
-      </c>
-      <c r="D352" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="E352" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="F352" s="20" t="s">
-        <v>450</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
@@ -8131,6 +8087,9 @@
       <c r="J352" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="K352" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="M352" s="2" t="s">
         <v>124</v>
       </c>
@@ -8138,27 +8097,24 @@
         <v>313</v>
       </c>
     </row>
-    <row r="353" s="3" customFormat="1" spans="1:8">
+    <row r="353" s="3" customFormat="1" spans="1:6">
       <c r="A353" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="E353" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="F353" s="22" t="s">
         <v>452</v>
-      </c>
-      <c r="E353" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="F353" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="H353" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="354" s="4" customFormat="1" spans="1:13">
@@ -8166,7 +8122,7 @@
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8254,10 +8210,10 @@
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8271,7 +8227,7 @@
         <v>312</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>313</v>
+        <v>405</v>
       </c>
     </row>
     <row r="360" s="3" customFormat="1" spans="1:10">
@@ -8282,7 +8238,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8311,16 +8267,16 @@
         <v>361</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H361" s="4" t="s">
         <v>319</v>
@@ -8373,7 +8329,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8399,13 +8355,13 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="D366" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="E366" s="21" t="s">
         <v>463</v>
-      </c>
-      <c r="D366" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="E366" s="21" t="s">
-        <v>465</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
@@ -8423,10 +8379,10 @@
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYH\Desktop\魔卡幻想\new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="473">
   <si>
     <t>王国</t>
   </si>
@@ -1144,9 +1149,6 @@
     <t>甘霖堕落天使</t>
   </si>
   <si>
-    <t>化蛇（英灵）</t>
-  </si>
-  <si>
     <t>邪灵狗头</t>
   </si>
   <si>
@@ -1463,19 +1465,57 @@
   </si>
   <si>
     <t>复活陨星</t>
+  </si>
+  <si>
+    <t>天秤座（末日）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英灵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光龙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小阻碍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>月樱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>月女*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>死域军神</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1514,8 +1554,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1596,27 +1643,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1667,15 +1699,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1974,6 +2013,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2006,12 +2046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="L309" sqref="L309"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="H369" sqref="H369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2025,7 +2064,7 @@
     <col min="12" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2036,12 +2075,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
+    <row r="3" spans="1:11" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:10">
+    <row r="4" spans="1:11" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2096,7 +2135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:11">
+    <row r="5" spans="1:11" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2125,7 +2164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:4">
+    <row r="6" spans="1:11" s="6" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -2139,10 +2178,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:11">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:8">
+    <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:8">
+    <row r="9" spans="1:11" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2176,7 +2215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:11">
+    <row r="10" spans="1:11" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:9">
+    <row r="11" spans="1:11" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2217,7 +2256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:11">
+    <row r="12" spans="1:11" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2246,7 +2285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:4">
+    <row r="13" spans="1:11" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2260,10 +2299,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:11">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
+    <row r="15" spans="1:11" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:2">
+    <row r="16" spans="1:11" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2288,7 +2327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:10">
+    <row r="17" spans="1:11" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:11">
+    <row r="18" spans="1:11" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -2334,7 +2373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:11">
+    <row r="19" spans="1:11" s="5" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2363,7 +2402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:4">
+    <row r="20" spans="1:11" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2377,10 +2416,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="2:2">
+    <row r="21" spans="1:11" s="7" customFormat="1">
       <c r="B21" s="19"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
+    <row r="22" spans="1:11" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:10">
+    <row r="23" spans="1:11" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2417,7 +2456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:9">
+    <row r="24" spans="1:11" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:8">
+    <row r="25" spans="1:11" s="4" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:11">
+    <row r="26" spans="1:11" s="5" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2483,7 +2522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:4">
+    <row r="27" spans="1:11" s="6" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -2497,10 +2536,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="2:2">
+    <row r="28" spans="1:11" s="7" customFormat="1">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:9">
+    <row r="29" spans="1:11" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:8">
+    <row r="30" spans="1:11" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2531,7 +2570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:9">
+    <row r="31" spans="1:11" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:9">
+    <row r="32" spans="1:11" s="4" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2571,7 +2610,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" spans="1:11">
+    <row r="33" spans="1:16" s="5" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -2600,7 +2639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:4">
+    <row r="34" spans="1:16" s="6" customFormat="1">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -2614,12 +2653,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:1">
+    <row r="35" spans="1:16" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
+    <row r="36" spans="1:16" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:3">
+    <row r="37" spans="1:16" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -2641,7 +2680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:10">
+    <row r="38" spans="1:16" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2661,7 +2700,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1" spans="1:11">
+    <row r="39" spans="1:16" s="4" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2690,7 +2729,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:11">
+    <row r="40" spans="1:16" s="6" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
@@ -2719,7 +2758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" s="8" customFormat="1" spans="1:4">
+    <row r="41" spans="1:16" s="8" customFormat="1">
       <c r="A41" s="8" t="s">
         <v>30</v>
       </c>
@@ -2733,10 +2772,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:16">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:13">
+    <row r="43" spans="1:16" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +2792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:15">
+    <row r="44" spans="1:16" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2782,7 +2821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:15">
+    <row r="45" spans="1:16" s="3" customFormat="1">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2814,7 +2853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:14">
+    <row r="46" spans="1:16" s="4" customFormat="1">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2840,7 +2879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" s="5" customFormat="1" spans="1:16">
+    <row r="47" spans="1:16" s="5" customFormat="1">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
@@ -2881,7 +2920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" s="6" customFormat="1" spans="1:4">
+    <row r="48" spans="1:16" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -2895,8 +2934,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1"/>
-    <row r="50" s="1" customFormat="1" spans="1:19">
+    <row r="49" spans="1:22" s="7" customFormat="1"/>
+    <row r="50" spans="1:22" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2964,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:15">
+    <row r="51" spans="1:22" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
@@ -2942,7 +2981,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:20">
+    <row r="52" spans="1:22" s="3" customFormat="1">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2962,7 +3001,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" spans="1:22">
+    <row r="53" spans="1:22" s="4" customFormat="1">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -3012,7 +3051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" s="5" customFormat="1" spans="1:22">
+    <row r="54" spans="1:22" s="5" customFormat="1">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -3065,7 +3104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" s="6" customFormat="1" spans="1:19">
+    <row r="55" spans="1:22" s="6" customFormat="1">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -3085,12 +3124,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:22">
       <c r="A56" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:11">
+    <row r="57" spans="1:22" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3113,7 +3152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:3">
+    <row r="58" spans="1:22" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -3124,7 +3163,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1" spans="1:8">
+    <row r="59" spans="1:22" s="3" customFormat="1">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3147,7 +3186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" s="4" customFormat="1" spans="1:8">
+    <row r="60" spans="1:22" s="4" customFormat="1">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -3158,7 +3197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="1" spans="1:11">
+    <row r="61" spans="1:22" s="5" customFormat="1">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -3187,7 +3226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" s="6" customFormat="1" spans="1:4">
+    <row r="62" spans="1:22" s="6" customFormat="1">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -3201,8 +3240,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1"/>
-    <row r="64" s="1" customFormat="1" spans="1:10">
+    <row r="63" spans="1:22" s="7" customFormat="1"/>
+    <row r="64" spans="1:22" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3264,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:9">
+    <row r="65" spans="1:11" s="2" customFormat="1">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -3242,7 +3281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" s="3" customFormat="1" spans="1:9">
+    <row r="66" spans="1:11" s="3" customFormat="1">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3259,7 +3298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" s="4" customFormat="1" spans="1:8">
+    <row r="67" spans="1:11" s="4" customFormat="1">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -3276,7 +3315,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:11">
+    <row r="68" spans="1:11" s="5" customFormat="1">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3305,7 +3344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" s="6" customFormat="1" spans="1:4">
+    <row r="69" spans="1:11" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -3319,10 +3358,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:11">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:9">
+    <row r="71" spans="1:11" s="1" customFormat="1">
       <c r="A71" s="25" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3378,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:9">
+    <row r="72" spans="1:11" s="2" customFormat="1">
       <c r="A72" s="26" t="s">
         <v>3</v>
       </c>
@@ -3362,7 +3401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" s="3" customFormat="1" spans="1:9">
+    <row r="73" spans="1:11" s="3" customFormat="1">
       <c r="A73" s="27" t="s">
         <v>4</v>
       </c>
@@ -3379,7 +3418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" s="4" customFormat="1" spans="1:9">
+    <row r="74" spans="1:11" s="4" customFormat="1">
       <c r="A74" s="28" t="s">
         <v>12</v>
       </c>
@@ -3393,7 +3432,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" s="5" customFormat="1" spans="1:11">
+    <row r="75" spans="1:11" s="5" customFormat="1">
       <c r="A75" s="29" t="s">
         <v>21</v>
       </c>
@@ -3422,7 +3461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" spans="1:4">
+    <row r="76" spans="1:11" s="6" customFormat="1">
       <c r="A76" s="30" t="s">
         <v>30</v>
       </c>
@@ -3436,7 +3475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:11">
+    <row r="78" spans="1:11" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3499,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" s="2" customFormat="1" spans="1:9">
+    <row r="79" spans="1:11" s="2" customFormat="1">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -3483,7 +3522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1" spans="1:8">
+    <row r="80" spans="1:11" s="3" customFormat="1">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -3497,7 +3536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" s="4" customFormat="1" spans="1:9">
+    <row r="81" spans="1:16" s="4" customFormat="1">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
@@ -3511,7 +3550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" s="5" customFormat="1" spans="1:11">
+    <row r="82" spans="1:16" s="5" customFormat="1">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -3540,7 +3579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" s="6" customFormat="1" spans="1:4">
+    <row r="83" spans="1:16" s="6" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>30</v>
       </c>
@@ -3554,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:3">
+    <row r="85" spans="1:16" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3563,7 +3602,7 @@
       </c>
       <c r="C85" s="17"/>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:9">
+    <row r="86" spans="1:16" s="2" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -3580,7 +3619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="1" spans="1:11">
+    <row r="87" spans="1:16" s="3" customFormat="1">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -3606,7 +3645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" s="4" customFormat="1" spans="1:11">
+    <row r="88" spans="1:16" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -3635,7 +3674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" s="5" customFormat="1" spans="1:11">
+    <row r="89" spans="1:16" s="5" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" s="6" customFormat="1" spans="1:4">
+    <row r="90" spans="1:16" s="6" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>30</v>
       </c>
@@ -3678,7 +3717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" spans="1:16">
+    <row r="92" spans="1:16" s="1" customFormat="1">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3743,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" spans="1:14">
+    <row r="93" spans="1:16" s="2" customFormat="1">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -3727,7 +3766,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" spans="1:14">
+    <row r="94" spans="1:16" s="3" customFormat="1">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3753,7 +3792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" s="4" customFormat="1" spans="1:13">
+    <row r="95" spans="1:16" s="4" customFormat="1">
       <c r="A95" s="4" t="s">
         <v>12</v>
       </c>
@@ -3782,7 +3821,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" s="5" customFormat="1" spans="1:16">
+    <row r="96" spans="1:16" s="5" customFormat="1">
       <c r="A96" s="5" t="s">
         <v>21</v>
       </c>
@@ -3823,7 +3862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="1" spans="1:4">
+    <row r="97" spans="1:17" s="6" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>30</v>
       </c>
@@ -3837,7 +3876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="1:11">
+    <row r="99" spans="1:17" s="1" customFormat="1">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -3860,7 +3899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:8">
+    <row r="100" spans="1:17" s="2" customFormat="1">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +3913,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" s="3" customFormat="1" spans="1:8">
+    <row r="101" spans="1:17" s="3" customFormat="1">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3888,7 +3927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" s="4" customFormat="1" spans="1:9">
+    <row r="102" spans="1:17" s="4" customFormat="1">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
@@ -3911,7 +3950,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" s="5" customFormat="1" spans="1:11">
+    <row r="103" spans="1:17" s="5" customFormat="1">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -3940,7 +3979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" s="6" customFormat="1" spans="1:4">
+    <row r="104" spans="1:17" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>30</v>
       </c>
@@ -3954,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" spans="1:4">
+    <row r="106" spans="1:17" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -3968,7 +4007,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" spans="1:14">
+    <row r="107" spans="1:17" s="2" customFormat="1">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
@@ -3985,7 +4024,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" s="3" customFormat="1" spans="1:17">
+    <row r="108" spans="1:17" s="3" customFormat="1">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -4013,7 +4052,7 @@
       </c>
       <c r="Q108" s="22"/>
     </row>
-    <row r="109" s="4" customFormat="1" spans="1:17">
+    <row r="109" spans="1:17" s="4" customFormat="1">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -4057,7 +4096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="1" spans="1:17">
+    <row r="110" spans="1:17" s="5" customFormat="1">
       <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
@@ -4098,7 +4137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" s="6" customFormat="1" spans="1:14">
+    <row r="111" spans="1:17" s="6" customFormat="1">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -4115,7 +4154,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" spans="1:13">
+    <row r="113" spans="1:16" s="1" customFormat="1">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4137,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:5">
+    <row r="114" spans="1:16" s="2" customFormat="1">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -4150,7 +4189,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" s="3" customFormat="1" spans="1:16">
+    <row r="115" spans="1:16" s="3" customFormat="1">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
@@ -4180,7 +4219,7 @@
       </c>
       <c r="P115" s="22"/>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:16">
+    <row r="116" spans="1:16" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
         <v>12</v>
       </c>
@@ -4215,7 +4254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" s="5" customFormat="1" spans="1:16">
+    <row r="117" spans="1:16" s="5" customFormat="1">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -4256,7 +4295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" s="6" customFormat="1" spans="1:4">
+    <row r="118" spans="1:16" s="6" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -4270,12 +4309,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" spans="1:9">
+    <row r="120" spans="1:16" s="1" customFormat="1">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4295,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" spans="1:9">
+    <row r="121" spans="1:16" s="2" customFormat="1">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
@@ -4306,7 +4345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" s="3" customFormat="1" spans="1:9">
+    <row r="122" spans="1:16" s="3" customFormat="1">
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
@@ -4326,7 +4365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:10">
+    <row r="123" spans="1:16" s="4" customFormat="1">
       <c r="A123" s="4" t="s">
         <v>12</v>
       </c>
@@ -4352,7 +4391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" s="5" customFormat="1" spans="1:11">
+    <row r="124" spans="1:16" s="5" customFormat="1">
       <c r="A124" s="5" t="s">
         <v>21</v>
       </c>
@@ -4381,7 +4420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" s="6" customFormat="1" spans="1:4">
+    <row r="125" spans="1:16" s="6" customFormat="1">
       <c r="A125" s="6" t="s">
         <v>30</v>
       </c>
@@ -4395,7 +4434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" spans="1:8">
+    <row r="127" spans="1:16" s="1" customFormat="1">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -4415,7 +4454,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:2">
+    <row r="128" spans="1:16" s="2" customFormat="1">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -4423,7 +4462,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="129" s="3" customFormat="1" spans="1:11">
+    <row r="129" spans="1:11" s="3" customFormat="1">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -4440,7 +4479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" s="4" customFormat="1" spans="1:11">
+    <row r="130" spans="1:11" s="4" customFormat="1">
       <c r="A130" s="4" t="s">
         <v>12</v>
       </c>
@@ -4469,7 +4508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" s="5" customFormat="1" spans="1:11">
+    <row r="131" spans="1:11" s="5" customFormat="1">
       <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
@@ -4498,7 +4537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" s="6" customFormat="1" spans="1:4">
+    <row r="132" spans="1:11" s="6" customFormat="1">
       <c r="A132" s="6" t="s">
         <v>30</v>
       </c>
@@ -4512,11 +4551,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" s="7" customFormat="1" spans="2:4">
+    <row r="133" spans="1:11" s="7" customFormat="1">
       <c r="B133" s="19"/>
       <c r="D133" s="19"/>
     </row>
-    <row r="134" s="1" customFormat="1" spans="1:10">
+    <row r="134" spans="1:11" s="1" customFormat="1">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -4548,7 +4587,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:8">
+    <row r="135" spans="1:11" s="2" customFormat="1">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -4556,7 +4595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" s="3" customFormat="1" spans="1:10">
+    <row r="136" spans="1:11" s="3" customFormat="1">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
@@ -4582,7 +4621,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" s="4" customFormat="1" spans="1:8">
+    <row r="137" spans="1:11" s="4" customFormat="1">
       <c r="A137" s="4" t="s">
         <v>12</v>
       </c>
@@ -4591,7 +4630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" s="5" customFormat="1" spans="1:11">
+    <row r="138" spans="1:11" s="5" customFormat="1">
       <c r="A138" s="5" t="s">
         <v>21</v>
       </c>
@@ -4620,7 +4659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" s="6" customFormat="1" spans="1:4">
+    <row r="139" spans="1:11" s="6" customFormat="1">
       <c r="A139" s="6" t="s">
         <v>30</v>
       </c>
@@ -4634,7 +4673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" spans="1:9">
+    <row r="141" spans="1:11" s="1" customFormat="1">
       <c r="A141" s="32" t="s">
         <v>0</v>
       </c>
@@ -4660,7 +4699,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" spans="1:10">
+    <row r="142" spans="1:11" s="2" customFormat="1">
       <c r="A142" s="33" t="s">
         <v>3</v>
       </c>
@@ -4689,7 +4728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" s="3" customFormat="1" spans="1:9">
+    <row r="143" spans="1:11" s="3" customFormat="1">
       <c r="A143" s="34" t="s">
         <v>4</v>
       </c>
@@ -4700,7 +4739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" s="4" customFormat="1" spans="1:8">
+    <row r="144" spans="1:11" s="4" customFormat="1">
       <c r="A144" s="35" t="s">
         <v>12</v>
       </c>
@@ -4708,7 +4747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" s="5" customFormat="1" spans="1:11">
+    <row r="145" spans="1:11" s="5" customFormat="1">
       <c r="A145" s="36" t="s">
         <v>21</v>
       </c>
@@ -4737,7 +4776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" s="6" customFormat="1" spans="1:4">
+    <row r="146" spans="1:11" s="6" customFormat="1">
       <c r="A146" s="6" t="s">
         <v>30</v>
       </c>
@@ -4751,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" spans="1:10">
+    <row r="148" spans="1:11" s="1" customFormat="1">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +4814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" spans="1:9">
+    <row r="149" spans="1:11" s="2" customFormat="1">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -4792,7 +4831,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" s="3" customFormat="1" spans="1:8">
+    <row r="150" spans="1:11" s="3" customFormat="1">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -4809,7 +4848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" s="4" customFormat="1" spans="1:9">
+    <row r="151" spans="1:11" s="4" customFormat="1">
       <c r="A151" s="4" t="s">
         <v>12</v>
       </c>
@@ -4826,7 +4865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" s="5" customFormat="1" spans="1:11">
+    <row r="152" spans="1:11" s="5" customFormat="1">
       <c r="A152" s="5" t="s">
         <v>21</v>
       </c>
@@ -4855,7 +4894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" s="6" customFormat="1" spans="1:4">
+    <row r="153" spans="1:11" s="6" customFormat="1">
       <c r="A153" s="6" t="s">
         <v>30</v>
       </c>
@@ -4869,7 +4908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" spans="1:8">
+    <row r="155" spans="1:11" s="1" customFormat="1">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -4881,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:8">
+    <row r="156" spans="1:11" s="2" customFormat="1">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
@@ -4904,7 +4943,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" s="3" customFormat="1" spans="1:10">
+    <row r="157" spans="1:11" s="3" customFormat="1">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
@@ -4918,7 +4957,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" s="4" customFormat="1" spans="1:10">
+    <row r="158" spans="1:11" s="4" customFormat="1">
       <c r="A158" s="4" t="s">
         <v>12</v>
       </c>
@@ -4947,7 +4986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" s="5" customFormat="1" spans="1:11">
+    <row r="159" spans="1:11" s="5" customFormat="1">
       <c r="A159" s="5" t="s">
         <v>21</v>
       </c>
@@ -4976,7 +5015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" s="6" customFormat="1" spans="1:4">
+    <row r="160" spans="1:11" s="6" customFormat="1">
       <c r="A160" s="6" t="s">
         <v>30</v>
       </c>
@@ -4990,7 +5029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" spans="1:11">
+    <row r="162" spans="1:11" s="1" customFormat="1">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -5022,7 +5061,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:9">
+    <row r="163" spans="1:11" s="2" customFormat="1">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
@@ -5033,7 +5072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" s="3" customFormat="1" spans="1:8">
+    <row r="164" spans="1:11" s="3" customFormat="1">
       <c r="A164" s="3" t="s">
         <v>4</v>
       </c>
@@ -5041,7 +5080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" s="4" customFormat="1" spans="1:8">
+    <row r="165" spans="1:11" s="4" customFormat="1">
       <c r="A165" s="4" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +5103,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" s="5" customFormat="1" spans="1:11">
+    <row r="166" spans="1:11" s="5" customFormat="1">
       <c r="A166" s="5" t="s">
         <v>21</v>
       </c>
@@ -5093,7 +5132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" s="6" customFormat="1" spans="1:4">
+    <row r="167" spans="1:11" s="6" customFormat="1">
       <c r="A167" s="6" t="s">
         <v>30</v>
       </c>
@@ -5107,7 +5146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" spans="1:8">
+    <row r="176" spans="1:11" s="1" customFormat="1">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:9">
+    <row r="177" spans="1:11" s="2" customFormat="1">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
@@ -5141,7 +5180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" s="3" customFormat="1" spans="1:10">
+    <row r="178" spans="1:11" s="3" customFormat="1">
       <c r="A178" s="3" t="s">
         <v>4</v>
       </c>
@@ -5170,7 +5209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" s="4" customFormat="1" spans="1:10">
+    <row r="179" spans="1:11" s="4" customFormat="1">
       <c r="A179" s="4" t="s">
         <v>12</v>
       </c>
@@ -5186,7 +5225,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" s="5" customFormat="1" spans="1:11">
+    <row r="180" spans="1:11" s="5" customFormat="1">
       <c r="A180" s="5" t="s">
         <v>21</v>
       </c>
@@ -5215,7 +5254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" s="6" customFormat="1" spans="1:4">
+    <row r="181" spans="1:11" s="6" customFormat="1">
       <c r="A181" s="6" t="s">
         <v>30</v>
       </c>
@@ -5229,7 +5268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" spans="1:10">
+    <row r="183" spans="1:11" s="1" customFormat="1">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -5256,7 +5295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" spans="1:8">
+    <row r="184" spans="1:11" s="2" customFormat="1">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
@@ -5276,7 +5315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="185" s="3" customFormat="1" spans="1:8">
+    <row r="185" spans="1:11" s="3" customFormat="1">
       <c r="A185" s="3" t="s">
         <v>4</v>
       </c>
@@ -5290,7 +5329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" s="4" customFormat="1" spans="1:9">
+    <row r="186" spans="1:11" s="4" customFormat="1">
       <c r="A186" s="4" t="s">
         <v>12</v>
       </c>
@@ -5303,7 +5342,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" s="5" customFormat="1" spans="1:11">
+    <row r="187" spans="1:11" s="5" customFormat="1">
       <c r="A187" s="5" t="s">
         <v>21</v>
       </c>
@@ -5332,7 +5371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" s="6" customFormat="1" spans="1:4">
+    <row r="188" spans="1:11" s="6" customFormat="1">
       <c r="A188" s="6" t="s">
         <v>30</v>
       </c>
@@ -5346,7 +5385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" spans="1:8">
+    <row r="190" spans="1:11" s="1" customFormat="1">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" spans="1:8">
+    <row r="191" spans="1:11" s="2" customFormat="1">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
@@ -5382,7 +5421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" s="3" customFormat="1" spans="1:10">
+    <row r="192" spans="1:11" s="3" customFormat="1">
       <c r="A192" s="3" t="s">
         <v>4</v>
       </c>
@@ -5411,7 +5450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="193" s="4" customFormat="1" spans="1:10">
+    <row r="193" spans="1:18" s="4" customFormat="1">
       <c r="A193" s="4" t="s">
         <v>12</v>
       </c>
@@ -5427,7 +5466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="194" s="5" customFormat="1" spans="1:11">
+    <row r="194" spans="1:18" s="5" customFormat="1">
       <c r="A194" s="5" t="s">
         <v>21</v>
       </c>
@@ -5456,7 +5495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" s="6" customFormat="1" spans="1:4">
+    <row r="195" spans="1:18" s="6" customFormat="1">
       <c r="A195" s="6" t="s">
         <v>30</v>
       </c>
@@ -5470,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" s="1" customFormat="1" spans="1:15">
+    <row r="197" spans="1:18" s="1" customFormat="1">
       <c r="A197" s="32" t="s">
         <v>0</v>
       </c>
@@ -5509,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" spans="1:8">
+    <row r="198" spans="1:18" s="2" customFormat="1">
       <c r="A198" s="33" t="s">
         <v>3</v>
       </c>
@@ -5529,7 +5568,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="199" s="3" customFormat="1" spans="1:18">
+    <row r="199" spans="1:18" s="3" customFormat="1">
       <c r="A199" s="34" t="s">
         <v>4</v>
       </c>
@@ -5556,7 +5595,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="200" s="4" customFormat="1" spans="1:18">
+    <row r="200" spans="1:18" s="4" customFormat="1">
       <c r="A200" s="35" t="s">
         <v>12</v>
       </c>
@@ -5578,7 +5617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" s="5" customFormat="1" spans="1:18">
+    <row r="201" spans="1:18" s="5" customFormat="1">
       <c r="A201" s="36" t="s">
         <v>21</v>
       </c>
@@ -5619,7 +5658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" s="6" customFormat="1" spans="1:4">
+    <row r="202" spans="1:18" s="6" customFormat="1">
       <c r="A202" s="6" t="s">
         <v>30</v>
       </c>
@@ -5633,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" s="1" customFormat="1" spans="1:6">
+    <row r="211" spans="1:11" s="1" customFormat="1">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5687,7 @@
       </c>
       <c r="F211" s="17"/>
     </row>
-    <row r="212" s="2" customFormat="1" spans="1:6">
+    <row r="212" spans="1:11" s="2" customFormat="1">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -5666,7 +5705,7 @@
       </c>
       <c r="F212" s="21"/>
     </row>
-    <row r="213" s="3" customFormat="1" spans="1:10">
+    <row r="213" spans="1:11" s="3" customFormat="1">
       <c r="A213" s="3" t="s">
         <v>4</v>
       </c>
@@ -5689,7 +5728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="214" s="4" customFormat="1" spans="1:11">
+    <row r="214" spans="1:11" s="4" customFormat="1">
       <c r="A214" s="4" t="s">
         <v>12</v>
       </c>
@@ -5711,7 +5750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" s="5" customFormat="1" spans="1:11">
+    <row r="215" spans="1:11" s="5" customFormat="1">
       <c r="A215" s="5" t="s">
         <v>21</v>
       </c>
@@ -5740,7 +5779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" s="6" customFormat="1" spans="1:4">
+    <row r="216" spans="1:11" s="6" customFormat="1">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -5754,7 +5793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" s="1" customFormat="1" spans="1:8">
+    <row r="218" spans="1:11" s="1" customFormat="1">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -5770,7 +5809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" spans="1:8">
+    <row r="219" spans="1:11" s="2" customFormat="1">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" s="3" customFormat="1" spans="1:10">
+    <row r="220" spans="1:11" s="3" customFormat="1">
       <c r="A220" s="3" t="s">
         <v>4</v>
       </c>
@@ -5812,7 +5851,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" s="4" customFormat="1" spans="1:10">
+    <row r="221" spans="1:11" s="4" customFormat="1">
       <c r="A221" s="4" t="s">
         <v>12</v>
       </c>
@@ -5834,7 +5873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" s="5" customFormat="1" spans="1:11">
+    <row r="222" spans="1:11" s="5" customFormat="1">
       <c r="A222" s="5" t="s">
         <v>21</v>
       </c>
@@ -5863,7 +5902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" s="6" customFormat="1" spans="1:4">
+    <row r="223" spans="1:11" s="6" customFormat="1">
       <c r="A223" s="6" t="s">
         <v>30</v>
       </c>
@@ -5877,7 +5916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" s="1" customFormat="1" spans="1:6">
+    <row r="239" spans="1:6" s="1" customFormat="1">
       <c r="A239" s="1" t="s">
         <v>0</v>
       </c>
@@ -5886,7 +5925,7 @@
       <c r="D239" s="17"/>
       <c r="F239" s="16"/>
     </row>
-    <row r="240" s="2" customFormat="1" spans="1:6">
+    <row r="240" spans="1:6" s="2" customFormat="1">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
@@ -5904,7 +5943,7 @@
       </c>
       <c r="F240" s="21"/>
     </row>
-    <row r="241" s="3" customFormat="1" spans="1:10">
+    <row r="241" spans="1:16" s="3" customFormat="1">
       <c r="A241" s="3" t="s">
         <v>4</v>
       </c>
@@ -5933,7 +5972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="242" s="4" customFormat="1" spans="1:11">
+    <row r="242" spans="1:16" s="4" customFormat="1">
       <c r="A242" s="4" t="s">
         <v>12</v>
       </c>
@@ -5954,7 +5993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" s="5" customFormat="1" spans="1:11">
+    <row r="243" spans="1:16" s="5" customFormat="1">
       <c r="A243" s="5" t="s">
         <v>21</v>
       </c>
@@ -5983,7 +6022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" s="6" customFormat="1" spans="1:4">
+    <row r="244" spans="1:16" s="6" customFormat="1">
       <c r="A244" s="6" t="s">
         <v>30</v>
       </c>
@@ -5997,7 +6036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" spans="1:16">
+    <row r="246" spans="1:16" s="1" customFormat="1">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
@@ -6029,7 +6068,7 @@
       <c r="O246" s="16"/>
       <c r="P246" s="16"/>
     </row>
-    <row r="247" s="2" customFormat="1" spans="1:16">
+    <row r="247" spans="1:16" s="2" customFormat="1">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
@@ -6060,7 +6099,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="248" s="3" customFormat="1" spans="1:15">
+    <row r="248" spans="1:16" s="3" customFormat="1">
       <c r="A248" s="3" t="s">
         <v>4</v>
       </c>
@@ -6092,7 +6131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" s="4" customFormat="1" spans="1:14">
+    <row r="249" spans="1:16" s="4" customFormat="1">
       <c r="A249" s="4" t="s">
         <v>12</v>
       </c>
@@ -6125,7 +6164,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="250" s="5" customFormat="1" spans="1:16">
+    <row r="250" spans="1:16" s="5" customFormat="1">
       <c r="A250" s="5" t="s">
         <v>21</v>
       </c>
@@ -6166,7 +6205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" s="6" customFormat="1" spans="1:4">
+    <row r="251" spans="1:16" s="6" customFormat="1">
       <c r="A251" s="6" t="s">
         <v>30</v>
       </c>
@@ -6180,7 +6219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" s="1" customFormat="1" spans="1:9">
+    <row r="253" spans="1:16" s="1" customFormat="1">
       <c r="A253" s="1" t="s">
         <v>0</v>
       </c>
@@ -6206,7 +6245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" s="2" customFormat="1" spans="1:8">
+    <row r="254" spans="1:16" s="2" customFormat="1">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
@@ -6232,7 +6271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="255" s="3" customFormat="1" spans="1:11">
+    <row r="255" spans="1:16" s="3" customFormat="1">
       <c r="A255" s="3" t="s">
         <v>4</v>
       </c>
@@ -6253,7 +6292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" s="4" customFormat="1" spans="1:9">
+    <row r="256" spans="1:16" s="4" customFormat="1">
       <c r="A256" s="4" t="s">
         <v>12</v>
       </c>
@@ -6268,7 +6307,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:11">
+    <row r="257" spans="1:11" s="5" customFormat="1">
       <c r="A257" s="5" t="s">
         <v>21</v>
       </c>
@@ -6297,7 +6336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" s="6" customFormat="1" spans="1:4">
+    <row r="258" spans="1:11" s="6" customFormat="1">
       <c r="A258" s="6" t="s">
         <v>30</v>
       </c>
@@ -6307,7 +6346,7 @@
       </c>
       <c r="D258" s="8"/>
     </row>
-    <row r="260" s="1" customFormat="1" spans="1:9">
+    <row r="260" spans="1:11" s="1" customFormat="1">
       <c r="A260" s="1" t="s">
         <v>0</v>
       </c>
@@ -6331,7 +6370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="1" spans="1:8">
+    <row r="261" spans="1:11" s="2" customFormat="1">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
@@ -6352,7 +6391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="262" s="3" customFormat="1" spans="1:11">
+    <row r="262" spans="1:11" s="3" customFormat="1">
       <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
@@ -6381,7 +6420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" s="4" customFormat="1" spans="1:9">
+    <row r="263" spans="1:11" s="4" customFormat="1">
       <c r="A263" s="4" t="s">
         <v>12</v>
       </c>
@@ -6397,7 +6436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:11">
+    <row r="264" spans="1:11" s="5" customFormat="1">
       <c r="A264" s="5" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" s="6" customFormat="1" spans="1:4">
+    <row r="265" spans="1:11" s="6" customFormat="1">
       <c r="A265" s="6" t="s">
         <v>30</v>
       </c>
@@ -6436,12 +6475,12 @@
       </c>
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:11">
       <c r="A266" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="267" s="1" customFormat="1" spans="1:6">
+    <row r="267" spans="1:11" s="1" customFormat="1">
       <c r="A267" s="1" t="s">
         <v>0</v>
       </c>
@@ -6459,7 +6498,7 @@
       </c>
       <c r="F267" s="17"/>
     </row>
-    <row r="268" s="2" customFormat="1" spans="1:6">
+    <row r="268" spans="1:11" s="2" customFormat="1">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
@@ -6477,7 +6516,7 @@
       </c>
       <c r="F268" s="21"/>
     </row>
-    <row r="269" s="3" customFormat="1" spans="1:10">
+    <row r="269" spans="1:11" s="3" customFormat="1">
       <c r="A269" s="3" t="s">
         <v>4</v>
       </c>
@@ -6498,7 +6537,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="270" s="4" customFormat="1" spans="1:11">
+    <row r="270" spans="1:11" s="4" customFormat="1">
       <c r="A270" s="4" t="s">
         <v>12</v>
       </c>
@@ -6520,7 +6559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" spans="1:11">
+    <row r="271" spans="1:11" s="5" customFormat="1">
       <c r="A271" s="5" t="s">
         <v>21</v>
       </c>
@@ -6549,7 +6588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" s="6" customFormat="1" spans="1:4">
+    <row r="272" spans="1:11" s="6" customFormat="1">
       <c r="A272" s="6" t="s">
         <v>30</v>
       </c>
@@ -6563,7 +6602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" s="1" customFormat="1" spans="1:10">
+    <row r="274" spans="1:11" s="1" customFormat="1">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
@@ -6592,7 +6631,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="1" spans="1:9">
+    <row r="275" spans="1:11" s="2" customFormat="1">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -6607,7 +6646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="276" s="3" customFormat="1" spans="1:5">
+    <row r="276" spans="1:11" s="3" customFormat="1">
       <c r="A276" s="3" t="s">
         <v>4</v>
       </c>
@@ -6616,7 +6655,7 @@
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" s="4" customFormat="1" spans="1:9">
+    <row r="277" spans="1:11" s="4" customFormat="1">
       <c r="A277" s="4" t="s">
         <v>12</v>
       </c>
@@ -6642,7 +6681,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="278" s="5" customFormat="1" spans="1:11">
+    <row r="278" spans="1:11" s="5" customFormat="1">
       <c r="A278" s="5" t="s">
         <v>21</v>
       </c>
@@ -6671,7 +6710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" s="6" customFormat="1" spans="1:4">
+    <row r="279" spans="1:11" s="6" customFormat="1">
       <c r="A279" s="6" t="s">
         <v>30</v>
       </c>
@@ -6685,7 +6724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" spans="1:9">
+    <row r="287" spans="1:11" s="1" customFormat="1">
       <c r="A287" s="1" t="s">
         <v>0</v>
       </c>
@@ -6703,7 +6742,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" s="2" customFormat="1" spans="1:11">
+    <row r="288" spans="1:11" s="2" customFormat="1">
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
@@ -6726,7 +6765,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="289" s="3" customFormat="1" spans="1:9">
+    <row r="289" spans="1:11" s="3" customFormat="1">
       <c r="A289" s="3" t="s">
         <v>4</v>
       </c>
@@ -6750,7 +6789,7 @@
       </c>
       <c r="I289" s="22"/>
     </row>
-    <row r="290" s="4" customFormat="1" spans="1:10">
+    <row r="290" spans="1:11" s="4" customFormat="1">
       <c r="A290" s="4" t="s">
         <v>12</v>
       </c>
@@ -6770,13 +6809,13 @@
         <v>62</v>
       </c>
       <c r="I290" s="14" t="s">
-        <v>20</v>
+        <v>465</v>
       </c>
       <c r="J290" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="291" s="5" customFormat="1" spans="1:11">
+    <row r="291" spans="1:11" s="5" customFormat="1">
       <c r="A291" s="5" t="s">
         <v>21</v>
       </c>
@@ -6805,7 +6844,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" s="6" customFormat="1" spans="1:4">
+    <row r="292" spans="1:11" s="6" customFormat="1">
       <c r="A292" s="6" t="s">
         <v>30</v>
       </c>
@@ -6819,12 +6858,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" spans="1:10">
+    <row r="295" spans="1:11" s="1" customFormat="1">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
@@ -6847,8 +6886,11 @@
       <c r="J295" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="296" s="2" customFormat="1" spans="1:10">
+      <c r="K295" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" s="2" customFormat="1">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
@@ -6866,7 +6908,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="297" s="3" customFormat="1" spans="1:9">
+    <row r="297" spans="1:11" s="3" customFormat="1">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
@@ -6885,11 +6927,8 @@
       <c r="H297" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I297" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="298" s="4" customFormat="1" spans="1:8">
+    </row>
+    <row r="298" spans="1:11" s="4" customFormat="1">
       <c r="A298" s="4" t="s">
         <v>12</v>
       </c>
@@ -6897,19 +6936,19 @@
         <v>177</v>
       </c>
       <c r="C298" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D298" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D298" s="4" t="s">
+      <c r="E298" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="E298" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:11">
+    <row r="299" spans="1:11" s="5" customFormat="1">
       <c r="A299" s="5" t="s">
         <v>21</v>
       </c>
@@ -6938,7 +6977,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="300" s="6" customFormat="1" spans="1:8">
+    <row r="300" spans="1:11" s="6" customFormat="1">
       <c r="A300" s="6" t="s">
         <v>30</v>
       </c>
@@ -6952,42 +6991,46 @@
         <v>7</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="302" s="1" customFormat="1" spans="1:9">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" s="1" customFormat="1">
       <c r="A302" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C302" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="D302" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D302" s="16" t="s">
-        <v>366</v>
-      </c>
       <c r="F302" s="17"/>
-      <c r="H302" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I302" s="16"/>
-    </row>
-    <row r="303" s="2" customFormat="1" spans="1:10">
+      <c r="H302" s="46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" s="2" customFormat="1">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B303" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C303" s="20" t="s">
         <v>367</v>
-      </c>
-      <c r="C303" s="20" t="s">
-        <v>368</v>
       </c>
       <c r="D303" s="20"/>
       <c r="F303" s="20"/>
-      <c r="H303" s="2" t="s">
-        <v>72</v>
+      <c r="H303" s="47" t="s">
+        <v>470</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>124</v>
@@ -6996,18 +7039,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" s="3" customFormat="1" spans="1:11">
+    <row r="304" spans="1:11" s="3" customFormat="1">
       <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C304" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="C304" s="22" t="s">
+      <c r="D304" s="42" t="s">
         <v>370</v>
-      </c>
-      <c r="D304" s="42" t="s">
-        <v>371</v>
       </c>
       <c r="E304" s="22"/>
       <c r="H304" s="3" t="s">
@@ -7017,30 +7060,27 @@
         <v>11</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K304" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="305" s="4" customFormat="1" spans="1:9">
+    <row r="305" spans="1:11" s="4" customFormat="1">
       <c r="A305" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B305" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C305" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C305" s="14" t="s">
+      <c r="D305" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D305" s="4" t="s">
+      <c r="E305" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E305" s="4" t="s">
+      <c r="F305" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>20</v>
@@ -7049,7 +7089,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:11">
+    <row r="306" spans="1:11" s="5" customFormat="1">
       <c r="A306" s="5" t="s">
         <v>21</v>
       </c>
@@ -7078,7 +7118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="307" s="6" customFormat="1" spans="1:4">
+    <row r="307" spans="1:11" s="6" customFormat="1">
       <c r="A307" s="6" t="s">
         <v>30</v>
       </c>
@@ -7088,12 +7128,12 @@
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="309" s="1" customFormat="1" spans="1:10">
+    <row r="309" spans="1:11" s="1" customFormat="1">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C309" s="17"/>
       <c r="D309" s="16"/>
@@ -7108,7 +7148,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="310" s="2" customFormat="1" spans="1:9">
+    <row r="310" spans="1:11" s="2" customFormat="1">
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
@@ -7123,45 +7163,45 @@
         <v>124</v>
       </c>
     </row>
-    <row r="311" s="3" customFormat="1" spans="1:7">
+    <row r="311" spans="1:11" s="3" customFormat="1">
       <c r="A311" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B311" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="D311" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D311" s="28" t="s">
+      <c r="E311" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="E311" s="10" t="s">
+      <c r="F311" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="F311" s="28" t="s">
-        <v>382</v>
-      </c>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" s="4" customFormat="1" spans="1:10">
+    <row r="312" spans="1:11" s="4" customFormat="1">
       <c r="A312" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B312" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C312" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="C312" s="40" t="s">
+      <c r="D312" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="D312" s="40" t="s">
+      <c r="E312" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E312" s="4" t="s">
+      <c r="F312" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="H312" s="4" t="s">
         <v>62</v>
@@ -7173,7 +7213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" spans="1:11">
+    <row r="313" spans="1:11" s="5" customFormat="1">
       <c r="A313" s="5" t="s">
         <v>21</v>
       </c>
@@ -7202,7 +7242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" spans="1:4">
+    <row r="314" spans="1:11" s="6" customFormat="1">
       <c r="A314" s="6" t="s">
         <v>30</v>
       </c>
@@ -7214,9 +7254,9 @@
       </c>
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -7224,16 +7264,16 @@
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C316" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C316" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -7276,14 +7316,14 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="C318" s="28" t="s">
         <v>392</v>
-      </c>
-      <c r="C318" s="28" t="s">
-        <v>393</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -7299,16 +7339,16 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C319" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C319" s="14" t="s">
+      <c r="D319" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="D319" s="10" t="s">
+      <c r="E319" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="E319" s="10" t="s">
-        <v>398</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -7372,10 +7412,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="C323" s="17" t="s">
         <v>399</v>
-      </c>
-      <c r="C323" s="17" t="s">
-        <v>400</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7395,16 +7435,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C324" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="C324" s="21" t="s">
+      <c r="D324" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="D324" s="21" t="s">
+      <c r="E324" s="20" t="s">
         <v>403</v>
-      </c>
-      <c r="E324" s="20" t="s">
-        <v>404</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7412,7 +7452,7 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
@@ -7426,13 +7466,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C325" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C325" s="20" t="s">
+      <c r="D325" s="21" t="s">
         <v>407</v>
-      </c>
-      <c r="D325" s="21" t="s">
-        <v>408</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
@@ -7449,10 +7489,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C326" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7522,22 +7562,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C330" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="C330" s="16" t="s">
+      <c r="D330" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E330" s="1" t="s">
+      <c r="F330" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="F330" s="17" t="s">
-        <v>415</v>
-      </c>
       <c r="G330" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -7555,16 +7595,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C331" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="C331" s="43" t="s">
+      <c r="D331" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="D331" s="21" t="s">
+      <c r="E331" s="20" t="s">
         <v>418</v>
-      </c>
-      <c r="E331" s="20" t="s">
-        <v>419</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7584,16 +7624,16 @@
         <v>4</v>
       </c>
       <c r="B332" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C332" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D332" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="E332" s="22" t="s">
         <v>420</v>
-      </c>
-      <c r="D332" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="E332" s="22" t="s">
-        <v>421</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7609,7 +7649,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7673,12 +7713,12 @@
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:11">
       <c r="A336" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="337" s="1" customFormat="1" spans="1:21">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" s="1" customFormat="1">
       <c r="A337" s="1" t="s">
         <v>0</v>
       </c>
@@ -7691,7 +7731,7 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -7700,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7715,13 +7755,13 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="338" s="2" customFormat="1" spans="1:19">
+    <row r="338" spans="1:21" s="2" customFormat="1">
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
@@ -7735,7 +7775,7 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F338" s="21" t="s">
         <v>300</v>
@@ -7762,15 +7802,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="339" s="3" customFormat="1" spans="1:18">
+    <row r="339" spans="1:21" s="3" customFormat="1">
       <c r="A339" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C339" s="21" t="s">
         <v>427</v>
-      </c>
-      <c r="C339" s="21" t="s">
-        <v>428</v>
       </c>
       <c r="D339" s="9"/>
       <c r="H339" s="3" t="s">
@@ -7789,24 +7829,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" s="4" customFormat="1" spans="1:14">
+    <row r="340" spans="1:21" s="4" customFormat="1">
       <c r="A340" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>357</v>
       </c>
       <c r="D340" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="E340" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="E340" s="14" t="s">
+      <c r="F340" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="F340" s="14" t="s">
-        <v>432</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
@@ -7818,7 +7858,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="341" s="5" customFormat="1" spans="1:21">
+    <row r="341" spans="1:21" s="5" customFormat="1">
       <c r="A341" s="5" t="s">
         <v>21</v>
       </c>
@@ -7871,7 +7911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" s="6" customFormat="1" spans="1:8">
+    <row r="342" spans="1:21" s="6" customFormat="1">
       <c r="A342" s="6" t="s">
         <v>30</v>
       </c>
@@ -7885,10 +7925,10 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="344" s="1" customFormat="1" spans="1:9">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" s="1" customFormat="1">
       <c r="A344" s="32" t="s">
         <v>0</v>
       </c>
@@ -7902,11 +7942,11 @@
       <c r="H344" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="I344" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" s="2" customFormat="1" spans="1:10">
+      <c r="I344" s="46" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" s="2" customFormat="1">
       <c r="A345" s="33" t="s">
         <v>3</v>
       </c>
@@ -7914,10 +7954,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D345" s="21" t="s">
         <v>434</v>
-      </c>
-      <c r="D345" s="21" t="s">
-        <v>435</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7931,18 +7971,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="346" s="3" customFormat="1" spans="1:9">
+    <row r="346" spans="1:21" s="3" customFormat="1">
       <c r="A346" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="C346" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="C346" s="22" t="s">
+      <c r="D346" s="22" t="s">
         <v>437</v>
-      </c>
-      <c r="D346" s="22" t="s">
-        <v>438</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -7954,21 +7994,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" s="4" customFormat="1" spans="1:10">
+    <row r="347" spans="1:21" s="4" customFormat="1">
       <c r="A347" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="E347" s="42" t="s">
         <v>440</v>
-      </c>
-      <c r="E347" s="42" t="s">
-        <v>441</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
@@ -7981,7 +8021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" s="5" customFormat="1" spans="1:11">
+    <row r="348" spans="1:21" s="5" customFormat="1">
       <c r="A348" s="36" t="s">
         <v>21</v>
       </c>
@@ -7997,8 +8037,8 @@
       <c r="E348" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H348" s="12" t="s">
-        <v>26</v>
+      <c r="H348" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="I348" s="38" t="s">
         <v>81</v>
@@ -8010,7 +8050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="349" s="6" customFormat="1" spans="1:4">
+    <row r="349" spans="1:21" s="6" customFormat="1">
       <c r="A349" s="6" t="s">
         <v>30</v>
       </c>
@@ -8020,12 +8060,12 @@
       </c>
       <c r="D349" s="8"/>
     </row>
-    <row r="351" s="1" customFormat="1" spans="1:17">
+    <row r="351" spans="1:21" s="1" customFormat="1">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8038,7 +8078,7 @@
         <v>2</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>311</v>
@@ -8053,30 +8093,30 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q351" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="Q351" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="352" s="2" customFormat="1" spans="1:14">
+    </row>
+    <row r="352" spans="1:21" s="2" customFormat="1">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B352" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="C352" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="C352" s="20" t="s">
+      <c r="D352" s="20" t="s">
         <v>446</v>
-      </c>
-      <c r="D352" s="20" t="s">
-        <v>447</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
@@ -8097,32 +8137,32 @@
         <v>313</v>
       </c>
     </row>
-    <row r="353" s="3" customFormat="1" spans="1:6">
+    <row r="353" spans="1:16" s="3" customFormat="1">
       <c r="A353" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="E353" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="E353" s="22" t="s">
+      <c r="F353" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="F353" s="22" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="354" s="4" customFormat="1" spans="1:13">
+    </row>
+    <row r="354" spans="1:16" s="4" customFormat="1">
       <c r="A354" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8138,7 +8178,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="355" s="5" customFormat="1" spans="1:16">
+    <row r="355" spans="1:16" s="5" customFormat="1">
       <c r="A355" s="5" t="s">
         <v>21</v>
       </c>
@@ -8179,7 +8219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" s="6" customFormat="1" spans="1:4">
+    <row r="356" spans="1:16" s="6" customFormat="1">
       <c r="A356" s="6" t="s">
         <v>30</v>
       </c>
@@ -8189,7 +8229,7 @@
       </c>
       <c r="D356" s="8"/>
     </row>
-    <row r="358" s="1" customFormat="1" spans="1:9">
+    <row r="358" spans="1:16" s="1" customFormat="1">
       <c r="A358" s="1" t="s">
         <v>0</v>
       </c>
@@ -8205,15 +8245,15 @@
         <v>311</v>
       </c>
     </row>
-    <row r="359" s="2" customFormat="1" spans="1:11">
+    <row r="359" spans="1:16" s="2" customFormat="1">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="C359" s="42" t="s">
         <v>454</v>
-      </c>
-      <c r="C359" s="42" t="s">
-        <v>455</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8227,10 +8267,10 @@
         <v>312</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="360" s="3" customFormat="1" spans="1:10">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" s="3" customFormat="1">
       <c r="A360" s="3" t="s">
         <v>4</v>
       </c>
@@ -8238,7 +8278,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8259,30 +8299,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" s="4" customFormat="1" spans="1:8">
+    <row r="361" spans="1:16" s="4" customFormat="1">
       <c r="A361" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="F361" s="14" t="s">
         <v>458</v>
-      </c>
-      <c r="F361" s="14" t="s">
-        <v>459</v>
       </c>
       <c r="H361" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="362" s="5" customFormat="1" spans="1:11">
+    <row r="362" spans="1:16" s="5" customFormat="1">
       <c r="A362" s="5" t="s">
         <v>21</v>
       </c>
@@ -8311,7 +8351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" s="6" customFormat="1" spans="1:4">
+    <row r="363" spans="1:16" s="6" customFormat="1">
       <c r="A363" s="6" t="s">
         <v>30</v>
       </c>
@@ -8321,7 +8361,7 @@
       </c>
       <c r="D363" s="8"/>
     </row>
-    <row r="365" s="1" customFormat="1" spans="1:9">
+    <row r="365" spans="1:16" s="1" customFormat="1">
       <c r="A365" s="1" t="s">
         <v>0</v>
       </c>
@@ -8329,7 +8369,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8341,13 +8381,13 @@
         <v>93</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>136</v>
+        <v>471</v>
       </c>
       <c r="I365" s="16" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="366" s="2" customFormat="1" spans="1:10">
+    <row r="366" spans="1:16" s="2" customFormat="1">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
@@ -8355,13 +8395,13 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="D366" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="D366" s="21" t="s">
+      <c r="E366" s="21" t="s">
         <v>462</v>
-      </c>
-      <c r="E366" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
@@ -8374,15 +8414,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="367" s="3" customFormat="1" spans="1:11">
+    <row r="367" spans="1:16" s="3" customFormat="1">
       <c r="A367" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C367" s="16" t="s">
         <v>464</v>
-      </c>
-      <c r="C367" s="16" t="s">
-        <v>465</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -8395,11 +8435,8 @@
       <c r="J367" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K367" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="368" s="4" customFormat="1" spans="1:8">
+    </row>
+    <row r="368" spans="1:16" s="4" customFormat="1">
       <c r="A368" s="4" t="s">
         <v>12</v>
       </c>
@@ -8410,8 +8447,11 @@
       <c r="H368" s="14" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="369" s="5" customFormat="1" spans="1:11">
+      <c r="I368" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" s="5" customFormat="1">
       <c r="A369" s="5" t="s">
         <v>21</v>
       </c>
@@ -8427,8 +8467,8 @@
       <c r="E369" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H369" s="11" t="s">
-        <v>23</v>
+      <c r="H369" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="I369" s="38" t="s">
         <v>81</v>
@@ -8440,7 +8480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" s="6" customFormat="1" spans="1:4">
+    <row r="370" spans="1:11" s="6" customFormat="1">
       <c r="A370" s="6" t="s">
         <v>30</v>
       </c>
@@ -8455,8 +8495,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYH\Desktop\魔卡幻想\new\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12180"/>
+    <workbookView windowWidth="25080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471">
   <si>
     <t>王国</t>
   </si>
@@ -1125,6 +1120,9 @@
     <t>本源守护7圆月</t>
   </si>
   <si>
+    <t>天秤座（末日）</t>
+  </si>
+  <si>
     <t>3狗头：</t>
   </si>
   <si>
@@ -1161,6 +1159,9 @@
     <t>要点：堕掉女武神</t>
   </si>
   <si>
+    <t>3圣炎</t>
+  </si>
+  <si>
     <t>战神+弱点攻击</t>
   </si>
   <si>
@@ -1176,318 +1177,13 @@
     <t>圣泉元神+群体削弱9</t>
   </si>
   <si>
-    <t>摩羯大祭司+不动</t>
-  </si>
-  <si>
-    <t>太古魔狼+免疫</t>
-  </si>
-  <si>
-    <t>齐天美猴王+虚弱</t>
-  </si>
-  <si>
-    <t>堕落天使+趁胜追击7</t>
-  </si>
-  <si>
-    <t>镜魔+穿刺6</t>
-  </si>
-  <si>
-    <t>无尽噩梦+不动</t>
-  </si>
-  <si>
-    <t>堕落天使+虚弱</t>
-  </si>
-  <si>
-    <t>亡灵守护者+暴风雪7</t>
-  </si>
-  <si>
-    <t>圣诞老人+免疫</t>
-  </si>
-  <si>
-    <t>齐天美猴王+免疫</t>
-  </si>
-  <si>
-    <t>月蚀兽+全体阻碍1</t>
-  </si>
-  <si>
-    <t>死兆星+全体加速1</t>
-  </si>
-  <si>
-    <t>圆月魔女+阻碍1</t>
-  </si>
-  <si>
-    <t>死兆星+全体阻碍1</t>
-  </si>
-  <si>
-    <t>堕落天使+复活</t>
-  </si>
-  <si>
-    <t>月蚀兽+地狱之力5</t>
-  </si>
-  <si>
-    <t>末日预言师+圣炎</t>
-  </si>
-  <si>
-    <t>爱神+全体加速1</t>
-  </si>
-  <si>
-    <t>死域军神+不动</t>
-  </si>
-  <si>
-    <t>3圣炎</t>
-  </si>
-  <si>
-    <t>天界守护者+横扫</t>
-  </si>
-  <si>
-    <t>魔幻人偶师+免疫</t>
-  </si>
-  <si>
-    <t>魔幻人偶师+转生6</t>
-  </si>
-  <si>
-    <t>死兆星+转生5</t>
-  </si>
-  <si>
-    <t>爱神+本源之力5</t>
-  </si>
-  <si>
-    <t>战意斗神+吸血6</t>
-  </si>
-  <si>
-    <t>死兆星+冰甲6</t>
-  </si>
-  <si>
-    <t>圆月魔女+本源守护7</t>
-  </si>
-  <si>
-    <t>月蚀兽+降临复活</t>
-  </si>
-  <si>
-    <t>月蚀兽+地狱之力8</t>
-  </si>
-  <si>
-    <t>星辰主宰+冰甲6</t>
-  </si>
-  <si>
-    <t>战场扫荡者+弱点攻击</t>
-  </si>
-  <si>
-    <t>时光女神+战争怒吼</t>
-  </si>
-  <si>
-    <t>时光女神+回春9</t>
-  </si>
-  <si>
-    <t>白羊座+横扫</t>
-  </si>
-  <si>
-    <t>雷雕之魂+免疫</t>
-  </si>
-  <si>
-    <t>圣灵</t>
-  </si>
-  <si>
-    <t>雷雕之魂+法力反射5</t>
-  </si>
-  <si>
-    <t>星夜女神+战争怒吼</t>
-  </si>
-  <si>
-    <t>黄金金属巨龙+不动</t>
-  </si>
-  <si>
-    <t>赤面天狗+转生6</t>
-  </si>
-  <si>
-    <t>亡灵守护神+陷阱3</t>
-  </si>
-  <si>
-    <t>钢铁巨神兵+不动</t>
-  </si>
-  <si>
-    <t>最终兵器+不动</t>
-  </si>
-  <si>
-    <t>圣城卫士+治疗之雾6</t>
-  </si>
-  <si>
-    <t>战场女武神+神圣守护5</t>
-  </si>
-  <si>
-    <t>降临天使+不动</t>
-  </si>
-  <si>
-    <t>星夜女神+全体阻碍1</t>
-  </si>
-  <si>
-    <t>雷雕之魂+复活</t>
-  </si>
-  <si>
-    <t>金属巨龙+弱点攻击</t>
-  </si>
-  <si>
-    <t>破晓守卫+封印</t>
-  </si>
-  <si>
-    <t>齐天美猴王+摧毁</t>
-  </si>
-  <si>
-    <t>仙狐巫女+免疫</t>
-  </si>
-  <si>
-    <t>圆月魔女+魔甲4</t>
-  </si>
-  <si>
-    <t>3堕落天使：</t>
-  </si>
-  <si>
-    <t>机神</t>
-  </si>
-  <si>
-    <t>陨星*2</t>
-  </si>
-  <si>
-    <t>不动兔子</t>
-  </si>
-  <si>
-    <t>不动黄金金属巨龙</t>
-  </si>
-  <si>
-    <t>弱点黄金金属巨龙</t>
-  </si>
-  <si>
-    <t>回魂2堕落天使</t>
-  </si>
-  <si>
-    <t>祈祷堕落天使</t>
-  </si>
-  <si>
-    <t>脱困混沌龙</t>
-  </si>
-  <si>
-    <t>转生萝莉</t>
-  </si>
-  <si>
-    <t>要把堕落天使堕掉</t>
-  </si>
-  <si>
-    <t>甘霖世界树</t>
-  </si>
-  <si>
-    <t>复仇金属</t>
-  </si>
-  <si>
-    <t>弱点海妖</t>
-  </si>
-  <si>
-    <t>法侵海妖</t>
-  </si>
-  <si>
-    <t>冰甲幻翼</t>
-  </si>
-  <si>
-    <t>转生狗头</t>
-  </si>
-  <si>
-    <t>回魂3怒雪咆哮</t>
-  </si>
-  <si>
-    <t>免疫怒雪咆哮</t>
-  </si>
-  <si>
-    <t>甘霖6圣诞</t>
-  </si>
-  <si>
-    <t>不动圣堂</t>
-  </si>
-  <si>
-    <t>陷阱2老头</t>
-  </si>
-  <si>
-    <t>送还时光</t>
-  </si>
-  <si>
-    <t>迷魂8兔子</t>
-  </si>
-  <si>
-    <t>暴风雪4唤雨师</t>
-  </si>
-  <si>
-    <t>圣灵大祭司+死契摧毁</t>
-  </si>
-  <si>
-    <t>幻翼命运神</t>
-  </si>
-  <si>
-    <t>穷追猛打9化蛇</t>
-  </si>
-  <si>
-    <t>格挡10雷兽</t>
-  </si>
-  <si>
-    <t>毒雾8蟹黄</t>
-  </si>
-  <si>
-    <t>战意斗神+弱点攻击</t>
-  </si>
-  <si>
-    <t>弱点攻击战意斗神</t>
-  </si>
-  <si>
-    <t>复活猴子</t>
-  </si>
-  <si>
-    <t>封印化蛇</t>
-  </si>
-  <si>
-    <t>横扫混沌龙</t>
-  </si>
-  <si>
-    <t>本源守护末日</t>
-  </si>
-  <si>
-    <t>转生黑龙</t>
-  </si>
-  <si>
-    <t>祈祷天使</t>
-  </si>
-  <si>
-    <t>圣炎时光</t>
-  </si>
-  <si>
-    <t>盾刺金属*2</t>
-  </si>
-  <si>
-    <t>回春8金属</t>
-  </si>
-  <si>
-    <t>免疫人偶</t>
-  </si>
-  <si>
-    <t>复活陨星</t>
-  </si>
-  <si>
-    <t>天秤座（末日）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>英灵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>光龙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小阻碍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>月樱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>月女*</t>
     </r>
     <r>
@@ -1495,27 +1191,323 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人偶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩羯大祭司+不动</t>
+  </si>
+  <si>
+    <t>太古魔狼+免疫</t>
+  </si>
+  <si>
+    <t>齐天美猴王+虚弱</t>
+  </si>
+  <si>
+    <t>堕落天使+趁胜追击7</t>
+  </si>
+  <si>
+    <t>镜魔+穿刺6</t>
+  </si>
+  <si>
+    <t>无尽噩梦+不动</t>
+  </si>
+  <si>
+    <t>堕落天使+虚弱</t>
+  </si>
+  <si>
+    <t>亡灵守护者+暴风雪7</t>
+  </si>
+  <si>
+    <t>圣诞老人+免疫</t>
+  </si>
+  <si>
+    <t>齐天美猴王+免疫</t>
+  </si>
+  <si>
+    <t>月蚀兽+全体阻碍1</t>
+  </si>
+  <si>
+    <t>死兆星+全体加速1</t>
+  </si>
+  <si>
+    <t>圆月魔女+阻碍1</t>
+  </si>
+  <si>
+    <t>死兆星+全体阻碍1</t>
+  </si>
+  <si>
+    <t>堕落天使+复活</t>
+  </si>
+  <si>
+    <t>月蚀兽+地狱之力5</t>
+  </si>
+  <si>
+    <t>末日预言师+圣炎</t>
+  </si>
+  <si>
+    <t>爱神+全体加速1</t>
+  </si>
+  <si>
+    <t>死域军神+不动</t>
+  </si>
+  <si>
+    <t>小阻碍</t>
+  </si>
+  <si>
+    <t>天界守护者+横扫</t>
+  </si>
+  <si>
+    <t>魔幻人偶师+免疫</t>
+  </si>
+  <si>
+    <t>魔幻人偶师+转生6</t>
+  </si>
+  <si>
+    <t>死兆星+转生5</t>
+  </si>
+  <si>
+    <t>爱神+本源之力5</t>
+  </si>
+  <si>
+    <t>战意斗神+吸血6</t>
+  </si>
+  <si>
+    <t>死兆星+冰甲6</t>
+  </si>
+  <si>
+    <t>圆月魔女+本源守护7</t>
+  </si>
+  <si>
+    <t>月蚀兽+降临复活</t>
+  </si>
+  <si>
+    <t>月蚀兽+地狱之力8</t>
+  </si>
+  <si>
+    <t>星辰主宰+冰甲6</t>
+  </si>
+  <si>
+    <t>战场扫荡者+弱点攻击</t>
+  </si>
+  <si>
+    <t>时光女神+战争怒吼</t>
+  </si>
+  <si>
+    <t>时光女神+回春9</t>
+  </si>
+  <si>
+    <t>白羊座+横扫</t>
+  </si>
+  <si>
+    <t>雷雕之魂+免疫</t>
+  </si>
+  <si>
+    <t>圣灵</t>
+  </si>
+  <si>
+    <t>雷雕之魂+法力反射5</t>
+  </si>
+  <si>
+    <t>星夜女神+战争怒吼</t>
+  </si>
+  <si>
+    <t>黄金金属巨龙+不动</t>
+  </si>
+  <si>
+    <t>赤面天狗+转生6</t>
+  </si>
+  <si>
+    <t>亡灵守护神+陷阱3</t>
+  </si>
+  <si>
+    <t>钢铁巨神兵+不动</t>
+  </si>
+  <si>
+    <t>最终兵器+不动</t>
+  </si>
+  <si>
+    <t>圣城卫士+治疗之雾6</t>
+  </si>
+  <si>
+    <t>战场女武神+神圣守护5</t>
+  </si>
+  <si>
+    <t>降临天使+不动</t>
+  </si>
+  <si>
+    <t>星夜女神+全体阻碍1</t>
+  </si>
+  <si>
+    <t>雷雕之魂+复活</t>
+  </si>
+  <si>
+    <t>金属巨龙+弱点攻击</t>
+  </si>
+  <si>
+    <t>破晓守卫+封印</t>
+  </si>
+  <si>
+    <t>齐天美猴王+摧毁</t>
+  </si>
+  <si>
+    <t>仙狐巫女+免疫</t>
+  </si>
+  <si>
+    <t>圆月魔女+魔甲4</t>
+  </si>
+  <si>
+    <t>3堕落天使：</t>
+  </si>
+  <si>
+    <t>机神</t>
+  </si>
+  <si>
+    <t>陨星*2</t>
+  </si>
+  <si>
+    <t>不动兔子</t>
+  </si>
+  <si>
+    <t>不动黄金金属巨龙</t>
+  </si>
+  <si>
+    <t>弱点黄金金属巨龙</t>
+  </si>
+  <si>
+    <t>回魂2堕落天使</t>
+  </si>
+  <si>
+    <t>祈祷堕落天使</t>
+  </si>
+  <si>
+    <t>脱困混沌龙</t>
+  </si>
+  <si>
+    <t>转生萝莉</t>
+  </si>
+  <si>
+    <t>要把堕落天使堕掉</t>
+  </si>
+  <si>
+    <t>甘霖世界树</t>
+  </si>
+  <si>
+    <t>复仇金属</t>
+  </si>
+  <si>
+    <t>弱点海妖</t>
+  </si>
+  <si>
+    <t>法侵海妖</t>
+  </si>
+  <si>
+    <t>冰甲幻翼</t>
+  </si>
+  <si>
+    <t>转生狗头</t>
+  </si>
+  <si>
+    <t>回魂3怒雪咆哮</t>
+  </si>
+  <si>
+    <t>免疫怒雪咆哮</t>
+  </si>
+  <si>
+    <t>甘霖6圣诞</t>
+  </si>
+  <si>
+    <t>不动圣堂</t>
+  </si>
+  <si>
+    <t>陷阱2老头</t>
+  </si>
+  <si>
+    <t>送还时光</t>
+  </si>
+  <si>
+    <t>迷魂8兔子</t>
+  </si>
+  <si>
+    <t>暴风雪4唤雨师</t>
+  </si>
+  <si>
+    <t>圣灵大祭司+死契摧毁</t>
+  </si>
+  <si>
+    <t>幻翼命运神</t>
+  </si>
+  <si>
+    <t>穷追猛打9化蛇</t>
+  </si>
+  <si>
+    <t>格挡10雷兽</t>
+  </si>
+  <si>
+    <t>毒雾8蟹黄</t>
+  </si>
+  <si>
+    <t>战意斗神+弱点攻击</t>
+  </si>
+  <si>
+    <t>弱点攻击战意斗神</t>
+  </si>
+  <si>
+    <t>复活猴子</t>
+  </si>
+  <si>
+    <t>兔子*2</t>
+  </si>
+  <si>
+    <t>封印化蛇</t>
+  </si>
+  <si>
+    <t>横扫混沌龙</t>
+  </si>
+  <si>
+    <t>本源守护末日</t>
+  </si>
+  <si>
+    <t>转生黑龙</t>
+  </si>
+  <si>
+    <t>欲望</t>
+  </si>
+  <si>
+    <t>祈祷天使</t>
+  </si>
+  <si>
+    <t>圣炎时光</t>
+  </si>
+  <si>
+    <t>盾刺金属*2</t>
+  </si>
+  <si>
+    <t>回春8金属</t>
+  </si>
+  <si>
+    <t>免疫人偶</t>
+  </si>
+  <si>
+    <t>复活陨星</t>
   </si>
   <si>
     <t>死域军神</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1554,15 +1546,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1643,12 +1628,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1699,22 +1699,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2013,7 +2006,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2046,11 +2038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="H369" sqref="H369"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="N363" sqref="N363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2064,7 +2057,7 @@
     <col min="12" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2075,12 +2068,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="1" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2106,7 +2099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1">
+    <row r="4" s="4" customFormat="1" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1">
+    <row r="5" s="5" customFormat="1" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2164,7 +2157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1">
+    <row r="6" s="6" customFormat="1" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -2178,10 +2171,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:1">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1">
+    <row r="9" s="2" customFormat="1" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2215,7 +2208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1">
+    <row r="10" s="3" customFormat="1" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2239,7 +2232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1">
+    <row r="11" s="4" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1">
+    <row r="12" s="5" customFormat="1" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2285,7 +2278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1">
+    <row r="13" s="6" customFormat="1" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2299,10 +2292,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:1">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1">
+    <row r="16" s="2" customFormat="1" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2327,7 +2320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1">
+    <row r="17" s="3" customFormat="1" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -2344,7 +2337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1">
+    <row r="18" s="4" customFormat="1" spans="1:11">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -2373,7 +2366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="5" customFormat="1">
+    <row r="19" s="5" customFormat="1" spans="1:11">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -2402,7 +2395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1">
+    <row r="20" s="6" customFormat="1" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2416,10 +2409,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" s="7" customFormat="1" spans="2:2">
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1">
+    <row r="22" s="1" customFormat="1" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +2429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1">
+    <row r="23" s="2" customFormat="1" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -2456,7 +2449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1">
+    <row r="24" s="3" customFormat="1" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="4" customFormat="1">
+    <row r="25" s="4" customFormat="1" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -2493,7 +2486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1">
+    <row r="26" s="5" customFormat="1" spans="1:11">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -2522,7 +2515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1">
+    <row r="27" s="6" customFormat="1" spans="1:4">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -2536,10 +2529,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1">
+    <row r="28" s="7" customFormat="1" spans="2:2">
       <c r="B28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1">
+    <row r="30" s="2" customFormat="1" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2570,7 +2563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1">
+    <row r="31" s="3" customFormat="1" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2593,7 +2586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1">
+    <row r="32" s="4" customFormat="1" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2610,7 +2603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="5" customFormat="1">
+    <row r="33" s="5" customFormat="1" spans="1:11">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -2639,7 +2632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="6" customFormat="1">
+    <row r="34" s="6" customFormat="1" spans="1:4">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -2653,12 +2646,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1">
+    <row r="35" s="7" customFormat="1" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1">
+    <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1">
+    <row r="37" s="2" customFormat="1" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -2680,7 +2673,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1">
+    <row r="38" s="3" customFormat="1" spans="1:10">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2700,7 +2693,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1">
+    <row r="39" s="4" customFormat="1" spans="1:11">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2729,7 +2722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="6" customFormat="1">
+    <row r="40" s="6" customFormat="1" spans="1:11">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
@@ -2758,7 +2751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="8" customFormat="1">
+    <row r="41" s="8" customFormat="1" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>30</v>
       </c>
@@ -2772,10 +2765,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:1">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1">
+    <row r="43" s="1" customFormat="1" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1">
+    <row r="44" s="2" customFormat="1" spans="1:15">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2821,7 +2814,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1">
+    <row r="45" s="3" customFormat="1" spans="1:15">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2853,7 +2846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="4" customFormat="1">
+    <row r="46" s="4" customFormat="1" spans="1:14">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="5" customFormat="1">
+    <row r="47" s="5" customFormat="1" spans="1:16">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
@@ -2920,7 +2913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="6" customFormat="1">
+    <row r="48" s="6" customFormat="1" spans="1:4">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -2934,8 +2927,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="7" customFormat="1"/>
-    <row r="50" spans="1:22" s="1" customFormat="1">
+    <row r="49" s="7" customFormat="1"/>
+    <row r="50" s="1" customFormat="1" spans="1:19">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2964,7 +2957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="2" customFormat="1">
+    <row r="51" s="2" customFormat="1" spans="1:15">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
@@ -2981,7 +2974,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="3" customFormat="1">
+    <row r="52" s="3" customFormat="1" spans="1:20">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3001,7 +2994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="4" customFormat="1">
+    <row r="53" s="4" customFormat="1" spans="1:22">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -3051,7 +3044,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="5" customFormat="1">
+    <row r="54" s="5" customFormat="1" spans="1:22">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -3104,7 +3097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="6" customFormat="1">
+    <row r="55" s="6" customFormat="1" spans="1:19">
       <c r="A55" s="6" t="s">
         <v>30</v>
       </c>
@@ -3124,12 +3117,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:1">
       <c r="A56" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="1" customFormat="1">
+    <row r="57" s="1" customFormat="1" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3145,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="2" customFormat="1">
+    <row r="58" s="2" customFormat="1" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -3163,7 +3156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="3" customFormat="1">
+    <row r="59" s="3" customFormat="1" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +3179,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="4" customFormat="1">
+    <row r="60" s="4" customFormat="1" spans="1:8">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -3197,7 +3190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="5" customFormat="1">
+    <row r="61" s="5" customFormat="1" spans="1:11">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -3226,7 +3219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="6" customFormat="1">
+    <row r="62" s="6" customFormat="1" spans="1:4">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -3240,8 +3233,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="7" customFormat="1"/>
-    <row r="64" spans="1:22" s="1" customFormat="1">
+    <row r="63" s="7" customFormat="1"/>
+    <row r="64" s="1" customFormat="1" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="2" customFormat="1">
+    <row r="65" s="2" customFormat="1" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -3281,7 +3274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="3" customFormat="1">
+    <row r="66" s="3" customFormat="1" spans="1:9">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3298,7 +3291,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="4" customFormat="1">
+    <row r="67" s="4" customFormat="1" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="5" customFormat="1">
+    <row r="68" s="5" customFormat="1" spans="1:11">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3344,7 +3337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="6" customFormat="1">
+    <row r="69" s="6" customFormat="1" spans="1:4">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -3358,10 +3351,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:1">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1">
+    <row r="71" s="1" customFormat="1" spans="1:9">
       <c r="A71" s="25" t="s">
         <v>0</v>
       </c>
@@ -3378,7 +3371,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1">
+    <row r="72" s="2" customFormat="1" spans="1:9">
       <c r="A72" s="26" t="s">
         <v>3</v>
       </c>
@@ -3401,7 +3394,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1">
+    <row r="73" s="3" customFormat="1" spans="1:9">
       <c r="A73" s="27" t="s">
         <v>4</v>
       </c>
@@ -3418,7 +3411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="4" customFormat="1">
+    <row r="74" s="4" customFormat="1" spans="1:9">
       <c r="A74" s="28" t="s">
         <v>12</v>
       </c>
@@ -3432,7 +3425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="5" customFormat="1">
+    <row r="75" s="5" customFormat="1" spans="1:11">
       <c r="A75" s="29" t="s">
         <v>21</v>
       </c>
@@ -3461,7 +3454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="6" customFormat="1">
+    <row r="76" s="6" customFormat="1" spans="1:4">
       <c r="A76" s="30" t="s">
         <v>30</v>
       </c>
@@ -3475,7 +3468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1">
+    <row r="78" s="1" customFormat="1" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3499,7 +3492,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:11" s="2" customFormat="1">
+    <row r="79" s="2" customFormat="1" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -3522,7 +3515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1">
+    <row r="80" s="3" customFormat="1" spans="1:8">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -3536,7 +3529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="4" customFormat="1">
+    <row r="81" s="4" customFormat="1" spans="1:9">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
@@ -3550,7 +3543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="5" customFormat="1">
+    <row r="82" s="5" customFormat="1" spans="1:11">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -3579,7 +3572,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="6" customFormat="1">
+    <row r="83" s="6" customFormat="1" spans="1:4">
       <c r="A83" s="6" t="s">
         <v>30</v>
       </c>
@@ -3593,7 +3586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="1" customFormat="1">
+    <row r="85" s="1" customFormat="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3595,7 @@
       </c>
       <c r="C85" s="17"/>
     </row>
-    <row r="86" spans="1:16" s="2" customFormat="1">
+    <row r="86" s="2" customFormat="1" spans="1:9">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -3619,7 +3612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="3" customFormat="1">
+    <row r="87" s="3" customFormat="1" spans="1:11">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -3645,7 +3638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="4" customFormat="1">
+    <row r="88" s="4" customFormat="1" spans="1:11">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -3674,7 +3667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="5" customFormat="1">
+    <row r="89" s="5" customFormat="1" spans="1:11">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -3703,7 +3696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:16" s="6" customFormat="1">
+    <row r="90" s="6" customFormat="1" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>30</v>
       </c>
@@ -3717,7 +3710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:16" s="1" customFormat="1">
+    <row r="92" s="1" customFormat="1" spans="1:16">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3743,7 +3736,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="2" customFormat="1">
+    <row r="93" s="2" customFormat="1" spans="1:14">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -3766,7 +3759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="3" customFormat="1">
+    <row r="94" s="3" customFormat="1" spans="1:14">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3792,7 +3785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="4" customFormat="1">
+    <row r="95" s="4" customFormat="1" spans="1:13">
       <c r="A95" s="4" t="s">
         <v>12</v>
       </c>
@@ -3821,7 +3814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="5" customFormat="1">
+    <row r="96" s="5" customFormat="1" spans="1:16">
       <c r="A96" s="5" t="s">
         <v>21</v>
       </c>
@@ -3862,7 +3855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="6" customFormat="1">
+    <row r="97" s="6" customFormat="1" spans="1:4">
       <c r="A97" s="6" t="s">
         <v>30</v>
       </c>
@@ -3876,7 +3869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="1" customFormat="1">
+    <row r="99" s="1" customFormat="1" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -3899,7 +3892,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="2" customFormat="1">
+    <row r="100" s="2" customFormat="1" spans="1:8">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -3913,7 +3906,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="3" customFormat="1">
+    <row r="101" s="3" customFormat="1" spans="1:8">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3927,7 +3920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="4" customFormat="1">
+    <row r="102" s="4" customFormat="1" spans="1:9">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
@@ -3950,7 +3943,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="5" customFormat="1">
+    <row r="103" s="5" customFormat="1" spans="1:11">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +3972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="6" customFormat="1">
+    <row r="104" s="6" customFormat="1" spans="1:4">
       <c r="A104" s="6" t="s">
         <v>30</v>
       </c>
@@ -3993,7 +3986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="1" customFormat="1">
+    <row r="106" s="1" customFormat="1" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4000,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="2" customFormat="1">
+    <row r="107" s="2" customFormat="1" spans="1:14">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
@@ -4024,7 +4017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="3" customFormat="1">
+    <row r="108" s="3" customFormat="1" spans="1:17">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -4052,7 +4045,7 @@
       </c>
       <c r="Q108" s="22"/>
     </row>
-    <row r="109" spans="1:17" s="4" customFormat="1">
+    <row r="109" s="4" customFormat="1" spans="1:17">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -4096,7 +4089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="5" customFormat="1">
+    <row r="110" s="5" customFormat="1" spans="1:17">
       <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
@@ -4137,7 +4130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="6" customFormat="1">
+    <row r="111" s="6" customFormat="1" spans="1:14">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -4154,7 +4147,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="1" customFormat="1">
+    <row r="113" s="1" customFormat="1" spans="1:13">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4176,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="2" customFormat="1">
+    <row r="114" s="2" customFormat="1" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4182,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:16" s="3" customFormat="1">
+    <row r="115" s="3" customFormat="1" spans="1:16">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
@@ -4219,7 +4212,7 @@
       </c>
       <c r="P115" s="22"/>
     </row>
-    <row r="116" spans="1:16" s="4" customFormat="1">
+    <row r="116" s="4" customFormat="1" spans="1:16">
       <c r="A116" s="4" t="s">
         <v>12</v>
       </c>
@@ -4254,7 +4247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="5" customFormat="1">
+    <row r="117" s="5" customFormat="1" spans="1:16">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -4295,7 +4288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="6" customFormat="1">
+    <row r="118" s="6" customFormat="1" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -4309,12 +4302,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="1" customFormat="1">
+    <row r="120" s="1" customFormat="1" spans="1:9">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4334,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="2" customFormat="1">
+    <row r="121" s="2" customFormat="1" spans="1:9">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
@@ -4345,7 +4338,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1">
+    <row r="122" s="3" customFormat="1" spans="1:9">
       <c r="A122" s="3" t="s">
         <v>4</v>
       </c>
@@ -4365,7 +4358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="4" customFormat="1">
+    <row r="123" s="4" customFormat="1" spans="1:10">
       <c r="A123" s="4" t="s">
         <v>12</v>
       </c>
@@ -4391,7 +4384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="5" customFormat="1">
+    <row r="124" s="5" customFormat="1" spans="1:11">
       <c r="A124" s="5" t="s">
         <v>21</v>
       </c>
@@ -4420,7 +4413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="6" customFormat="1">
+    <row r="125" s="6" customFormat="1" spans="1:4">
       <c r="A125" s="6" t="s">
         <v>30</v>
       </c>
@@ -4434,7 +4427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="1" customFormat="1">
+    <row r="127" s="1" customFormat="1" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -4454,7 +4447,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="2" customFormat="1">
+    <row r="128" s="2" customFormat="1" spans="1:2">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -4462,7 +4455,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="3" customFormat="1">
+    <row r="129" s="3" customFormat="1" spans="1:11">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -4479,7 +4472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="4" customFormat="1">
+    <row r="130" s="4" customFormat="1" spans="1:11">
       <c r="A130" s="4" t="s">
         <v>12</v>
       </c>
@@ -4508,7 +4501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="5" customFormat="1">
+    <row r="131" s="5" customFormat="1" spans="1:11">
       <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
@@ -4537,7 +4530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="6" customFormat="1">
+    <row r="132" s="6" customFormat="1" spans="1:4">
       <c r="A132" s="6" t="s">
         <v>30</v>
       </c>
@@ -4551,11 +4544,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="7" customFormat="1">
+    <row r="133" s="7" customFormat="1" spans="2:4">
       <c r="B133" s="19"/>
       <c r="D133" s="19"/>
     </row>
-    <row r="134" spans="1:11" s="1" customFormat="1">
+    <row r="134" s="1" customFormat="1" spans="1:10">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="2" customFormat="1">
+    <row r="135" s="2" customFormat="1" spans="1:8">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -4595,7 +4588,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="3" customFormat="1">
+    <row r="136" s="3" customFormat="1" spans="1:10">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
@@ -4621,7 +4614,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="4" customFormat="1">
+    <row r="137" s="4" customFormat="1" spans="1:8">
       <c r="A137" s="4" t="s">
         <v>12</v>
       </c>
@@ -4630,7 +4623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="5" customFormat="1">
+    <row r="138" s="5" customFormat="1" spans="1:11">
       <c r="A138" s="5" t="s">
         <v>21</v>
       </c>
@@ -4659,7 +4652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="6" customFormat="1">
+    <row r="139" s="6" customFormat="1" spans="1:4">
       <c r="A139" s="6" t="s">
         <v>30</v>
       </c>
@@ -4673,7 +4666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="1" customFormat="1">
+    <row r="141" s="1" customFormat="1" spans="1:9">
       <c r="A141" s="32" t="s">
         <v>0</v>
       </c>
@@ -4699,7 +4692,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="2" customFormat="1">
+    <row r="142" s="2" customFormat="1" spans="1:10">
       <c r="A142" s="33" t="s">
         <v>3</v>
       </c>
@@ -4728,7 +4721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="3" customFormat="1">
+    <row r="143" s="3" customFormat="1" spans="1:9">
       <c r="A143" s="34" t="s">
         <v>4</v>
       </c>
@@ -4739,7 +4732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="4" customFormat="1">
+    <row r="144" s="4" customFormat="1" spans="1:8">
       <c r="A144" s="35" t="s">
         <v>12</v>
       </c>
@@ -4747,7 +4740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="5" customFormat="1">
+    <row r="145" s="5" customFormat="1" spans="1:11">
       <c r="A145" s="36" t="s">
         <v>21</v>
       </c>
@@ -4776,7 +4769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="6" customFormat="1">
+    <row r="146" s="6" customFormat="1" spans="1:4">
       <c r="A146" s="6" t="s">
         <v>30</v>
       </c>
@@ -4790,7 +4783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="1" customFormat="1">
+    <row r="148" s="1" customFormat="1" spans="1:10">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -4814,7 +4807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="2" customFormat="1">
+    <row r="149" s="2" customFormat="1" spans="1:9">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -4831,7 +4824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="3" customFormat="1">
+    <row r="150" s="3" customFormat="1" spans="1:8">
       <c r="A150" s="3" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +4841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="4" customFormat="1">
+    <row r="151" s="4" customFormat="1" spans="1:9">
       <c r="A151" s="4" t="s">
         <v>12</v>
       </c>
@@ -4865,7 +4858,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="5" customFormat="1">
+    <row r="152" s="5" customFormat="1" spans="1:11">
       <c r="A152" s="5" t="s">
         <v>21</v>
       </c>
@@ -4894,7 +4887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="6" customFormat="1">
+    <row r="153" s="6" customFormat="1" spans="1:4">
       <c r="A153" s="6" t="s">
         <v>30</v>
       </c>
@@ -4908,7 +4901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="1" customFormat="1">
+    <row r="155" s="1" customFormat="1" spans="1:8">
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
@@ -4920,7 +4913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="2" customFormat="1">
+    <row r="156" s="2" customFormat="1" spans="1:8">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
@@ -4943,7 +4936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="3" customFormat="1">
+    <row r="157" s="3" customFormat="1" spans="1:10">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
@@ -4957,7 +4950,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="4" customFormat="1">
+    <row r="158" s="4" customFormat="1" spans="1:10">
       <c r="A158" s="4" t="s">
         <v>12</v>
       </c>
@@ -4986,7 +4979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="5" customFormat="1">
+    <row r="159" s="5" customFormat="1" spans="1:11">
       <c r="A159" s="5" t="s">
         <v>21</v>
       </c>
@@ -5015,7 +5008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="6" customFormat="1">
+    <row r="160" s="6" customFormat="1" spans="1:4">
       <c r="A160" s="6" t="s">
         <v>30</v>
       </c>
@@ -5029,7 +5022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="1" customFormat="1">
+    <row r="162" s="1" customFormat="1" spans="1:11">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -5061,7 +5054,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="2" customFormat="1">
+    <row r="163" s="2" customFormat="1" spans="1:9">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
@@ -5072,7 +5065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="3" customFormat="1">
+    <row r="164" s="3" customFormat="1" spans="1:8">
       <c r="A164" s="3" t="s">
         <v>4</v>
       </c>
@@ -5080,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="4" customFormat="1">
+    <row r="165" s="4" customFormat="1" spans="1:8">
       <c r="A165" s="4" t="s">
         <v>12</v>
       </c>
@@ -5103,7 +5096,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="5" customFormat="1">
+    <row r="166" s="5" customFormat="1" spans="1:11">
       <c r="A166" s="5" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="6" customFormat="1">
+    <row r="167" s="6" customFormat="1" spans="1:4">
       <c r="A167" s="6" t="s">
         <v>30</v>
       </c>
@@ -5146,7 +5139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="1" customFormat="1">
+    <row r="176" s="1" customFormat="1" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -5169,7 +5162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" s="2" customFormat="1">
+    <row r="177" s="2" customFormat="1" spans="1:9">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
@@ -5180,7 +5173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="3" customFormat="1">
+    <row r="178" s="3" customFormat="1" spans="1:10">
       <c r="A178" s="3" t="s">
         <v>4</v>
       </c>
@@ -5209,7 +5202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:11" s="4" customFormat="1">
+    <row r="179" s="4" customFormat="1" spans="1:10">
       <c r="A179" s="4" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5218,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="5" customFormat="1">
+    <row r="180" s="5" customFormat="1" spans="1:11">
       <c r="A180" s="5" t="s">
         <v>21</v>
       </c>
@@ -5254,7 +5247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="6" customFormat="1">
+    <row r="181" s="6" customFormat="1" spans="1:4">
       <c r="A181" s="6" t="s">
         <v>30</v>
       </c>
@@ -5268,7 +5261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="1" customFormat="1">
+    <row r="183" s="1" customFormat="1" spans="1:10">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -5295,7 +5288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="2" customFormat="1">
+    <row r="184" s="2" customFormat="1" spans="1:8">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
@@ -5315,7 +5308,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="3" customFormat="1">
+    <row r="185" s="3" customFormat="1" spans="1:8">
       <c r="A185" s="3" t="s">
         <v>4</v>
       </c>
@@ -5329,7 +5322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="4" customFormat="1">
+    <row r="186" s="4" customFormat="1" spans="1:9">
       <c r="A186" s="4" t="s">
         <v>12</v>
       </c>
@@ -5342,7 +5335,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="5" customFormat="1">
+    <row r="187" s="5" customFormat="1" spans="1:11">
       <c r="A187" s="5" t="s">
         <v>21</v>
       </c>
@@ -5371,7 +5364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="6" customFormat="1">
+    <row r="188" s="6" customFormat="1" spans="1:4">
       <c r="A188" s="6" t="s">
         <v>30</v>
       </c>
@@ -5385,7 +5378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="1" customFormat="1">
+    <row r="190" s="1" customFormat="1" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -5398,7 +5391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:11" s="2" customFormat="1">
+    <row r="191" s="2" customFormat="1" spans="1:8">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
@@ -5421,7 +5414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:11" s="3" customFormat="1">
+    <row r="192" s="3" customFormat="1" spans="1:10">
       <c r="A192" s="3" t="s">
         <v>4</v>
       </c>
@@ -5450,7 +5443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="193" spans="1:18" s="4" customFormat="1">
+    <row r="193" s="4" customFormat="1" spans="1:10">
       <c r="A193" s="4" t="s">
         <v>12</v>
       </c>
@@ -5466,7 +5459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="194" spans="1:18" s="5" customFormat="1">
+    <row r="194" s="5" customFormat="1" spans="1:11">
       <c r="A194" s="5" t="s">
         <v>21</v>
       </c>
@@ -5495,7 +5488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="6" customFormat="1">
+    <row r="195" s="6" customFormat="1" spans="1:4">
       <c r="A195" s="6" t="s">
         <v>30</v>
       </c>
@@ -5509,7 +5502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:18" s="1" customFormat="1">
+    <row r="197" s="1" customFormat="1" spans="1:15">
       <c r="A197" s="32" t="s">
         <v>0</v>
       </c>
@@ -5548,7 +5541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="2" customFormat="1">
+    <row r="198" s="2" customFormat="1" spans="1:8">
       <c r="A198" s="33" t="s">
         <v>3</v>
       </c>
@@ -5568,7 +5561,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="199" spans="1:18" s="3" customFormat="1">
+    <row r="199" s="3" customFormat="1" spans="1:18">
       <c r="A199" s="34" t="s">
         <v>4</v>
       </c>
@@ -5595,7 +5588,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="200" spans="1:18" s="4" customFormat="1">
+    <row r="200" s="4" customFormat="1" spans="1:18">
       <c r="A200" s="35" t="s">
         <v>12</v>
       </c>
@@ -5617,7 +5610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="5" customFormat="1">
+    <row r="201" s="5" customFormat="1" spans="1:18">
       <c r="A201" s="36" t="s">
         <v>21</v>
       </c>
@@ -5658,7 +5651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:18" s="6" customFormat="1">
+    <row r="202" s="6" customFormat="1" spans="1:4">
       <c r="A202" s="6" t="s">
         <v>30</v>
       </c>
@@ -5672,7 +5665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:11" s="1" customFormat="1">
+    <row r="211" s="1" customFormat="1" spans="1:6">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
@@ -5687,7 +5680,7 @@
       </c>
       <c r="F211" s="17"/>
     </row>
-    <row r="212" spans="1:11" s="2" customFormat="1">
+    <row r="212" s="2" customFormat="1" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -5705,7 +5698,7 @@
       </c>
       <c r="F212" s="21"/>
     </row>
-    <row r="213" spans="1:11" s="3" customFormat="1">
+    <row r="213" s="3" customFormat="1" spans="1:10">
       <c r="A213" s="3" t="s">
         <v>4</v>
       </c>
@@ -5728,7 +5721,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="4" customFormat="1">
+    <row r="214" s="4" customFormat="1" spans="1:11">
       <c r="A214" s="4" t="s">
         <v>12</v>
       </c>
@@ -5750,7 +5743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="5" customFormat="1">
+    <row r="215" s="5" customFormat="1" spans="1:11">
       <c r="A215" s="5" t="s">
         <v>21</v>
       </c>
@@ -5779,7 +5772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="6" customFormat="1">
+    <row r="216" s="6" customFormat="1" spans="1:4">
       <c r="A216" s="6" t="s">
         <v>30</v>
       </c>
@@ -5793,7 +5786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="1" customFormat="1">
+    <row r="218" s="1" customFormat="1" spans="1:8">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -5809,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="2" customFormat="1">
+    <row r="219" s="2" customFormat="1" spans="1:8">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
@@ -5825,7 +5818,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="3" customFormat="1">
+    <row r="220" s="3" customFormat="1" spans="1:10">
       <c r="A220" s="3" t="s">
         <v>4</v>
       </c>
@@ -5851,7 +5844,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="4" customFormat="1">
+    <row r="221" s="4" customFormat="1" spans="1:10">
       <c r="A221" s="4" t="s">
         <v>12</v>
       </c>
@@ -5873,7 +5866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:11" s="5" customFormat="1">
+    <row r="222" s="5" customFormat="1" spans="1:11">
       <c r="A222" s="5" t="s">
         <v>21</v>
       </c>
@@ -5902,7 +5895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:11" s="6" customFormat="1">
+    <row r="223" s="6" customFormat="1" spans="1:4">
       <c r="A223" s="6" t="s">
         <v>30</v>
       </c>
@@ -5916,7 +5909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="1" customFormat="1">
+    <row r="239" s="1" customFormat="1" spans="1:6">
       <c r="A239" s="1" t="s">
         <v>0</v>
       </c>
@@ -5925,7 +5918,7 @@
       <c r="D239" s="17"/>
       <c r="F239" s="16"/>
     </row>
-    <row r="240" spans="1:6" s="2" customFormat="1">
+    <row r="240" s="2" customFormat="1" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
@@ -5943,7 +5936,7 @@
       </c>
       <c r="F240" s="21"/>
     </row>
-    <row r="241" spans="1:16" s="3" customFormat="1">
+    <row r="241" s="3" customFormat="1" spans="1:10">
       <c r="A241" s="3" t="s">
         <v>4</v>
       </c>
@@ -5972,7 +5965,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="4" customFormat="1">
+    <row r="242" s="4" customFormat="1" spans="1:11">
       <c r="A242" s="4" t="s">
         <v>12</v>
       </c>
@@ -5993,7 +5986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="5" customFormat="1">
+    <row r="243" s="5" customFormat="1" spans="1:11">
       <c r="A243" s="5" t="s">
         <v>21</v>
       </c>
@@ -6022,7 +6015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="6" customFormat="1">
+    <row r="244" s="6" customFormat="1" spans="1:4">
       <c r="A244" s="6" t="s">
         <v>30</v>
       </c>
@@ -6036,7 +6029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:16" s="1" customFormat="1">
+    <row r="246" s="1" customFormat="1" spans="1:16">
       <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
@@ -6068,7 +6061,7 @@
       <c r="O246" s="16"/>
       <c r="P246" s="16"/>
     </row>
-    <row r="247" spans="1:16" s="2" customFormat="1">
+    <row r="247" s="2" customFormat="1" spans="1:16">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
@@ -6099,7 +6092,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="248" spans="1:16" s="3" customFormat="1">
+    <row r="248" s="3" customFormat="1" spans="1:15">
       <c r="A248" s="3" t="s">
         <v>4</v>
       </c>
@@ -6131,7 +6124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="4" customFormat="1">
+    <row r="249" s="4" customFormat="1" spans="1:14">
       <c r="A249" s="4" t="s">
         <v>12</v>
       </c>
@@ -6164,7 +6157,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="250" spans="1:16" s="5" customFormat="1">
+    <row r="250" s="5" customFormat="1" spans="1:16">
       <c r="A250" s="5" t="s">
         <v>21</v>
       </c>
@@ -6205,7 +6198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="6" customFormat="1">
+    <row r="251" s="6" customFormat="1" spans="1:4">
       <c r="A251" s="6" t="s">
         <v>30</v>
       </c>
@@ -6219,7 +6212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:16" s="1" customFormat="1">
+    <row r="253" s="1" customFormat="1" spans="1:9">
       <c r="A253" s="1" t="s">
         <v>0</v>
       </c>
@@ -6245,7 +6238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:16" s="2" customFormat="1">
+    <row r="254" s="2" customFormat="1" spans="1:8">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
@@ -6271,7 +6264,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="3" customFormat="1">
+    <row r="255" s="3" customFormat="1" spans="1:11">
       <c r="A255" s="3" t="s">
         <v>4</v>
       </c>
@@ -6292,7 +6285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="4" customFormat="1">
+    <row r="256" s="4" customFormat="1" spans="1:9">
       <c r="A256" s="4" t="s">
         <v>12</v>
       </c>
@@ -6307,7 +6300,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="257" spans="1:11" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:11">
       <c r="A257" s="5" t="s">
         <v>21</v>
       </c>
@@ -6336,7 +6329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:11" s="6" customFormat="1">
+    <row r="258" s="6" customFormat="1" spans="1:4">
       <c r="A258" s="6" t="s">
         <v>30</v>
       </c>
@@ -6346,7 +6339,7 @@
       </c>
       <c r="D258" s="8"/>
     </row>
-    <row r="260" spans="1:11" s="1" customFormat="1">
+    <row r="260" s="1" customFormat="1" spans="1:9">
       <c r="A260" s="1" t="s">
         <v>0</v>
       </c>
@@ -6370,7 +6363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:11" s="2" customFormat="1">
+    <row r="261" s="2" customFormat="1" spans="1:8">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
@@ -6391,7 +6384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="262" spans="1:11" s="3" customFormat="1">
+    <row r="262" s="3" customFormat="1" spans="1:11">
       <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
@@ -6420,7 +6413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:11" s="4" customFormat="1">
+    <row r="263" s="4" customFormat="1" spans="1:9">
       <c r="A263" s="4" t="s">
         <v>12</v>
       </c>
@@ -6436,7 +6429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:11" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:11">
       <c r="A264" s="5" t="s">
         <v>21</v>
       </c>
@@ -6465,7 +6458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:11" s="6" customFormat="1">
+    <row r="265" s="6" customFormat="1" spans="1:4">
       <c r="A265" s="6" t="s">
         <v>30</v>
       </c>
@@ -6475,12 +6468,12 @@
       </c>
       <c r="D265" s="8"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:1">
       <c r="A266" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="267" spans="1:11" s="1" customFormat="1">
+    <row r="267" s="1" customFormat="1" spans="1:6">
       <c r="A267" s="1" t="s">
         <v>0</v>
       </c>
@@ -6498,7 +6491,7 @@
       </c>
       <c r="F267" s="17"/>
     </row>
-    <row r="268" spans="1:11" s="2" customFormat="1">
+    <row r="268" s="2" customFormat="1" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
@@ -6516,7 +6509,7 @@
       </c>
       <c r="F268" s="21"/>
     </row>
-    <row r="269" spans="1:11" s="3" customFormat="1">
+    <row r="269" s="3" customFormat="1" spans="1:10">
       <c r="A269" s="3" t="s">
         <v>4</v>
       </c>
@@ -6537,7 +6530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="270" spans="1:11" s="4" customFormat="1">
+    <row r="270" s="4" customFormat="1" spans="1:11">
       <c r="A270" s="4" t="s">
         <v>12</v>
       </c>
@@ -6559,7 +6552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:11" s="5" customFormat="1">
+    <row r="271" s="5" customFormat="1" spans="1:11">
       <c r="A271" s="5" t="s">
         <v>21</v>
       </c>
@@ -6588,7 +6581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:11" s="6" customFormat="1">
+    <row r="272" s="6" customFormat="1" spans="1:4">
       <c r="A272" s="6" t="s">
         <v>30</v>
       </c>
@@ -6602,7 +6595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:11" s="1" customFormat="1">
+    <row r="274" s="1" customFormat="1" spans="1:10">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
@@ -6631,7 +6624,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="275" spans="1:11" s="2" customFormat="1">
+    <row r="275" s="2" customFormat="1" spans="1:9">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -6646,7 +6639,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="276" spans="1:11" s="3" customFormat="1">
+    <row r="276" s="3" customFormat="1" spans="1:5">
       <c r="A276" s="3" t="s">
         <v>4</v>
       </c>
@@ -6655,7 +6648,7 @@
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" spans="1:11" s="4" customFormat="1">
+    <row r="277" s="4" customFormat="1" spans="1:9">
       <c r="A277" s="4" t="s">
         <v>12</v>
       </c>
@@ -6681,7 +6674,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="278" spans="1:11" s="5" customFormat="1">
+    <row r="278" s="5" customFormat="1" spans="1:11">
       <c r="A278" s="5" t="s">
         <v>21</v>
       </c>
@@ -6710,7 +6703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:11" s="6" customFormat="1">
+    <row r="279" s="6" customFormat="1" spans="1:4">
       <c r="A279" s="6" t="s">
         <v>30</v>
       </c>
@@ -6724,7 +6717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:11" s="1" customFormat="1">
+    <row r="287" s="1" customFormat="1" spans="1:9">
       <c r="A287" s="1" t="s">
         <v>0</v>
       </c>
@@ -6742,7 +6735,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" spans="1:11" s="2" customFormat="1">
+    <row r="288" s="2" customFormat="1" spans="1:11">
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
@@ -6765,7 +6758,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="289" spans="1:11" s="3" customFormat="1">
+    <row r="289" s="3" customFormat="1" spans="1:9">
       <c r="A289" s="3" t="s">
         <v>4</v>
       </c>
@@ -6789,7 +6782,7 @@
       </c>
       <c r="I289" s="22"/>
     </row>
-    <row r="290" spans="1:11" s="4" customFormat="1">
+    <row r="290" s="4" customFormat="1" spans="1:10">
       <c r="A290" s="4" t="s">
         <v>12</v>
       </c>
@@ -6809,13 +6802,13 @@
         <v>62</v>
       </c>
       <c r="I290" s="14" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="J290" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="291" spans="1:11" s="5" customFormat="1">
+    <row r="291" s="5" customFormat="1" spans="1:11">
       <c r="A291" s="5" t="s">
         <v>21</v>
       </c>
@@ -6844,7 +6837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11" s="6" customFormat="1">
+    <row r="292" s="6" customFormat="1" spans="1:4">
       <c r="A292" s="6" t="s">
         <v>30</v>
       </c>
@@ -6858,20 +6851,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" s="1" customFormat="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" spans="1:11">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>218</v>
@@ -6887,10 +6880,10 @@
         <v>153</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" s="2" customFormat="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" spans="1:10">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
@@ -6899,7 +6892,7 @@
       <c r="D296" s="20"/>
       <c r="F296" s="20"/>
       <c r="H296" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I296" s="2" t="s">
         <v>39</v>
@@ -6908,27 +6901,27 @@
         <v>124</v>
       </c>
     </row>
-    <row r="297" spans="1:11" s="3" customFormat="1">
+    <row r="297" s="3" customFormat="1" spans="1:8">
       <c r="A297" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="298" spans="1:11" s="4" customFormat="1">
+    <row r="298" s="4" customFormat="1" spans="1:8">
       <c r="A298" s="4" t="s">
         <v>12</v>
       </c>
@@ -6936,19 +6929,19 @@
         <v>177</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:11" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:11">
       <c r="A299" s="5" t="s">
         <v>21</v>
       </c>
@@ -6977,7 +6970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="300" spans="1:11" s="6" customFormat="1">
+    <row r="300" s="6" customFormat="1" spans="1:8">
       <c r="A300" s="6" t="s">
         <v>30</v>
       </c>
@@ -6991,46 +6984,46 @@
         <v>7</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" s="1" customFormat="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="302" s="1" customFormat="1" spans="1:8">
       <c r="A302" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F302" s="17"/>
-      <c r="H302" s="46" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" s="2" customFormat="1">
+      <c r="H302" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="303" s="2" customFormat="1" spans="1:10">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D303" s="20"/>
       <c r="F303" s="20"/>
-      <c r="H303" s="47" t="s">
-        <v>470</v>
+      <c r="H303" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>124</v>
@@ -7039,18 +7032,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" spans="1:11" s="3" customFormat="1">
+    <row r="304" s="3" customFormat="1" spans="1:10">
       <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D304" s="42" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E304" s="22"/>
       <c r="H304" s="3" t="s">
@@ -7063,24 +7056,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:11" s="4" customFormat="1">
+    <row r="305" s="4" customFormat="1" spans="1:9">
       <c r="A305" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>20</v>
@@ -7089,7 +7082,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="1:11" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:11">
       <c r="A306" s="5" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="307" spans="1:11" s="6" customFormat="1">
+    <row r="307" s="6" customFormat="1" spans="1:4">
       <c r="A307" s="6" t="s">
         <v>30</v>
       </c>
@@ -7128,12 +7121,12 @@
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="309" spans="1:11" s="1" customFormat="1">
+    <row r="309" s="1" customFormat="1" spans="1:10">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C309" s="17"/>
       <c r="D309" s="16"/>
@@ -7148,7 +7141,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="310" spans="1:11" s="2" customFormat="1">
+    <row r="310" s="2" customFormat="1" spans="1:9">
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
@@ -7157,51 +7150,51 @@
       <c r="D310" s="20"/>
       <c r="F310" s="20"/>
       <c r="H310" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="311" spans="1:11" s="3" customFormat="1">
+    <row r="311" s="3" customFormat="1" spans="1:7">
       <c r="A311" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D311" s="28" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F311" s="28" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" spans="1:11" s="4" customFormat="1">
+    <row r="312" s="4" customFormat="1" spans="1:10">
       <c r="A312" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D312" s="40" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H312" s="4" t="s">
         <v>62</v>
@@ -7213,7 +7206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="313" spans="1:11" s="5" customFormat="1">
+    <row r="313" s="5" customFormat="1" spans="1:11">
       <c r="A313" s="5" t="s">
         <v>21</v>
       </c>
@@ -7242,7 +7235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:11" s="6" customFormat="1">
+    <row r="314" s="6" customFormat="1" spans="1:4">
       <c r="A314" s="6" t="s">
         <v>30</v>
       </c>
@@ -7254,9 +7247,9 @@
       </c>
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>468</v>
+        <v>390</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -7264,16 +7257,16 @@
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -7283,12 +7276,10 @@
       <c r="I316" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J316" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="K316" s="1" t="s">
+      <c r="J316" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="K316" s="1"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="2" t="s">
@@ -7301,14 +7292,12 @@
       <c r="F317" s="20"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I317" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="J317" s="21" t="s">
-        <v>313</v>
-      </c>
+      <c r="J317" s="21"/>
       <c r="K317" s="2"/>
     </row>
     <row r="318" spans="1:11">
@@ -7316,21 +7305,23 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I318" s="3"/>
+      <c r="I318" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
     </row>
@@ -7339,23 +7330,25 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="I319" s="4"/>
+      <c r="I319" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
     </row>
@@ -7412,10 +7405,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7435,16 +7428,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E324" s="20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7452,7 +7445,7 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
@@ -7466,13 +7459,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
@@ -7489,10 +7482,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7562,22 +7555,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F330" s="17" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -7595,16 +7588,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C331" s="43" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7624,16 +7617,16 @@
         <v>4</v>
       </c>
       <c r="B332" s="42" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C332" s="42" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7649,7 +7642,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7713,12 +7706,12 @@
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="337" spans="1:21" s="1" customFormat="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="337" s="1" customFormat="1" spans="1:21">
       <c r="A337" s="1" t="s">
         <v>0</v>
       </c>
@@ -7731,7 +7724,7 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -7740,7 +7733,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7755,13 +7748,13 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="338" spans="1:21" s="2" customFormat="1">
+    <row r="338" s="2" customFormat="1" spans="1:19">
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
@@ -7775,7 +7768,7 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F338" s="21" t="s">
         <v>300</v>
@@ -7802,23 +7795,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="339" spans="1:21" s="3" customFormat="1">
+    <row r="339" s="3" customFormat="1" spans="1:18">
       <c r="A339" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D339" s="9"/>
       <c r="H339" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I339" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M339" s="3" t="s">
         <v>10</v>
       </c>
@@ -7829,28 +7819,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:21" s="4" customFormat="1">
+    <row r="340" s="4" customFormat="1" spans="1:14">
       <c r="A340" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="I340" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="M340" s="4" t="s">
         <v>61</v>
       </c>
@@ -7858,7 +7851,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="341" spans="1:21" s="5" customFormat="1">
+    <row r="341" s="5" customFormat="1" spans="1:21">
       <c r="A341" s="5" t="s">
         <v>21</v>
       </c>
@@ -7911,7 +7904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="6" customFormat="1">
+    <row r="342" s="6" customFormat="1" spans="1:8">
       <c r="A342" s="6" t="s">
         <v>30</v>
       </c>
@@ -7925,10 +7918,10 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="344" spans="1:21" s="1" customFormat="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="344" s="1" customFormat="1" spans="1:9">
       <c r="A344" s="32" t="s">
         <v>0</v>
       </c>
@@ -7942,11 +7935,11 @@
       <c r="H344" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="I344" s="46" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="345" spans="1:21" s="2" customFormat="1">
+      <c r="I344" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="345" s="2" customFormat="1" spans="1:10">
       <c r="A345" s="33" t="s">
         <v>3</v>
       </c>
@@ -7954,10 +7947,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7971,18 +7964,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="346" spans="1:21" s="3" customFormat="1">
+    <row r="346" s="3" customFormat="1" spans="1:9">
       <c r="A346" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -7994,21 +7987,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:21" s="4" customFormat="1">
+    <row r="347" s="4" customFormat="1" spans="1:10">
       <c r="A347" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="42" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E347" s="42" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
@@ -8021,7 +8014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:21" s="5" customFormat="1">
+    <row r="348" s="5" customFormat="1" spans="1:11">
       <c r="A348" s="36" t="s">
         <v>21</v>
       </c>
@@ -8050,7 +8043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="349" spans="1:21" s="6" customFormat="1">
+    <row r="349" s="6" customFormat="1" spans="1:4">
       <c r="A349" s="6" t="s">
         <v>30</v>
       </c>
@@ -8060,12 +8053,12 @@
       </c>
       <c r="D349" s="8"/>
     </row>
-    <row r="351" spans="1:21" s="1" customFormat="1">
+    <row r="351" s="1" customFormat="1" spans="1:17">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8078,7 +8071,7 @@
         <v>2</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>311</v>
@@ -8093,30 +8086,30 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q351" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="352" spans="1:21" s="2" customFormat="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="352" s="2" customFormat="1" spans="1:14">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
@@ -8137,32 +8130,32 @@
         <v>313</v>
       </c>
     </row>
-    <row r="353" spans="1:16" s="3" customFormat="1">
+    <row r="353" s="3" customFormat="1" spans="1:6">
       <c r="A353" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" s="4" customFormat="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="354" s="4" customFormat="1" spans="1:13">
       <c r="A354" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8178,7 +8171,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="355" spans="1:16" s="5" customFormat="1">
+    <row r="355" s="5" customFormat="1" spans="1:16">
       <c r="A355" s="5" t="s">
         <v>21</v>
       </c>
@@ -8219,7 +8212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="356" spans="1:16" s="6" customFormat="1">
+    <row r="356" s="6" customFormat="1" spans="1:4">
       <c r="A356" s="6" t="s">
         <v>30</v>
       </c>
@@ -8229,7 +8222,7 @@
       </c>
       <c r="D356" s="8"/>
     </row>
-    <row r="358" spans="1:16" s="1" customFormat="1">
+    <row r="358" s="1" customFormat="1" spans="1:14">
       <c r="A358" s="1" t="s">
         <v>0</v>
       </c>
@@ -8244,16 +8237,22 @@
       <c r="I358" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="359" spans="1:16" s="2" customFormat="1">
+      <c r="M358" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N358" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="359" s="2" customFormat="1" spans="1:15">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8267,10 +8266,19 @@
         <v>312</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" s="3" customFormat="1">
+        <v>407</v>
+      </c>
+      <c r="M359" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="N359" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O359" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="360" s="3" customFormat="1" spans="1:14">
       <c r="A360" s="3" t="s">
         <v>4</v>
       </c>
@@ -8278,7 +8286,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8298,31 +8306,43 @@
       <c r="J360" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="361" spans="1:16" s="4" customFormat="1">
+      <c r="M360" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N360" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="361" s="4" customFormat="1" spans="1:14">
       <c r="A361" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H361" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="362" spans="1:16" s="5" customFormat="1">
+      <c r="M361" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="N361" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="362" s="5" customFormat="1" spans="1:16">
       <c r="A362" s="5" t="s">
         <v>21</v>
       </c>
@@ -8350,8 +8370,20 @@
       <c r="K362" s="38" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="363" spans="1:16" s="6" customFormat="1">
+      <c r="M362" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N362" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O362" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P362" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="363" s="6" customFormat="1" spans="1:4">
       <c r="A363" s="6" t="s">
         <v>30</v>
       </c>
@@ -8361,7 +8393,7 @@
       </c>
       <c r="D363" s="8"/>
     </row>
-    <row r="365" spans="1:16" s="1" customFormat="1">
+    <row r="365" s="1" customFormat="1" spans="1:9">
       <c r="A365" s="1" t="s">
         <v>0</v>
       </c>
@@ -8369,7 +8401,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8381,13 +8413,13 @@
         <v>93</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="I365" s="16" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="366" spans="1:16" s="2" customFormat="1">
+    <row r="366" s="2" customFormat="1" spans="1:10">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
@@ -8395,13 +8427,13 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E366" s="21" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
@@ -8414,15 +8446,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="367" spans="1:16" s="3" customFormat="1">
+    <row r="367" s="3" customFormat="1" spans="1:10">
       <c r="A367" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -8436,7 +8468,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="368" spans="1:16" s="4" customFormat="1">
+    <row r="368" s="4" customFormat="1" spans="1:9">
       <c r="A368" s="4" t="s">
         <v>12</v>
       </c>
@@ -8448,10 +8480,10 @@
         <v>319</v>
       </c>
       <c r="I368" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" s="5" customFormat="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="369" s="5" customFormat="1" spans="1:11">
       <c r="A369" s="5" t="s">
         <v>21</v>
       </c>
@@ -8480,7 +8512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" spans="1:11" s="6" customFormat="1">
+    <row r="370" s="6" customFormat="1" spans="1:4">
       <c r="A370" s="6" t="s">
         <v>30</v>
       </c>
@@ -8495,9 +8527,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
   <si>
     <t>王国</t>
   </si>
@@ -1254,6 +1254,9 @@
     <t>死域军神+不动</t>
   </si>
   <si>
+    <t>不屈</t>
+  </si>
+  <si>
     <t>小阻碍</t>
   </si>
   <si>
@@ -1369,6 +1372,9 @@
   </si>
   <si>
     <t>不动兔子</t>
+  </si>
+  <si>
+    <t>龙灵使者</t>
   </si>
   <si>
     <t>不动黄金金属巨龙</t>
@@ -1503,8 +1509,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
@@ -2042,8 +2048,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="N363" sqref="N363"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="J347" sqref="J347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6918,7 +6924,7 @@
         <v>359</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" s="4" customFormat="1" spans="1:8">
@@ -7135,7 +7141,7 @@
         <v>2</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>118</v>
@@ -7177,7 +7183,7 @@
       </c>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" s="4" customFormat="1" spans="1:10">
+    <row r="312" s="4" customFormat="1" spans="1:11">
       <c r="A312" s="4" t="s">
         <v>12</v>
       </c>
@@ -7204,6 +7210,9 @@
       </c>
       <c r="J312" s="4" t="s">
         <v>61</v>
+      </c>
+      <c r="K312" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="313" s="5" customFormat="1" spans="1:11">
@@ -7228,8 +7237,8 @@
       <c r="I313" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="J313" s="38" t="s">
-        <v>80</v>
+      <c r="J313" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="K313" s="24" t="s">
         <v>27</v>
@@ -7249,7 +7258,7 @@
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -7257,16 +7266,16 @@
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C316" s="17" t="s">
         <v>366</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -7305,14 +7314,14 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -7330,16 +7339,16 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -7405,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7428,16 +7437,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E324" s="20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7445,7 +7454,7 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
@@ -7459,13 +7468,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
@@ -7482,10 +7491,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7555,22 +7564,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F330" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -7588,16 +7597,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C331" s="43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7620,13 +7629,13 @@
         <v>380</v>
       </c>
       <c r="C332" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D332" s="22" t="s">
         <v>372</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7642,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7708,7 +7717,7 @@
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" spans="1:21">
@@ -7724,7 +7733,7 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -7733,7 +7742,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7748,7 +7757,7 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
@@ -7768,7 +7777,7 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F338" s="21" t="s">
         <v>300</v>
@@ -7784,6 +7793,9 @@
       </c>
       <c r="K338" s="2" t="s">
         <v>312</v>
+      </c>
+      <c r="L338" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="M338" s="2" t="s">
         <v>72</v>
@@ -7800,15 +7812,12 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D339" s="9"/>
-      <c r="H339" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M339" s="3" t="s">
         <v>10</v>
       </c>
@@ -7824,19 +7833,19 @@
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>358</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
@@ -7918,10 +7927,10 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="344" s="1" customFormat="1" spans="1:9">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="344" s="1" customFormat="1" spans="1:10">
       <c r="A344" s="32" t="s">
         <v>0</v>
       </c>
@@ -7938,6 +7947,9 @@
       <c r="I344" s="16" t="s">
         <v>136</v>
       </c>
+      <c r="J344" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="345" s="2" customFormat="1" spans="1:10">
       <c r="A345" s="33" t="s">
@@ -7947,10 +7959,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7969,13 +7981,13 @@
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -7987,21 +7999,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" s="4" customFormat="1" spans="1:10">
+    <row r="347" s="4" customFormat="1" spans="1:9">
       <c r="A347" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="42" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E347" s="42" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
@@ -8010,9 +8022,6 @@
       <c r="I347" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="J347" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="348" s="5" customFormat="1" spans="1:11">
       <c r="A348" s="36" t="s">
@@ -8058,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8071,7 +8080,7 @@
         <v>2</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>311</v>
@@ -8086,10 +8095,10 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q351" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:14">
@@ -8097,19 +8106,19 @@
         <v>3</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
@@ -8135,19 +8144,19 @@
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="354" s="4" customFormat="1" spans="1:13">
@@ -8155,7 +8164,7 @@
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8249,10 +8258,10 @@
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8266,16 +8275,16 @@
         <v>312</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N359" s="2" t="s">
         <v>72</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="360" s="3" customFormat="1" spans="1:14">
@@ -8286,7 +8295,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8321,22 +8330,22 @@
         <v>361</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H361" s="4" t="s">
         <v>319</v>
       </c>
       <c r="M361" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N361" s="4" t="s">
         <v>130</v>
@@ -8401,7 +8410,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8427,13 +8436,13 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E366" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
@@ -8451,10 +8460,10 @@
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -8480,7 +8489,7 @@
         <v>319</v>
       </c>
       <c r="I368" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="369" s="5" customFormat="1" spans="1:11">

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="12180"/>
+    <workbookView windowWidth="25095" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475">
   <si>
     <t>王国</t>
   </si>
@@ -1003,6 +1003,12 @@
     <t>月樱</t>
   </si>
   <si>
+    <t>叹惋</t>
+  </si>
+  <si>
+    <t>月女*2</t>
+  </si>
+  <si>
     <t>处女座</t>
   </si>
   <si>
@@ -1130,9 +1136,6 @@
   </si>
   <si>
     <t>回魂2女武神</t>
-  </si>
-  <si>
-    <t>月女*2</t>
   </si>
   <si>
     <t>圣炎圆月</t>
@@ -1502,18 +1505,21 @@
   <si>
     <t>死域军神</t>
   </si>
+  <si>
+    <t>死域军神*2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1552,12 +1558,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1624,8 +1781,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1633,24 +1976,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1706,13 +2276,56 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1763,71 +2376,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2048,8 +2661,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="J347" sqref="J347"/>
+    <sheetView tabSelected="1" topLeftCell="D332" workbookViewId="0">
+      <selection activeCell="M362" sqref="M362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6053,10 +6666,10 @@
         <v>310</v>
       </c>
       <c r="H246" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I246" s="16" t="s">
         <v>311</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="J246" s="16"/>
       <c r="K246" s="16"/>
@@ -6077,13 +6690,13 @@
       <c r="E247" s="21"/>
       <c r="F247" s="21"/>
       <c r="H247" s="2" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="I247" s="2" t="s">
         <v>124</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M247" s="2" t="s">
         <v>72</v>
@@ -6092,10 +6705,10 @@
         <v>124</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P247" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="248" s="3" customFormat="1" spans="1:15">
@@ -6103,16 +6716,16 @@
         <v>4</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H248" s="3" t="s">
         <v>11</v>
@@ -6135,7 +6748,7 @@
         <v>12</v>
       </c>
       <c r="B249" s="40" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>243</v>
@@ -6144,23 +6757,21 @@
         <v>32</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F249" s="14"/>
       <c r="H249" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I249" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J249" s="4"/>
       <c r="M249" s="14" t="s">
         <v>62</v>
       </c>
       <c r="N249" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="250" s="5" customFormat="1" spans="1:16">
@@ -6235,7 +6846,7 @@
         <v>210</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>35</v>
@@ -6249,7 +6860,7 @@
         <v>3</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C254" s="20" t="s">
         <v>301</v>
@@ -6261,10 +6872,10 @@
         <v>85</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>72</v>
@@ -6350,16 +6961,16 @@
         <v>0</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E260" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F260" s="17"/>
       <c r="H260" s="1" t="s">
@@ -6380,10 +6991,10 @@
         <v>189</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F261" s="21"/>
       <c r="H261" s="2" t="s">
@@ -6395,16 +7006,16 @@
         <v>4</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H262" s="3" t="s">
         <v>10</v>
@@ -6476,7 +7087,7 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="267" s="1" customFormat="1" spans="1:6">
@@ -6484,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>271</v>
@@ -6502,13 +7113,13 @@
         <v>3</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E268" s="21" t="s">
         <v>272</v>
@@ -6520,10 +7131,10 @@
         <v>4</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D269" s="9"/>
       <c r="H269" s="3" t="s">
@@ -6563,7 +7174,7 @@
         <v>21</v>
       </c>
       <c r="B271" s="38" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C271" s="38" t="s">
         <v>91</v>
@@ -6606,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C274" s="16" t="s">
         <v>254</v>
@@ -6662,22 +7273,22 @@
         <v>249</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I277" s="14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="278" s="5" customFormat="1" spans="1:11">
@@ -6755,13 +7366,13 @@
         <v>72</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J288" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="289" s="3" customFormat="1" spans="1:9">
@@ -6769,10 +7380,10 @@
         <v>4</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>74</v>
@@ -6799,19 +7410,19 @@
         <v>109</v>
       </c>
       <c r="D290" s="15" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H290" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I290" s="14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" s="5" customFormat="1" spans="1:11">
@@ -6859,7 +7470,7 @@
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="295" s="1" customFormat="1" spans="1:11">
@@ -6867,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>218</v>
@@ -6898,7 +7509,7 @@
       <c r="D296" s="20"/>
       <c r="F296" s="20"/>
       <c r="H296" s="2" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="I296" s="2" t="s">
         <v>39</v>
@@ -6912,16 +7523,16 @@
         <v>4</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>11</v>
@@ -6935,13 +7546,13 @@
         <v>177</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>20</v>
@@ -6990,12 +7601,12 @@
         <v>7</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="302" s="1" customFormat="1" spans="1:8">
@@ -7003,13 +7614,13 @@
         <v>0</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F302" s="17"/>
       <c r="H302" s="16" t="s">
@@ -7021,21 +7632,21 @@
         <v>3</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D303" s="20"/>
       <c r="F303" s="20"/>
       <c r="H303" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>124</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="1" spans="1:10">
@@ -7043,13 +7654,13 @@
         <v>4</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D304" s="42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E304" s="22"/>
       <c r="H304" s="3" t="s">
@@ -7067,25 +7678,25 @@
         <v>12</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" s="5" customFormat="1" spans="1:11">
@@ -7132,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C309" s="17"/>
       <c r="D309" s="16"/>
@@ -7156,7 +7767,7 @@
       <c r="D310" s="20"/>
       <c r="F310" s="20"/>
       <c r="H310" s="2" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>124</v>
@@ -7167,19 +7778,19 @@
         <v>4</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D311" s="28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F311" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G311" s="4"/>
     </row>
@@ -7188,31 +7799,31 @@
         <v>12</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D312" s="40" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H312" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J312" s="4" t="s">
         <v>61</v>
       </c>
       <c r="K312" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="313" s="5" customFormat="1" spans="1:11">
@@ -7258,7 +7869,7 @@
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -7266,16 +7877,16 @@
         <v>0</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="1"/>
@@ -7301,7 +7912,7 @@
       <c r="F317" s="20"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="I317" s="21" t="s">
         <v>124</v>
@@ -7314,14 +7925,14 @@
         <v>4</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -7339,21 +7950,21 @@
         <v>12</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I319" s="4" t="s">
         <v>62</v>
@@ -7414,10 +8025,10 @@
         <v>0</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7437,16 +8048,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E324" s="20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -7454,13 +8065,13 @@
         <v>72</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K324" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -7468,13 +8079,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E325" s="22"/>
       <c r="F325" s="3"/>
@@ -7491,10 +8102,10 @@
         <v>12</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -7504,7 +8115,7 @@
         <v>62</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J326" s="4" t="s">
         <v>20</v>
@@ -7564,22 +8175,22 @@
         <v>0</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F330" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H330" s="16" t="s">
         <v>2</v>
@@ -7597,16 +8208,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C331" s="43" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -7617,7 +8228,7 @@
         <v>124</v>
       </c>
       <c r="J331" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K331" s="2"/>
     </row>
@@ -7626,16 +8237,16 @@
         <v>4</v>
       </c>
       <c r="B332" s="42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C332" s="42" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -7651,7 +8262,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -7659,7 +8270,7 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I333" s="14" t="s">
         <v>102</v>
@@ -7717,7 +8328,7 @@
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" spans="1:21">
@@ -7733,7 +8344,7 @@
         <v>153</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -7742,7 +8353,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -7757,7 +8368,7 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
@@ -7768,7 +8379,7 @@
         <v>3</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>53</v>
@@ -7777,7 +8388,7 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F338" s="21" t="s">
         <v>300</v>
@@ -7786,16 +8397,16 @@
         <v>72</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J338" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K338" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L338" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M338" s="2" t="s">
         <v>72</v>
@@ -7812,10 +8423,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D339" s="9"/>
       <c r="M339" s="3" t="s">
@@ -7833,25 +8444,25 @@
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I340" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M340" s="4" t="s">
         <v>61</v>
@@ -7927,7 +8538,7 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" spans="1:10">
@@ -7948,7 +8559,7 @@
         <v>136</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="345" s="2" customFormat="1" spans="1:10">
@@ -7959,10 +8570,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -7973,7 +8584,7 @@
         <v>124</v>
       </c>
       <c r="J345" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="346" s="3" customFormat="1" spans="1:9">
@@ -7981,13 +8592,13 @@
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -8004,23 +8615,23 @@
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="42" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E347" s="42" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I347" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="348" s="5" customFormat="1" spans="1:11">
@@ -8067,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8080,7 +8691,7 @@
         <v>2</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>311</v>
@@ -8095,10 +8706,10 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q351" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:14">
@@ -8106,37 +8717,37 @@
         <v>3</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J352" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M352" s="2" t="s">
         <v>124</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="353" s="3" customFormat="1" spans="1:6">
@@ -8144,19 +8755,19 @@
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="354" s="4" customFormat="1" spans="1:13">
@@ -8164,7 +8775,7 @@
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8173,7 +8784,7 @@
         <v>62</v>
       </c>
       <c r="I354" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J354" s="14"/>
       <c r="M354" s="4" t="s">
@@ -8258,10 +8869,10 @@
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8272,19 +8883,19 @@
         <v>72</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N359" s="2" t="s">
         <v>72</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="360" s="3" customFormat="1" spans="1:14">
@@ -8295,7 +8906,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8327,25 +8938,25 @@
         <v>12</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H361" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M361" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N361" s="4" t="s">
         <v>130</v>
@@ -8402,7 +9013,7 @@
       </c>
       <c r="D363" s="8"/>
     </row>
-    <row r="365" s="1" customFormat="1" spans="1:9">
+    <row r="365" s="1" customFormat="1" spans="1:14">
       <c r="A365" s="1" t="s">
         <v>0</v>
       </c>
@@ -8410,7 +9021,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -8427,8 +9038,17 @@
       <c r="I365" s="16" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="366" s="2" customFormat="1" spans="1:10">
+      <c r="J365" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M365" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N365" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="366" s="2" customFormat="1" spans="1:15">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
@@ -8436,34 +9056,43 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E366" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
         <v>72</v>
       </c>
       <c r="I366" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J366" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="367" s="3" customFormat="1" spans="1:10">
+      <c r="M366" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N366" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="O366" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="367" s="3" customFormat="1" spans="1:15">
       <c r="A367" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -8473,11 +9102,16 @@
       <c r="I367" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J367" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="368" s="4" customFormat="1" spans="1:9">
+      <c r="J367" s="22"/>
+      <c r="M367" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N367" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O367" s="22"/>
+    </row>
+    <row r="368" s="4" customFormat="1" spans="1:14">
       <c r="A368" s="4" t="s">
         <v>12</v>
       </c>
@@ -8486,13 +9120,19 @@
       <c r="E368" s="14"/>
       <c r="F368" s="14"/>
       <c r="H368" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I368" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="369" s="5" customFormat="1" spans="1:11">
+        <v>473</v>
+      </c>
+      <c r="M368" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="N368" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="369" s="5" customFormat="1" spans="1:16">
       <c r="A369" s="5" t="s">
         <v>21</v>
       </c>
@@ -8518,6 +9158,18 @@
         <v>27</v>
       </c>
       <c r="K369" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M369" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N369" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O369" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P369" s="31" t="s">
         <v>29</v>
       </c>
     </row>

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
   <si>
     <t>王国</t>
   </si>
@@ -1377,9 +1377,6 @@
     <t>不动兔子</t>
   </si>
   <si>
-    <t>龙灵使者</t>
-  </si>
-  <si>
     <t>不动黄金金属巨龙</t>
   </si>
   <si>
@@ -1501,9 +1498,6 @@
   </si>
   <si>
     <t>复活陨星</t>
-  </si>
-  <si>
-    <t>死域军神</t>
   </si>
   <si>
     <t>死域军神*2</t>
@@ -1514,10 +1508,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2661,8 +2655,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D332" workbookViewId="0">
-      <selection activeCell="M362" sqref="M362"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="J291" sqref="J291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6766,7 +6760,6 @@
       <c r="I249" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="J249" s="4"/>
       <c r="M249" s="14" t="s">
         <v>62</v>
       </c>
@@ -7473,7 +7466,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" spans="1:11">
+    <row r="295" s="1" customFormat="1" spans="1:12">
       <c r="A295" s="1" t="s">
         <v>0</v>
       </c>
@@ -7499,8 +7492,11 @@
       <c r="K295" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="296" s="2" customFormat="1" spans="1:10">
+      <c r="L295" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" spans="1:9">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
@@ -7512,9 +7508,6 @@
         <v>313</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J296" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8341,7 +8334,7 @@
       <c r="E337" s="16"/>
       <c r="F337" s="17"/>
       <c r="H337" s="1" t="s">
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>428</v>
@@ -8394,7 +8387,7 @@
         <v>300</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="I338" s="2" t="s">
         <v>315</v>
@@ -8404,9 +8397,6 @@
       </c>
       <c r="K338" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="L338" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="M338" s="2" t="s">
         <v>72</v>
@@ -8423,10 +8413,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C339" s="21" t="s">
         <v>432</v>
-      </c>
-      <c r="C339" s="21" t="s">
-        <v>433</v>
       </c>
       <c r="D339" s="9"/>
       <c r="M339" s="3" t="s">
@@ -8444,19 +8434,19 @@
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>359</v>
       </c>
       <c r="D340" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="E340" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="E340" s="14" t="s">
+      <c r="F340" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="F340" s="14" t="s">
-        <v>437</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
@@ -8538,7 +8528,7 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" spans="1:10">
@@ -8570,10 +8560,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D345" s="21" t="s">
         <v>439</v>
-      </c>
-      <c r="D345" s="21" t="s">
-        <v>440</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -8592,13 +8582,13 @@
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C346" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="C346" s="22" t="s">
+      <c r="D346" s="22" t="s">
         <v>442</v>
-      </c>
-      <c r="D346" s="22" t="s">
-        <v>443</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -8615,16 +8605,16 @@
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="E347" s="42" t="s">
         <v>445</v>
-      </c>
-      <c r="E347" s="42" t="s">
-        <v>446</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
@@ -8678,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8706,10 +8696,10 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q351" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="Q351" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:14">
@@ -8717,19 +8707,19 @@
         <v>3</v>
       </c>
       <c r="B352" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="C352" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="C352" s="20" t="s">
+      <c r="D352" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="D352" s="20" t="s">
-        <v>452</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
@@ -8755,19 +8745,19 @@
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="E353" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="E353" s="22" t="s">
+      <c r="F353" s="22" t="s">
         <v>456</v>
-      </c>
-      <c r="F353" s="22" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="354" s="4" customFormat="1" spans="1:13">
@@ -8775,7 +8765,7 @@
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8869,10 +8859,10 @@
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="C359" s="42" t="s">
         <v>459</v>
-      </c>
-      <c r="C359" s="42" t="s">
-        <v>460</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8889,7 +8879,7 @@
         <v>409</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N359" s="2" t="s">
         <v>72</v>
@@ -8906,7 +8896,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8941,22 +8931,22 @@
         <v>362</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="F361" s="14" t="s">
         <v>464</v>
-      </c>
-      <c r="F361" s="14" t="s">
-        <v>465</v>
       </c>
       <c r="H361" s="4" t="s">
         <v>321</v>
       </c>
       <c r="M361" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N361" s="4" t="s">
         <v>130</v>
@@ -9021,7 +9011,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -9040,6 +9030,9 @@
       </c>
       <c r="J365" s="1" t="s">
         <v>312</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="M365" s="1" t="s">
         <v>136</v>
@@ -9056,13 +9049,13 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="D366" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="D366" s="21" t="s">
+      <c r="E366" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="E366" s="21" t="s">
-        <v>470</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
@@ -9089,10 +9082,10 @@
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C367" s="16" t="s">
         <v>471</v>
-      </c>
-      <c r="C367" s="16" t="s">
-        <v>472</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -9122,14 +9115,11 @@
       <c r="H368" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="I368" s="4" t="s">
-        <v>473</v>
-      </c>
       <c r="M368" s="14" t="s">
         <v>321</v>
       </c>
       <c r="N368" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="369" s="5" customFormat="1" spans="1:16">

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -1508,10 +1508,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1552,13 +1552,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1585,44 +1578,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1657,6 +1612,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1673,14 +1636,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,25 +1777,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,79 +1825,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,6 +1879,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1951,13 +1915,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,148 +2073,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2655,8 +2655,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="J291" sqref="J291"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="J354" sqref="J354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8342,6 +8342,9 @@
       <c r="J337" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="K337" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="M337" s="1" t="s">
         <v>103</v>
       </c>
@@ -8395,9 +8398,7 @@
       <c r="J338" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K338" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="K338" s="2"/>
       <c r="M338" s="2" t="s">
         <v>72</v>
       </c>
@@ -8847,6 +8848,9 @@
       <c r="I358" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="J358" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="M358" s="1" t="s">
         <v>2</v>
       </c>
@@ -8913,9 +8917,7 @@
       <c r="I360" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J360" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="J360" s="3"/>
       <c r="M360" s="3" t="s">
         <v>11</v>
       </c>

--- a/地下城(6).xlsx
+++ b/地下城(6).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
   <si>
     <t>王国</t>
   </si>
@@ -1344,6 +1344,9 @@
     <t>降临天使+不动</t>
   </si>
   <si>
+    <t>命运占卜师</t>
+  </si>
+  <si>
     <t>星夜女神+全体阻碍1</t>
   </si>
   <si>
@@ -1500,7 +1503,7 @@
     <t>复活陨星</t>
   </si>
   <si>
-    <t>死域军神*2</t>
+    <t>死域军神</t>
   </si>
 </sst>
 </file>
@@ -1509,9 +1512,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1552,9 +1555,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1580,9 +1582,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,17 +1653,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1636,51 +1676,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,30 +1780,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1837,7 +1816,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,30 +1942,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1915,49 +1954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,6 +1971,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1988,24 +2000,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2025,13 +2024,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2076,10 +2079,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2088,133 +2091,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2655,8 +2658,8 @@
   <sheetPr/>
   <dimension ref="A1:V370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="J354" sqref="J354"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="I332" sqref="I332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8194,28 +8197,30 @@
       <c r="J330" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K330" s="1"/>
+      <c r="K330" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C331" s="43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
       <c r="H331" s="2" t="s">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="I331" s="2" t="s">
         <v>124</v>
@@ -8233,20 +8238,22 @@
         <v>381</v>
       </c>
       <c r="C332" s="42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D332" s="22" t="s">
         <v>373</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I332" s="3"/>
+      <c r="I332" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
     </row>
@@ -8255,7 +8262,7 @@
         <v>12</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10"/>
@@ -8265,9 +8272,7 @@
       <c r="H333" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="I333" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="I333" s="14"/>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
     </row>
@@ -8292,8 +8297,8 @@
       <c r="H334" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I334" s="38" t="s">
-        <v>80</v>
+      <c r="I334" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="J334" s="24" t="s">
         <v>27</v>
@@ -8321,7 +8326,7 @@
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" spans="1:21">
@@ -8337,7 +8342,7 @@
         <v>311</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J337" s="16" t="s">
         <v>2</v>
@@ -8349,7 +8354,7 @@
         <v>103</v>
       </c>
       <c r="N337" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O337" s="1" t="s">
         <v>153</v>
@@ -8364,7 +8369,7 @@
         <v>247</v>
       </c>
       <c r="T337" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U337" s="1" t="s">
         <v>67</v>
@@ -8384,7 +8389,7 @@
         <v>286</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F338" s="21" t="s">
         <v>300</v>
@@ -8398,7 +8403,6 @@
       <c r="J338" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K338" s="2"/>
       <c r="M338" s="2" t="s">
         <v>72</v>
       </c>
@@ -8414,10 +8418,10 @@
         <v>4</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D339" s="9"/>
       <c r="M339" s="3" t="s">
@@ -8435,19 +8439,19 @@
         <v>12</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>359</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>62</v>
@@ -8529,7 +8533,7 @@
         <v>7</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" spans="1:10">
@@ -8550,7 +8554,7 @@
         <v>136</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="345" s="2" customFormat="1" spans="1:10">
@@ -8561,10 +8565,10 @@
         <v>287</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -8583,13 +8587,13 @@
         <v>4</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E346" s="9" t="s">
         <v>7</v>
@@ -8606,16 +8610,16 @@
         <v>12</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D347" s="42" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E347" s="42" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F347" s="14"/>
       <c r="H347" s="14" t="s">
@@ -8669,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -8682,7 +8686,7 @@
         <v>2</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>311</v>
@@ -8697,10 +8701,10 @@
         <v>119</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q351" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:14">
@@ -8708,19 +8712,19 @@
         <v>3</v>
       </c>
       <c r="B352" s="43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E352" s="45" t="s">
         <v>137</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>72</v>
@@ -8746,19 +8750,19 @@
         <v>4</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C353" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="354" s="4" customFormat="1" spans="1:13">
@@ -8766,7 +8770,7 @@
         <v>12</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="14"/>
@@ -8863,10 +8867,10 @@
         <v>3</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D359" s="20"/>
       <c r="F359" s="20"/>
@@ -8883,7 +8887,7 @@
         <v>409</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N359" s="2" t="s">
         <v>72</v>
@@ -8900,7 +8904,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D360" s="9" t="s">
         <v>7</v>
@@ -8917,7 +8921,6 @@
       <c r="I360" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J360" s="3"/>
       <c r="M360" s="3" t="s">
         <v>11</v>
       </c>
@@ -8933,22 +8936,22 @@
         <v>362</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H361" s="4" t="s">
         <v>321</v>
       </c>
       <c r="M361" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N361" s="4" t="s">
         <v>130</v>
@@ -9005,7 +9008,7 @@
       </c>
       <c r="D363" s="8"/>
     </row>
-    <row r="365" s="1" customFormat="1" spans="1:14">
+    <row r="365" s="1" customFormat="1" spans="1:15">
       <c r="A365" s="1" t="s">
         <v>0</v>
       </c>
@@ -9013,7 +9016,7 @@
         <v>221</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>218</v>
@@ -9034,13 +9037,16 @@
         <v>312</v>
       </c>
       <c r="K365" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M365" s="1" t="s">
         <v>136</v>
       </c>
       <c r="N365" s="16" t="s">
         <v>311</v>
+      </c>
+      <c r="O365" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="366" s="2" customFormat="1" spans="1:15">
@@ -9051,13 +9057,13 @@
         <v>241</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E366" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F366" s="21"/>
       <c r="H366" s="2" t="s">
@@ -9084,10 +9090,10 @@
         <v>4</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -9121,7 +9127,7 @@
         <v>321</v>
       </c>
       <c r="N368" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="369" s="5" customFormat="1" spans="1:16">
